--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>m</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -41,6 +41,7 @@
           <t xml:space="preserve">button
 entry
 label
+message
 scrollx
 scrolly
 list
@@ -130,7 +131,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>m</author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -145,6 +146,7 @@
           <t xml:space="preserve">button
 entry
 label
+message
 scrollx
 scrolly
 list
@@ -232,7 +234,7 @@
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>m</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0">
@@ -283,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="184">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -343,6 +345,18 @@
 Attributes
 And
 Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combo</t>
   </si>
   <si>
     <t xml:space="preserve">begmenu</t>
@@ -527,10 +541,13 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">resume parent variable name for the submenu parent _label name</t>
+    <t xml:space="preserve">parent variable name for the submenu parent _label name</t>
   </si>
   <si>
     <t xml:space="preserve">_Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent variable name for top menu</t>
   </si>
   <si>
     <t xml:space="preserve">mn_help</t>
@@ -570,9 +587,6 @@
 Values</t>
   </si>
   <si>
-    <t xml:space="preserve">button</t>
-  </si>
-  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -582,9 +596,6 @@
     <t xml:space="preserve">( x,x,x,… )</t>
   </si>
   <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
     <t xml:space="preserve">(x)</t>
   </si>
   <si>
@@ -630,9 +641,6 @@
     <t xml:space="preserve">x999</t>
   </si>
   <si>
-    <t xml:space="preserve">combo</t>
-  </si>
-  <si>
     <t xml:space="preserve">notebook</t>
   </si>
   <si>
@@ -657,7 +665,7 @@
     <t xml:space="preserve">999x999</t>
   </si>
   <si>
-    <t xml:space="preserve">progress</t>
+    <t xml:space="preserve">Note some of the code inserted for certain widgets is mostly “commented” out because of certain choices and modifications that will be needed.</t>
   </si>
   <si>
     <t xml:space="preserve">Widgets</t>
@@ -926,7 +934,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1024,6 +1032,21 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1045,6 +1068,12 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="DejaVu Sans Mono"/>
       <family val="3"/>
       <charset val="1"/>
@@ -1104,7 +1133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1127,6 +1156,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
@@ -1159,7 +1195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1244,7 +1280,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1280,15 +1324,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1296,31 +1340,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1332,39 +1376,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1433,7 +1481,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -1453,25 +1501,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="47.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="16.53"/>
   </cols>
@@ -1530,17 +1578,63 @@
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A100" type="list">
+      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3" type="list">
+      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H100" type="whole">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I100" type="textLength">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1560,16 +1654,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="75.03"/>
   </cols>
   <sheetData>
@@ -1591,235 +1685,241 @@
       </c>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="4" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F2" s="16"/>
     </row>
     <row r="3" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="19"/>
     </row>
     <row r="8" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F8" s="19"/>
     </row>
     <row r="9" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" s="19"/>
     </row>
     <row r="10" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" s="19"/>
     </row>
     <row r="12" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>53</v>
+      <c r="B15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="19"/>
+        <v>59</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F18" s="19"/>
     </row>
     <row r="19" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F20" s="19"/>
     </row>
@@ -1844,20 +1944,20 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="4.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="24" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="24" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.09"/>
   </cols>
   <sheetData>
@@ -1882,618 +1982,609 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="23" t="s">
+    <row r="2" s="31" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>69</v>
+      <c r="J2" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>69</v>
+      <c r="A4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>69</v>
+      <c r="B5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="40"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="35" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="38"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="36" t="s">
-        <v>69</v>
+      <c r="E12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13" s="38"/>
+      <c r="E13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>69</v>
+      <c r="A14" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36" t="s">
-        <v>69</v>
+      <c r="A15" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
+      <c r="A16" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="A17" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
+      <c r="A18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="38"/>
+      <c r="A19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
+      <c r="A20" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
+      <c r="A21" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>69</v>
+      <c r="A22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="36"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="36"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="36"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-    </row>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
@@ -2518,216 +2609,216 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="44" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="44" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="44" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="47" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>97</v>
+      <c r="A1" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>99</v>
+      <c r="A2" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>101</v>
+      <c r="A3" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>103</v>
+      <c r="A4" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>105</v>
+      <c r="A5" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>107</v>
+      <c r="A6" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>109</v>
+      <c r="A7" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>111</v>
+      <c r="A8" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>113</v>
+      <c r="A9" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>115</v>
+      <c r="A10" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="48" t="s">
+      <c r="A11" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>120</v>
+      <c r="A13" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>122</v>
+      <c r="A14" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>124</v>
+      <c r="A15" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>126</v>
+      <c r="A16" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>128</v>
+      <c r="A17" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="49"/>
+      <c r="A18" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="52"/>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>131</v>
+      <c r="A19" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>133</v>
+      <c r="A20" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>135</v>
+      <c r="A21" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>137</v>
+      <c r="A22" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>139</v>
+      <c r="A23" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>141</v>
+      <c r="A24" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" s="51" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="50"/>
+      <c r="A25" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2814,10 +2905,10 @@
     </row>
     <row r="2" s="11" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2831,31 +2922,31 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="55" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="56" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E3" s="14" t="n">
         <v>1</v>
@@ -2867,18 +2958,18 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>2</v>
@@ -2887,18 +2978,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>3</v>
@@ -2907,15 +2998,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>4</v>
@@ -2924,21 +3015,21 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>5</v>
@@ -2947,21 +3038,21 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>6</v>
@@ -2970,21 +3061,21 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>7</v>
@@ -2993,18 +3084,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8</v>
@@ -3013,18 +3104,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9</v>
@@ -3035,13 +3126,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>10</v>
@@ -3050,15 +3141,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>11</v>
@@ -3067,18 +3158,18 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>12</v>
@@ -3087,12 +3178,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -347,22 +347,13 @@
 Values</t>
   </si>
   <si>
-    <t xml:space="preserve">progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combo</t>
+    <t xml:space="preserve">N O T E S</t>
   </si>
   <si>
     <t xml:space="preserve">begmenu</t>
   </si>
   <si>
-    <t xml:space="preserve">copy this code into your layout sheet</t>
+    <t xml:space="preserve">← copy this code into your layout sheet</t>
   </si>
   <si>
     <t xml:space="preserve">mn_file</t>
@@ -475,7 +466,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">parent comes after children items</t>
+      <t xml:space="preserve">← parent comes after children items</t>
     </r>
     <r>
       <rPr>
@@ -486,7 +477,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">. Use leading “_” for the parent label name</t>
+      <t xml:space="preserve">. “File” menu [needs “_” in title</t>
     </r>
   </si>
   <si>
@@ -541,13 +532,13 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">parent variable name for the submenu parent _label name</t>
+    <t xml:space="preserve">submenu “Clipboard”</t>
   </si>
   <si>
     <t xml:space="preserve">_Edit</t>
   </si>
   <si>
-    <t xml:space="preserve">parent variable name for top menu</t>
+    <t xml:space="preserve">Parent menu “Edit”</t>
   </si>
   <si>
     <t xml:space="preserve">mn_help</t>
@@ -566,6 +557,9 @@
   </si>
   <si>
     <t xml:space="preserve">_Help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Help” menu</t>
   </si>
   <si>
     <t xml:space="preserve">endmenu</t>
@@ -587,6 +581,9 @@
 Values</t>
   </si>
   <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
     <t xml:space="preserve">( x,x,x,… )</t>
   </si>
   <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
     <t xml:space="preserve">(x)</t>
   </si>
   <si>
@@ -632,6 +632,9 @@
     <t xml:space="preserve">radio</t>
   </si>
   <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
     <t xml:space="preserve">spin</t>
   </si>
   <si>
@@ -641,12 +644,18 @@
     <t xml:space="preserve">x999</t>
   </si>
   <si>
+    <t xml:space="preserve">combo</t>
+  </si>
+  <si>
     <t xml:space="preserve">notebook</t>
   </si>
   <si>
     <t xml:space="preserve">popup</t>
   </si>
   <si>
+    <t xml:space="preserve">commented in the generated code because of many required edits</t>
+  </si>
+  <si>
     <t xml:space="preserve">clip</t>
   </si>
   <si>
@@ -665,7 +674,13 @@
     <t xml:space="preserve">999x999</t>
   </si>
   <si>
-    <t xml:space="preserve">Note some of the code inserted for certain widgets is mostly “commented” out because of certain choices and modifications that will be needed.</t>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x means fill in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x) means optional or depends on widget formats</t>
   </si>
   <si>
     <t xml:space="preserve">Widgets</t>
@@ -842,7 +857,7 @@
     <t xml:space="preserve">Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">self.tb</t>
+    <t xml:space="preserve">tb</t>
   </si>
   <si>
     <t xml:space="preserve">tbVar</t>
@@ -854,7 +869,7 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
-    <t xml:space="preserve">self.tx</t>
+    <t xml:space="preserve">tx</t>
   </si>
   <si>
     <t xml:space="preserve">width=40, bg=’#eee’, height=5</t>
@@ -921,9 +936,6 @@
   </si>
   <si>
     <t xml:space="preserve">scrx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx</t>
   </si>
 </sst>
 </file>
@@ -934,7 +946,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1034,7 +1046,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF5983B0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5983B0"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1066,6 +1085,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="DejaVu Sans Mono"/>
@@ -1073,9 +1099,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1107,7 +1134,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,13 +1144,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FFB2B2B2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1133,7 +1166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1156,13 +1189,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="hair"/>
@@ -1195,7 +1221,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1244,6 +1270,198 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1254,174 +1472,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1499,8 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1458,7 +1508,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1501,19 +1551,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.44"/>
@@ -1577,60 +1627,1060 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
+      <c r="O67" s="0"/>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
+      <c r="R67" s="0"/>
+      <c r="S67" s="0"/>
+      <c r="T67" s="0"/>
+      <c r="U67" s="0"/>
+      <c r="V67" s="0"/>
+      <c r="W67" s="0"/>
+      <c r="X67" s="0"/>
+      <c r="Y67" s="0"/>
+      <c r="Z67" s="0"/>
+      <c r="AA67" s="0"/>
+      <c r="AB67" s="0"/>
+      <c r="AC67" s="0"/>
+      <c r="AD67" s="0"/>
+      <c r="AE67" s="0"/>
+      <c r="AF67" s="0"/>
+      <c r="AG67" s="0"/>
+      <c r="AH67" s="0"/>
+      <c r="AI67" s="0"/>
+      <c r="AJ67" s="0"/>
+      <c r="AK67" s="0"/>
+      <c r="AL67" s="0"/>
+      <c r="AM67" s="0"/>
+      <c r="AN67" s="0"/>
+      <c r="AO67" s="0"/>
+      <c r="AP67" s="0"/>
+      <c r="AQ67" s="0"/>
+      <c r="AR67" s="0"/>
+      <c r="AS67" s="0"/>
+      <c r="AT67" s="0"/>
+      <c r="AU67" s="0"/>
+      <c r="AV67" s="0"/>
+      <c r="AW67" s="0"/>
+      <c r="AX67" s="0"/>
+      <c r="AY67" s="0"/>
+      <c r="AZ67" s="0"/>
+      <c r="BA67" s="0"/>
+      <c r="BB67" s="0"/>
+      <c r="BC67" s="0"/>
+      <c r="BD67" s="0"/>
+      <c r="BE67" s="0"/>
+      <c r="BF67" s="0"/>
+      <c r="BG67" s="0"/>
+      <c r="BH67" s="0"/>
+      <c r="BI67" s="0"/>
+      <c r="BJ67" s="0"/>
+      <c r="BK67" s="0"/>
+      <c r="BL67" s="0"/>
+      <c r="BM67" s="0"/>
+      <c r="BN67" s="0"/>
+      <c r="BO67" s="0"/>
+      <c r="BP67" s="0"/>
+      <c r="BQ67" s="0"/>
+      <c r="BR67" s="0"/>
+      <c r="BS67" s="0"/>
+      <c r="BT67" s="0"/>
+      <c r="BU67" s="0"/>
+      <c r="BV67" s="0"/>
+      <c r="BW67" s="0"/>
+      <c r="BX67" s="0"/>
+      <c r="BY67" s="0"/>
+      <c r="BZ67" s="0"/>
+      <c r="CA67" s="0"/>
+      <c r="CB67" s="0"/>
+      <c r="CC67" s="0"/>
+      <c r="CD67" s="0"/>
+      <c r="CE67" s="0"/>
+      <c r="CF67" s="0"/>
+      <c r="CG67" s="0"/>
+      <c r="CH67" s="0"/>
+      <c r="CI67" s="0"/>
+      <c r="CJ67" s="0"/>
+      <c r="CK67" s="0"/>
+      <c r="CL67" s="0"/>
+      <c r="CM67" s="0"/>
+      <c r="CN67" s="0"/>
+      <c r="CO67" s="0"/>
+      <c r="CP67" s="0"/>
+      <c r="CQ67" s="0"/>
+      <c r="CR67" s="0"/>
+      <c r="CS67" s="0"/>
+      <c r="CT67" s="0"/>
+      <c r="CU67" s="0"/>
+      <c r="CV67" s="0"/>
+      <c r="CW67" s="0"/>
+      <c r="CX67" s="0"/>
+      <c r="CY67" s="0"/>
+      <c r="CZ67" s="0"/>
+      <c r="DA67" s="0"/>
+      <c r="DB67" s="0"/>
+      <c r="DC67" s="0"/>
+      <c r="DD67" s="0"/>
+      <c r="DE67" s="0"/>
+      <c r="DF67" s="0"/>
+      <c r="DG67" s="0"/>
+      <c r="DH67" s="0"/>
+      <c r="DI67" s="0"/>
+      <c r="DJ67" s="0"/>
+      <c r="DK67" s="0"/>
+      <c r="DL67" s="0"/>
+      <c r="DM67" s="0"/>
+      <c r="DN67" s="0"/>
+      <c r="DO67" s="0"/>
+      <c r="DP67" s="0"/>
+      <c r="DQ67" s="0"/>
+      <c r="DR67" s="0"/>
+      <c r="DS67" s="0"/>
+      <c r="DT67" s="0"/>
+      <c r="DU67" s="0"/>
+      <c r="DV67" s="0"/>
+      <c r="DW67" s="0"/>
+      <c r="DX67" s="0"/>
+      <c r="DY67" s="0"/>
+      <c r="DZ67" s="0"/>
+      <c r="EA67" s="0"/>
+      <c r="EB67" s="0"/>
+      <c r="EC67" s="0"/>
+      <c r="ED67" s="0"/>
+      <c r="EE67" s="0"/>
+      <c r="EF67" s="0"/>
+      <c r="EG67" s="0"/>
+      <c r="EH67" s="0"/>
+      <c r="EI67" s="0"/>
+      <c r="EJ67" s="0"/>
+      <c r="EK67" s="0"/>
+      <c r="EL67" s="0"/>
+      <c r="EM67" s="0"/>
+      <c r="EN67" s="0"/>
+      <c r="EO67" s="0"/>
+      <c r="EP67" s="0"/>
+      <c r="EQ67" s="0"/>
+      <c r="ER67" s="0"/>
+      <c r="ES67" s="0"/>
+      <c r="ET67" s="0"/>
+      <c r="EU67" s="0"/>
+      <c r="EV67" s="0"/>
+      <c r="EW67" s="0"/>
+      <c r="EX67" s="0"/>
+      <c r="EY67" s="0"/>
+      <c r="EZ67" s="0"/>
+      <c r="FA67" s="0"/>
+      <c r="FB67" s="0"/>
+      <c r="FC67" s="0"/>
+      <c r="FD67" s="0"/>
+      <c r="FE67" s="0"/>
+      <c r="FF67" s="0"/>
+      <c r="FG67" s="0"/>
+      <c r="FH67" s="0"/>
+      <c r="FI67" s="0"/>
+      <c r="FJ67" s="0"/>
+      <c r="FK67" s="0"/>
+      <c r="FL67" s="0"/>
+      <c r="FM67" s="0"/>
+      <c r="FN67" s="0"/>
+      <c r="FO67" s="0"/>
+      <c r="FP67" s="0"/>
+      <c r="FQ67" s="0"/>
+      <c r="FR67" s="0"/>
+      <c r="FS67" s="0"/>
+      <c r="FT67" s="0"/>
+      <c r="FU67" s="0"/>
+      <c r="FV67" s="0"/>
+      <c r="FW67" s="0"/>
+      <c r="FX67" s="0"/>
+      <c r="FY67" s="0"/>
+      <c r="FZ67" s="0"/>
+      <c r="GA67" s="0"/>
+      <c r="GB67" s="0"/>
+      <c r="GC67" s="0"/>
+      <c r="GD67" s="0"/>
+      <c r="GE67" s="0"/>
+      <c r="GF67" s="0"/>
+      <c r="GG67" s="0"/>
+      <c r="GH67" s="0"/>
+      <c r="GI67" s="0"/>
+      <c r="GJ67" s="0"/>
+      <c r="GK67" s="0"/>
+      <c r="GL67" s="0"/>
+      <c r="GM67" s="0"/>
+      <c r="GN67" s="0"/>
+      <c r="GO67" s="0"/>
+      <c r="GP67" s="0"/>
+      <c r="GQ67" s="0"/>
+      <c r="GR67" s="0"/>
+      <c r="GS67" s="0"/>
+      <c r="GT67" s="0"/>
+      <c r="GU67" s="0"/>
+      <c r="GV67" s="0"/>
+      <c r="GW67" s="0"/>
+      <c r="GX67" s="0"/>
+      <c r="GY67" s="0"/>
+      <c r="GZ67" s="0"/>
+      <c r="HA67" s="0"/>
+      <c r="HB67" s="0"/>
+      <c r="HC67" s="0"/>
+      <c r="HD67" s="0"/>
+      <c r="HE67" s="0"/>
+      <c r="HF67" s="0"/>
+      <c r="HG67" s="0"/>
+      <c r="HH67" s="0"/>
+      <c r="HI67" s="0"/>
+      <c r="HJ67" s="0"/>
+      <c r="HK67" s="0"/>
+      <c r="HL67" s="0"/>
+      <c r="HM67" s="0"/>
+      <c r="HN67" s="0"/>
+      <c r="HO67" s="0"/>
+      <c r="HP67" s="0"/>
+      <c r="HQ67" s="0"/>
+      <c r="HR67" s="0"/>
+      <c r="HS67" s="0"/>
+      <c r="HT67" s="0"/>
+      <c r="HU67" s="0"/>
+      <c r="HV67" s="0"/>
+      <c r="HW67" s="0"/>
+      <c r="HX67" s="0"/>
+      <c r="HY67" s="0"/>
+      <c r="HZ67" s="0"/>
+      <c r="IA67" s="0"/>
+      <c r="IB67" s="0"/>
+      <c r="IC67" s="0"/>
+      <c r="ID67" s="0"/>
+      <c r="IE67" s="0"/>
+      <c r="IF67" s="0"/>
+      <c r="IG67" s="0"/>
+      <c r="IH67" s="0"/>
+      <c r="II67" s="0"/>
+      <c r="IJ67" s="0"/>
+      <c r="IK67" s="0"/>
+      <c r="IL67" s="0"/>
+      <c r="IM67" s="0"/>
+      <c r="IN67" s="0"/>
+      <c r="IO67" s="0"/>
+      <c r="IP67" s="0"/>
+      <c r="IQ67" s="0"/>
+      <c r="IR67" s="0"/>
+      <c r="IS67" s="0"/>
+      <c r="IT67" s="0"/>
+      <c r="IU67" s="0"/>
+      <c r="IV67" s="0"/>
+      <c r="IW67" s="0"/>
+      <c r="IX67" s="0"/>
+      <c r="IY67" s="0"/>
+      <c r="IZ67" s="0"/>
+      <c r="JA67" s="0"/>
+      <c r="JB67" s="0"/>
+      <c r="JC67" s="0"/>
+      <c r="JD67" s="0"/>
+      <c r="JE67" s="0"/>
+      <c r="JF67" s="0"/>
+      <c r="JG67" s="0"/>
+      <c r="JH67" s="0"/>
+      <c r="JI67" s="0"/>
+      <c r="JJ67" s="0"/>
+      <c r="JK67" s="0"/>
+      <c r="JL67" s="0"/>
+      <c r="JM67" s="0"/>
+      <c r="JN67" s="0"/>
+      <c r="JO67" s="0"/>
+      <c r="JP67" s="0"/>
+      <c r="JQ67" s="0"/>
+      <c r="JR67" s="0"/>
+      <c r="JS67" s="0"/>
+      <c r="JT67" s="0"/>
+      <c r="JU67" s="0"/>
+      <c r="JV67" s="0"/>
+      <c r="JW67" s="0"/>
+      <c r="JX67" s="0"/>
+      <c r="JY67" s="0"/>
+      <c r="JZ67" s="0"/>
+      <c r="KA67" s="0"/>
+      <c r="KB67" s="0"/>
+      <c r="KC67" s="0"/>
+      <c r="KD67" s="0"/>
+      <c r="KE67" s="0"/>
+      <c r="KF67" s="0"/>
+      <c r="KG67" s="0"/>
+      <c r="KH67" s="0"/>
+      <c r="KI67" s="0"/>
+      <c r="KJ67" s="0"/>
+      <c r="KK67" s="0"/>
+      <c r="KL67" s="0"/>
+      <c r="KM67" s="0"/>
+      <c r="KN67" s="0"/>
+      <c r="KO67" s="0"/>
+      <c r="KP67" s="0"/>
+      <c r="KQ67" s="0"/>
+      <c r="KR67" s="0"/>
+      <c r="KS67" s="0"/>
+      <c r="KT67" s="0"/>
+      <c r="KU67" s="0"/>
+      <c r="KV67" s="0"/>
+      <c r="KW67" s="0"/>
+      <c r="KX67" s="0"/>
+      <c r="KY67" s="0"/>
+      <c r="KZ67" s="0"/>
+      <c r="LA67" s="0"/>
+      <c r="LB67" s="0"/>
+      <c r="LC67" s="0"/>
+      <c r="LD67" s="0"/>
+      <c r="LE67" s="0"/>
+      <c r="LF67" s="0"/>
+      <c r="LG67" s="0"/>
+      <c r="LH67" s="0"/>
+      <c r="LI67" s="0"/>
+      <c r="LJ67" s="0"/>
+      <c r="LK67" s="0"/>
+      <c r="LL67" s="0"/>
+      <c r="LM67" s="0"/>
+      <c r="LN67" s="0"/>
+      <c r="LO67" s="0"/>
+      <c r="LP67" s="0"/>
+      <c r="LQ67" s="0"/>
+      <c r="LR67" s="0"/>
+      <c r="LS67" s="0"/>
+      <c r="LT67" s="0"/>
+      <c r="LU67" s="0"/>
+      <c r="LV67" s="0"/>
+      <c r="LW67" s="0"/>
+      <c r="LX67" s="0"/>
+      <c r="LY67" s="0"/>
+      <c r="LZ67" s="0"/>
+      <c r="MA67" s="0"/>
+      <c r="MB67" s="0"/>
+      <c r="MC67" s="0"/>
+      <c r="MD67" s="0"/>
+      <c r="ME67" s="0"/>
+      <c r="MF67" s="0"/>
+      <c r="MG67" s="0"/>
+      <c r="MH67" s="0"/>
+      <c r="MI67" s="0"/>
+      <c r="MJ67" s="0"/>
+      <c r="MK67" s="0"/>
+      <c r="ML67" s="0"/>
+      <c r="MM67" s="0"/>
+      <c r="MN67" s="0"/>
+      <c r="MO67" s="0"/>
+      <c r="MP67" s="0"/>
+      <c r="MQ67" s="0"/>
+      <c r="MR67" s="0"/>
+      <c r="MS67" s="0"/>
+      <c r="MT67" s="0"/>
+      <c r="MU67" s="0"/>
+      <c r="MV67" s="0"/>
+      <c r="MW67" s="0"/>
+      <c r="MX67" s="0"/>
+      <c r="MY67" s="0"/>
+      <c r="MZ67" s="0"/>
+      <c r="NA67" s="0"/>
+      <c r="NB67" s="0"/>
+      <c r="NC67" s="0"/>
+      <c r="ND67" s="0"/>
+      <c r="NE67" s="0"/>
+      <c r="NF67" s="0"/>
+      <c r="NG67" s="0"/>
+      <c r="NH67" s="0"/>
+      <c r="NI67" s="0"/>
+      <c r="NJ67" s="0"/>
+      <c r="NK67" s="0"/>
+      <c r="NL67" s="0"/>
+      <c r="NM67" s="0"/>
+      <c r="NN67" s="0"/>
+      <c r="NO67" s="0"/>
+      <c r="NP67" s="0"/>
+      <c r="NQ67" s="0"/>
+      <c r="NR67" s="0"/>
+      <c r="NS67" s="0"/>
+      <c r="NT67" s="0"/>
+      <c r="NU67" s="0"/>
+      <c r="NV67" s="0"/>
+      <c r="NW67" s="0"/>
+      <c r="NX67" s="0"/>
+      <c r="NY67" s="0"/>
+      <c r="NZ67" s="0"/>
+      <c r="OA67" s="0"/>
+      <c r="OB67" s="0"/>
+      <c r="OC67" s="0"/>
+      <c r="OD67" s="0"/>
+      <c r="OE67" s="0"/>
+      <c r="OF67" s="0"/>
+      <c r="OG67" s="0"/>
+      <c r="OH67" s="0"/>
+      <c r="OI67" s="0"/>
+      <c r="OJ67" s="0"/>
+      <c r="OK67" s="0"/>
+      <c r="OL67" s="0"/>
+      <c r="OM67" s="0"/>
+      <c r="ON67" s="0"/>
+      <c r="OO67" s="0"/>
+      <c r="OP67" s="0"/>
+      <c r="OQ67" s="0"/>
+      <c r="OR67" s="0"/>
+      <c r="OS67" s="0"/>
+      <c r="OT67" s="0"/>
+      <c r="OU67" s="0"/>
+      <c r="OV67" s="0"/>
+      <c r="OW67" s="0"/>
+      <c r="OX67" s="0"/>
+      <c r="OY67" s="0"/>
+      <c r="OZ67" s="0"/>
+      <c r="PA67" s="0"/>
+      <c r="PB67" s="0"/>
+      <c r="PC67" s="0"/>
+      <c r="PD67" s="0"/>
+      <c r="PE67" s="0"/>
+      <c r="PF67" s="0"/>
+      <c r="PG67" s="0"/>
+      <c r="PH67" s="0"/>
+      <c r="PI67" s="0"/>
+      <c r="PJ67" s="0"/>
+      <c r="PK67" s="0"/>
+      <c r="PL67" s="0"/>
+      <c r="PM67" s="0"/>
+      <c r="PN67" s="0"/>
+      <c r="PO67" s="0"/>
+      <c r="PP67" s="0"/>
+      <c r="PQ67" s="0"/>
+      <c r="PR67" s="0"/>
+      <c r="PS67" s="0"/>
+      <c r="PT67" s="0"/>
+      <c r="PU67" s="0"/>
+      <c r="PV67" s="0"/>
+      <c r="PW67" s="0"/>
+      <c r="PX67" s="0"/>
+      <c r="PY67" s="0"/>
+      <c r="PZ67" s="0"/>
+      <c r="QA67" s="0"/>
+      <c r="QB67" s="0"/>
+      <c r="QC67" s="0"/>
+      <c r="QD67" s="0"/>
+      <c r="QE67" s="0"/>
+      <c r="QF67" s="0"/>
+      <c r="QG67" s="0"/>
+      <c r="QH67" s="0"/>
+      <c r="QI67" s="0"/>
+      <c r="QJ67" s="0"/>
+      <c r="QK67" s="0"/>
+      <c r="QL67" s="0"/>
+      <c r="QM67" s="0"/>
+      <c r="QN67" s="0"/>
+      <c r="QO67" s="0"/>
+      <c r="QP67" s="0"/>
+      <c r="QQ67" s="0"/>
+      <c r="QR67" s="0"/>
+      <c r="QS67" s="0"/>
+      <c r="QT67" s="0"/>
+      <c r="QU67" s="0"/>
+      <c r="QV67" s="0"/>
+      <c r="QW67" s="0"/>
+      <c r="QX67" s="0"/>
+      <c r="QY67" s="0"/>
+      <c r="QZ67" s="0"/>
+      <c r="RA67" s="0"/>
+      <c r="RB67" s="0"/>
+      <c r="RC67" s="0"/>
+      <c r="RD67" s="0"/>
+      <c r="RE67" s="0"/>
+      <c r="RF67" s="0"/>
+      <c r="RG67" s="0"/>
+      <c r="RH67" s="0"/>
+      <c r="RI67" s="0"/>
+      <c r="RJ67" s="0"/>
+      <c r="RK67" s="0"/>
+      <c r="RL67" s="0"/>
+      <c r="RM67" s="0"/>
+      <c r="RN67" s="0"/>
+      <c r="RO67" s="0"/>
+      <c r="RP67" s="0"/>
+      <c r="RQ67" s="0"/>
+      <c r="RR67" s="0"/>
+      <c r="RS67" s="0"/>
+      <c r="RT67" s="0"/>
+      <c r="RU67" s="0"/>
+      <c r="RV67" s="0"/>
+      <c r="RW67" s="0"/>
+      <c r="RX67" s="0"/>
+      <c r="RY67" s="0"/>
+      <c r="RZ67" s="0"/>
+      <c r="SA67" s="0"/>
+      <c r="SB67" s="0"/>
+      <c r="SC67" s="0"/>
+      <c r="SD67" s="0"/>
+      <c r="SE67" s="0"/>
+      <c r="SF67" s="0"/>
+      <c r="SG67" s="0"/>
+      <c r="SH67" s="0"/>
+      <c r="SI67" s="0"/>
+      <c r="SJ67" s="0"/>
+      <c r="SK67" s="0"/>
+      <c r="SL67" s="0"/>
+      <c r="SM67" s="0"/>
+      <c r="SN67" s="0"/>
+      <c r="SO67" s="0"/>
+      <c r="SP67" s="0"/>
+      <c r="SQ67" s="0"/>
+      <c r="SR67" s="0"/>
+      <c r="SS67" s="0"/>
+      <c r="ST67" s="0"/>
+      <c r="SU67" s="0"/>
+      <c r="SV67" s="0"/>
+      <c r="SW67" s="0"/>
+      <c r="SX67" s="0"/>
+      <c r="SY67" s="0"/>
+      <c r="SZ67" s="0"/>
+      <c r="TA67" s="0"/>
+      <c r="TB67" s="0"/>
+      <c r="TC67" s="0"/>
+      <c r="TD67" s="0"/>
+      <c r="TE67" s="0"/>
+      <c r="TF67" s="0"/>
+      <c r="TG67" s="0"/>
+      <c r="TH67" s="0"/>
+      <c r="TI67" s="0"/>
+      <c r="TJ67" s="0"/>
+      <c r="TK67" s="0"/>
+      <c r="TL67" s="0"/>
+      <c r="TM67" s="0"/>
+      <c r="TN67" s="0"/>
+      <c r="TO67" s="0"/>
+      <c r="TP67" s="0"/>
+      <c r="TQ67" s="0"/>
+      <c r="TR67" s="0"/>
+      <c r="TS67" s="0"/>
+      <c r="TT67" s="0"/>
+      <c r="TU67" s="0"/>
+      <c r="TV67" s="0"/>
+      <c r="TW67" s="0"/>
+      <c r="TX67" s="0"/>
+      <c r="TY67" s="0"/>
+      <c r="TZ67" s="0"/>
+      <c r="UA67" s="0"/>
+      <c r="UB67" s="0"/>
+      <c r="UC67" s="0"/>
+      <c r="UD67" s="0"/>
+      <c r="UE67" s="0"/>
+      <c r="UF67" s="0"/>
+      <c r="UG67" s="0"/>
+      <c r="UH67" s="0"/>
+      <c r="UI67" s="0"/>
+      <c r="UJ67" s="0"/>
+      <c r="UK67" s="0"/>
+      <c r="UL67" s="0"/>
+      <c r="UM67" s="0"/>
+      <c r="UN67" s="0"/>
+      <c r="UO67" s="0"/>
+      <c r="UP67" s="0"/>
+      <c r="UQ67" s="0"/>
+      <c r="UR67" s="0"/>
+      <c r="US67" s="0"/>
+      <c r="UT67" s="0"/>
+      <c r="UU67" s="0"/>
+      <c r="UV67" s="0"/>
+      <c r="UW67" s="0"/>
+      <c r="UX67" s="0"/>
+      <c r="UY67" s="0"/>
+      <c r="UZ67" s="0"/>
+      <c r="VA67" s="0"/>
+      <c r="VB67" s="0"/>
+      <c r="VC67" s="0"/>
+      <c r="VD67" s="0"/>
+      <c r="VE67" s="0"/>
+      <c r="VF67" s="0"/>
+      <c r="VG67" s="0"/>
+      <c r="VH67" s="0"/>
+      <c r="VI67" s="0"/>
+      <c r="VJ67" s="0"/>
+      <c r="VK67" s="0"/>
+      <c r="VL67" s="0"/>
+      <c r="VM67" s="0"/>
+      <c r="VN67" s="0"/>
+      <c r="VO67" s="0"/>
+      <c r="VP67" s="0"/>
+      <c r="VQ67" s="0"/>
+      <c r="VR67" s="0"/>
+      <c r="VS67" s="0"/>
+      <c r="VT67" s="0"/>
+      <c r="VU67" s="0"/>
+      <c r="VV67" s="0"/>
+      <c r="VW67" s="0"/>
+      <c r="VX67" s="0"/>
+      <c r="VY67" s="0"/>
+      <c r="VZ67" s="0"/>
+      <c r="WA67" s="0"/>
+      <c r="WB67" s="0"/>
+      <c r="WC67" s="0"/>
+      <c r="WD67" s="0"/>
+      <c r="WE67" s="0"/>
+      <c r="WF67" s="0"/>
+      <c r="WG67" s="0"/>
+      <c r="WH67" s="0"/>
+      <c r="WI67" s="0"/>
+      <c r="WJ67" s="0"/>
+      <c r="WK67" s="0"/>
+      <c r="WL67" s="0"/>
+      <c r="WM67" s="0"/>
+      <c r="WN67" s="0"/>
+      <c r="WO67" s="0"/>
+      <c r="WP67" s="0"/>
+      <c r="WQ67" s="0"/>
+      <c r="WR67" s="0"/>
+      <c r="WS67" s="0"/>
+      <c r="WT67" s="0"/>
+      <c r="WU67" s="0"/>
+      <c r="WV67" s="0"/>
+      <c r="WW67" s="0"/>
+      <c r="WX67" s="0"/>
+      <c r="WY67" s="0"/>
+      <c r="WZ67" s="0"/>
+      <c r="XA67" s="0"/>
+      <c r="XB67" s="0"/>
+      <c r="XC67" s="0"/>
+      <c r="XD67" s="0"/>
+      <c r="XE67" s="0"/>
+      <c r="XF67" s="0"/>
+      <c r="XG67" s="0"/>
+      <c r="XH67" s="0"/>
+      <c r="XI67" s="0"/>
+      <c r="XJ67" s="0"/>
+      <c r="XK67" s="0"/>
+      <c r="XL67" s="0"/>
+      <c r="XM67" s="0"/>
+      <c r="XN67" s="0"/>
+      <c r="XO67" s="0"/>
+      <c r="XP67" s="0"/>
+      <c r="XQ67" s="0"/>
+      <c r="XR67" s="0"/>
+      <c r="XS67" s="0"/>
+      <c r="XT67" s="0"/>
+      <c r="XU67" s="0"/>
+      <c r="XV67" s="0"/>
+      <c r="XW67" s="0"/>
+      <c r="XX67" s="0"/>
+      <c r="XY67" s="0"/>
+      <c r="XZ67" s="0"/>
+      <c r="YA67" s="0"/>
+      <c r="YB67" s="0"/>
+      <c r="YC67" s="0"/>
+      <c r="YD67" s="0"/>
+      <c r="YE67" s="0"/>
+      <c r="YF67" s="0"/>
+      <c r="YG67" s="0"/>
+      <c r="YH67" s="0"/>
+      <c r="YI67" s="0"/>
+      <c r="YJ67" s="0"/>
+      <c r="YK67" s="0"/>
+      <c r="YL67" s="0"/>
+      <c r="YM67" s="0"/>
+      <c r="YN67" s="0"/>
+      <c r="YO67" s="0"/>
+      <c r="YP67" s="0"/>
+      <c r="YQ67" s="0"/>
+      <c r="YR67" s="0"/>
+      <c r="YS67" s="0"/>
+      <c r="YT67" s="0"/>
+      <c r="YU67" s="0"/>
+      <c r="YV67" s="0"/>
+      <c r="YW67" s="0"/>
+      <c r="YX67" s="0"/>
+      <c r="YY67" s="0"/>
+      <c r="YZ67" s="0"/>
+      <c r="ZA67" s="0"/>
+      <c r="ZB67" s="0"/>
+      <c r="ZC67" s="0"/>
+      <c r="ZD67" s="0"/>
+      <c r="ZE67" s="0"/>
+      <c r="ZF67" s="0"/>
+      <c r="ZG67" s="0"/>
+      <c r="ZH67" s="0"/>
+      <c r="ZI67" s="0"/>
+      <c r="ZJ67" s="0"/>
+      <c r="ZK67" s="0"/>
+      <c r="ZL67" s="0"/>
+      <c r="ZM67" s="0"/>
+      <c r="ZN67" s="0"/>
+      <c r="ZO67" s="0"/>
+      <c r="ZP67" s="0"/>
+      <c r="ZQ67" s="0"/>
+      <c r="ZR67" s="0"/>
+      <c r="ZS67" s="0"/>
+      <c r="ZT67" s="0"/>
+      <c r="ZU67" s="0"/>
+      <c r="ZV67" s="0"/>
+      <c r="ZW67" s="0"/>
+      <c r="ZX67" s="0"/>
+      <c r="ZY67" s="0"/>
+      <c r="ZZ67" s="0"/>
+      <c r="AAA67" s="0"/>
+      <c r="AAB67" s="0"/>
+      <c r="AAC67" s="0"/>
+      <c r="AAD67" s="0"/>
+      <c r="AAE67" s="0"/>
+      <c r="AAF67" s="0"/>
+      <c r="AAG67" s="0"/>
+      <c r="AAH67" s="0"/>
+      <c r="AAI67" s="0"/>
+      <c r="AAJ67" s="0"/>
+      <c r="AAK67" s="0"/>
+      <c r="AAL67" s="0"/>
+      <c r="AAM67" s="0"/>
+      <c r="AAN67" s="0"/>
+      <c r="AAO67" s="0"/>
+      <c r="AAP67" s="0"/>
+      <c r="AAQ67" s="0"/>
+      <c r="AAR67" s="0"/>
+      <c r="AAS67" s="0"/>
+      <c r="AAT67" s="0"/>
+      <c r="AAU67" s="0"/>
+      <c r="AAV67" s="0"/>
+      <c r="AAW67" s="0"/>
+      <c r="AAX67" s="0"/>
+      <c r="AAY67" s="0"/>
+      <c r="AAZ67" s="0"/>
+      <c r="ABA67" s="0"/>
+      <c r="ABB67" s="0"/>
+      <c r="ABC67" s="0"/>
+      <c r="ABD67" s="0"/>
+      <c r="ABE67" s="0"/>
+      <c r="ABF67" s="0"/>
+      <c r="ABG67" s="0"/>
+      <c r="ABH67" s="0"/>
+      <c r="ABI67" s="0"/>
+      <c r="ABJ67" s="0"/>
+      <c r="ABK67" s="0"/>
+      <c r="ABL67" s="0"/>
+      <c r="ABM67" s="0"/>
+      <c r="ABN67" s="0"/>
+      <c r="ABO67" s="0"/>
+      <c r="ABP67" s="0"/>
+      <c r="ABQ67" s="0"/>
+      <c r="ABR67" s="0"/>
+      <c r="ABS67" s="0"/>
+      <c r="ABT67" s="0"/>
+      <c r="ABU67" s="0"/>
+      <c r="ABV67" s="0"/>
+      <c r="ABW67" s="0"/>
+      <c r="ABX67" s="0"/>
+      <c r="ABY67" s="0"/>
+      <c r="ABZ67" s="0"/>
+      <c r="ACA67" s="0"/>
+      <c r="ACB67" s="0"/>
+      <c r="ACC67" s="0"/>
+      <c r="ACD67" s="0"/>
+      <c r="ACE67" s="0"/>
+      <c r="ACF67" s="0"/>
+      <c r="ACG67" s="0"/>
+      <c r="ACH67" s="0"/>
+      <c r="ACI67" s="0"/>
+      <c r="ACJ67" s="0"/>
+      <c r="ACK67" s="0"/>
+      <c r="ACL67" s="0"/>
+      <c r="ACM67" s="0"/>
+      <c r="ACN67" s="0"/>
+      <c r="ACO67" s="0"/>
+      <c r="ACP67" s="0"/>
+      <c r="ACQ67" s="0"/>
+      <c r="ACR67" s="0"/>
+      <c r="ACS67" s="0"/>
+      <c r="ACT67" s="0"/>
+      <c r="ACU67" s="0"/>
+      <c r="ACV67" s="0"/>
+      <c r="ACW67" s="0"/>
+      <c r="ACX67" s="0"/>
+      <c r="ACY67" s="0"/>
+      <c r="ACZ67" s="0"/>
+      <c r="ADA67" s="0"/>
+      <c r="ADB67" s="0"/>
+      <c r="ADC67" s="0"/>
+      <c r="ADD67" s="0"/>
+      <c r="ADE67" s="0"/>
+      <c r="ADF67" s="0"/>
+      <c r="ADG67" s="0"/>
+      <c r="ADH67" s="0"/>
+      <c r="ADI67" s="0"/>
+      <c r="ADJ67" s="0"/>
+      <c r="ADK67" s="0"/>
+      <c r="ADL67" s="0"/>
+      <c r="ADM67" s="0"/>
+      <c r="ADN67" s="0"/>
+      <c r="ADO67" s="0"/>
+      <c r="ADP67" s="0"/>
+      <c r="ADQ67" s="0"/>
+      <c r="ADR67" s="0"/>
+      <c r="ADS67" s="0"/>
+      <c r="ADT67" s="0"/>
+      <c r="ADU67" s="0"/>
+      <c r="ADV67" s="0"/>
+      <c r="ADW67" s="0"/>
+      <c r="ADX67" s="0"/>
+      <c r="ADY67" s="0"/>
+      <c r="ADZ67" s="0"/>
+      <c r="AEA67" s="0"/>
+      <c r="AEB67" s="0"/>
+      <c r="AEC67" s="0"/>
+      <c r="AED67" s="0"/>
+      <c r="AEE67" s="0"/>
+      <c r="AEF67" s="0"/>
+      <c r="AEG67" s="0"/>
+      <c r="AEH67" s="0"/>
+      <c r="AEI67" s="0"/>
+      <c r="AEJ67" s="0"/>
+      <c r="AEK67" s="0"/>
+      <c r="AEL67" s="0"/>
+      <c r="AEM67" s="0"/>
+      <c r="AEN67" s="0"/>
+      <c r="AEO67" s="0"/>
+      <c r="AEP67" s="0"/>
+      <c r="AEQ67" s="0"/>
+      <c r="AER67" s="0"/>
+      <c r="AES67" s="0"/>
+      <c r="AET67" s="0"/>
+      <c r="AEU67" s="0"/>
+      <c r="AEV67" s="0"/>
+      <c r="AEW67" s="0"/>
+      <c r="AEX67" s="0"/>
+      <c r="AEY67" s="0"/>
+      <c r="AEZ67" s="0"/>
+      <c r="AFA67" s="0"/>
+      <c r="AFB67" s="0"/>
+      <c r="AFC67" s="0"/>
+      <c r="AFD67" s="0"/>
+      <c r="AFE67" s="0"/>
+      <c r="AFF67" s="0"/>
+      <c r="AFG67" s="0"/>
+      <c r="AFH67" s="0"/>
+      <c r="AFI67" s="0"/>
+      <c r="AFJ67" s="0"/>
+      <c r="AFK67" s="0"/>
+      <c r="AFL67" s="0"/>
+      <c r="AFM67" s="0"/>
+      <c r="AFN67" s="0"/>
+      <c r="AFO67" s="0"/>
+      <c r="AFP67" s="0"/>
+      <c r="AFQ67" s="0"/>
+      <c r="AFR67" s="0"/>
+      <c r="AFS67" s="0"/>
+      <c r="AFT67" s="0"/>
+      <c r="AFU67" s="0"/>
+      <c r="AFV67" s="0"/>
+      <c r="AFW67" s="0"/>
+      <c r="AFX67" s="0"/>
+      <c r="AFY67" s="0"/>
+      <c r="AFZ67" s="0"/>
+      <c r="AGA67" s="0"/>
+      <c r="AGB67" s="0"/>
+      <c r="AGC67" s="0"/>
+      <c r="AGD67" s="0"/>
+      <c r="AGE67" s="0"/>
+      <c r="AGF67" s="0"/>
+      <c r="AGG67" s="0"/>
+      <c r="AGH67" s="0"/>
+      <c r="AGI67" s="0"/>
+      <c r="AGJ67" s="0"/>
+      <c r="AGK67" s="0"/>
+      <c r="AGL67" s="0"/>
+      <c r="AGM67" s="0"/>
+      <c r="AGN67" s="0"/>
+      <c r="AGO67" s="0"/>
+      <c r="AGP67" s="0"/>
+      <c r="AGQ67" s="0"/>
+      <c r="AGR67" s="0"/>
+      <c r="AGS67" s="0"/>
+      <c r="AGT67" s="0"/>
+      <c r="AGU67" s="0"/>
+      <c r="AGV67" s="0"/>
+      <c r="AGW67" s="0"/>
+      <c r="AGX67" s="0"/>
+      <c r="AGY67" s="0"/>
+      <c r="AGZ67" s="0"/>
+      <c r="AHA67" s="0"/>
+      <c r="AHB67" s="0"/>
+      <c r="AHC67" s="0"/>
+      <c r="AHD67" s="0"/>
+      <c r="AHE67" s="0"/>
+      <c r="AHF67" s="0"/>
+      <c r="AHG67" s="0"/>
+      <c r="AHH67" s="0"/>
+      <c r="AHI67" s="0"/>
+      <c r="AHJ67" s="0"/>
+      <c r="AHK67" s="0"/>
+      <c r="AHL67" s="0"/>
+      <c r="AHM67" s="0"/>
+      <c r="AHN67" s="0"/>
+      <c r="AHO67" s="0"/>
+      <c r="AHP67" s="0"/>
+      <c r="AHQ67" s="0"/>
+      <c r="AHR67" s="0"/>
+      <c r="AHS67" s="0"/>
+      <c r="AHT67" s="0"/>
+      <c r="AHU67" s="0"/>
+      <c r="AHV67" s="0"/>
+      <c r="AHW67" s="0"/>
+      <c r="AHX67" s="0"/>
+      <c r="AHY67" s="0"/>
+      <c r="AHZ67" s="0"/>
+      <c r="AIA67" s="0"/>
+      <c r="AIB67" s="0"/>
+      <c r="AIC67" s="0"/>
+      <c r="AID67" s="0"/>
+      <c r="AIE67" s="0"/>
+      <c r="AIF67" s="0"/>
+      <c r="AIG67" s="0"/>
+      <c r="AIH67" s="0"/>
+      <c r="AII67" s="0"/>
+      <c r="AIJ67" s="0"/>
+      <c r="AIK67" s="0"/>
+      <c r="AIL67" s="0"/>
+      <c r="AIM67" s="0"/>
+      <c r="AIN67" s="0"/>
+      <c r="AIO67" s="0"/>
+      <c r="AIP67" s="0"/>
+      <c r="AIQ67" s="0"/>
+      <c r="AIR67" s="0"/>
+      <c r="AIS67" s="0"/>
+      <c r="AIT67" s="0"/>
+      <c r="AIU67" s="0"/>
+      <c r="AIV67" s="0"/>
+      <c r="AIW67" s="0"/>
+      <c r="AIX67" s="0"/>
+      <c r="AIY67" s="0"/>
+      <c r="AIZ67" s="0"/>
+      <c r="AJA67" s="0"/>
+      <c r="AJB67" s="0"/>
+      <c r="AJC67" s="0"/>
+      <c r="AJD67" s="0"/>
+      <c r="AJE67" s="0"/>
+      <c r="AJF67" s="0"/>
+      <c r="AJG67" s="0"/>
+      <c r="AJH67" s="0"/>
+      <c r="AJI67" s="0"/>
+      <c r="AJJ67" s="0"/>
+      <c r="AJK67" s="0"/>
+      <c r="AJL67" s="0"/>
+      <c r="AJM67" s="0"/>
+      <c r="AJN67" s="0"/>
+      <c r="AJO67" s="0"/>
+      <c r="AJP67" s="0"/>
+      <c r="AJQ67" s="0"/>
+      <c r="AJR67" s="0"/>
+      <c r="AJS67" s="0"/>
+      <c r="AJT67" s="0"/>
+      <c r="AJU67" s="0"/>
+      <c r="AJV67" s="0"/>
+      <c r="AJW67" s="0"/>
+      <c r="AJX67" s="0"/>
+      <c r="AJY67" s="0"/>
+      <c r="AJZ67" s="0"/>
+      <c r="AKA67" s="0"/>
+      <c r="AKB67" s="0"/>
+      <c r="AKC67" s="0"/>
+      <c r="AKD67" s="0"/>
+      <c r="AKE67" s="0"/>
+      <c r="AKF67" s="0"/>
+      <c r="AKG67" s="0"/>
+      <c r="AKH67" s="0"/>
+      <c r="AKI67" s="0"/>
+      <c r="AKJ67" s="0"/>
+      <c r="AKK67" s="0"/>
+      <c r="AKL67" s="0"/>
+      <c r="AKM67" s="0"/>
+      <c r="AKN67" s="0"/>
+      <c r="AKO67" s="0"/>
+      <c r="AKP67" s="0"/>
+      <c r="AKQ67" s="0"/>
+      <c r="AKR67" s="0"/>
+      <c r="AKS67" s="0"/>
+      <c r="AKT67" s="0"/>
+      <c r="AKU67" s="0"/>
+      <c r="AKV67" s="0"/>
+      <c r="AKW67" s="0"/>
+      <c r="AKX67" s="0"/>
+      <c r="AKY67" s="0"/>
+      <c r="AKZ67" s="0"/>
+      <c r="ALA67" s="0"/>
+      <c r="ALB67" s="0"/>
+      <c r="ALC67" s="0"/>
+      <c r="ALD67" s="0"/>
+      <c r="ALE67" s="0"/>
+      <c r="ALF67" s="0"/>
+      <c r="ALG67" s="0"/>
+      <c r="ALH67" s="0"/>
+      <c r="ALI67" s="0"/>
+      <c r="ALJ67" s="0"/>
+      <c r="ALK67" s="0"/>
+      <c r="ALL67" s="0"/>
+      <c r="ALM67" s="0"/>
+      <c r="ALN67" s="0"/>
+      <c r="ALO67" s="0"/>
+      <c r="ALP67" s="0"/>
+      <c r="ALQ67" s="0"/>
+      <c r="ALR67" s="0"/>
+      <c r="ALS67" s="0"/>
+      <c r="ALT67" s="0"/>
+      <c r="ALU67" s="0"/>
+      <c r="ALV67" s="0"/>
+      <c r="ALW67" s="0"/>
+      <c r="ALX67" s="0"/>
+      <c r="ALY67" s="0"/>
+      <c r="ALZ67" s="0"/>
+      <c r="AMA67" s="0"/>
+      <c r="AMB67" s="0"/>
+      <c r="AMC67" s="0"/>
+      <c r="AMD67" s="0"/>
+      <c r="AME67" s="0"/>
+      <c r="AMF67" s="0"/>
+      <c r="AMG67" s="0"/>
+      <c r="AMH67" s="0"/>
+      <c r="AMI67" s="0"/>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A100" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A66 A69:A86" type="list">
       <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3" type="list">
-      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H100" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H66 E69:H86" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I100" type="textLength">
+    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I66 I69:I86" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
@@ -1654,17 +2704,17 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="15" width="75.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="78.09"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1683,245 +2733,249 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
+      <c r="F1" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="17" t="s">
+    </row>
+    <row r="5" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17" t="s">
+    </row>
+    <row r="11" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="22" t="s">
+    </row>
+    <row r="14" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="F15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="22" t="s">
+    </row>
+    <row r="16" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="F16" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="19" t="s">
+    </row>
+    <row r="17" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="C17" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="17" t="s">
+    </row>
+    <row r="20" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1944,10 +2998,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="15.14"/>
@@ -1984,10 +3038,10 @@
     </row>
     <row r="2" s="31" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>8</v>
@@ -2011,47 +3065,47 @@
         <v>14</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="34" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="36" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>74</v>
@@ -2060,22 +3114,22 @@
         <v>75</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>74</v>
@@ -2092,22 +3146,22 @@
         <v>75</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2115,21 +3169,21 @@
         <v>76</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I6" s="37" t="s">
         <v>78</v>
@@ -2141,20 +3195,20 @@
         <v>79</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37" t="s">
@@ -2167,27 +3221,27 @@
         <v>81</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,27 +3249,27 @@
         <v>82</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2223,31 +3277,31 @@
         <v>83</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,31 +3309,31 @@
         <v>85</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,29 +3341,29 @@
         <v>86</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="37" t="s">
-        <v>75</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="39"/>
       <c r="E12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,118 +3371,138 @@
         <v>87</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="37" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="40"/>
+        <v>70</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="37" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>73</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="D15" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="E15" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="J15" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+        <v>91</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+        <v>92</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="39"/>
       <c r="D18" s="40"/>
       <c r="E18" s="39"/>
@@ -2440,9 +3514,11 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="40"/>
       <c r="E19" s="39"/>
@@ -2454,81 +3530,85 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="44"/>
+        <v>96</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>73</v>
-      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="38"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="38"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="46" t="s">
-        <v>97</v>
-      </c>
+      <c r="D24" s="38"/>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -2548,29 +3628,33 @@
       <c r="I25" s="37"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="38"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="38"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="38"/>
+    <row r="26" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
@@ -2609,216 +3693,216 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="47" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="47" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="50" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>99</v>
+      <c r="A1" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>101</v>
+      <c r="A2" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>103</v>
+      <c r="A3" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>105</v>
+      <c r="A4" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>107</v>
+      <c r="A5" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>109</v>
+      <c r="A6" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>111</v>
+      <c r="A7" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>113</v>
+      <c r="A8" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>115</v>
+      <c r="A9" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>117</v>
+      <c r="A10" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>119</v>
+      <c r="A11" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>117</v>
+      <c r="A12" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>122</v>
+      <c r="A13" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>124</v>
+      <c r="A14" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>126</v>
+      <c r="A15" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="51" t="s">
-        <v>128</v>
+      <c r="A16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>130</v>
+      <c r="A17" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="52"/>
+      <c r="A18" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="55"/>
     </row>
     <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>133</v>
+      <c r="A19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>135</v>
+      <c r="A20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>137</v>
+      <c r="A21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>139</v>
+      <c r="A22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>141</v>
+      <c r="A23" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>143</v>
+      <c r="A24" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" s="54" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53"/>
+      <c r="A25" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" s="57" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2864,7 +3948,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2905,10 +3989,10 @@
     </row>
     <row r="2" s="11" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2922,54 +4006,54 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="58" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="59" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="14" t="n">
+    <row r="3" s="61" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="62" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13" t="s">
-        <v>150</v>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="61" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>2</v>
@@ -2978,18 +4062,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>3</v>
@@ -2998,15 +4082,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>4</v>
@@ -3015,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3023,13 +4107,13 @@
         <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>5</v>
@@ -3038,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3046,13 +4130,13 @@
         <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>6</v>
@@ -3061,21 +4145,21 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>7</v>
@@ -3084,18 +4168,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8</v>
@@ -3104,18 +4188,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9</v>
@@ -3126,13 +4210,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>10</v>
@@ -3141,15 +4225,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>11</v>
@@ -3158,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,10 +4250,10 @@
         <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>12</v>
@@ -3183,7 +4267,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -38,28 +38,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">button
+          <t xml:space="preserve">begmenu
+button
+check
+clip
+combo
+dialog
+endmenu
 entry
+filedialog
+frame
+geometry
 label
+list
 message
+messagebox
+notebook
+options
+popup
+progress
+radio
 scrollx
 scrolly
-list
+spin
+submenu
 text
-check
-radio
-spin
-options
-combo
-notebook
-geometry
-progress
--------
-frame
-messagebox
-filedialog
-popup
-clip
 </t>
         </r>
       </text>
@@ -143,27 +146,31 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">button
+          <t xml:space="preserve">begmenu
+button
+check
+clip
+combo
+dialog
+endmenu
 entry
+filedialog
+frame
+geometry
 label
+list
 message
+messagebox
+notebook
+options
+popu
+progress
+radio
 scrollx
 scrolly
-list
+spin
+submenu
 text
-check
-radio
-spin
-options
-combo
-notebook
-geometry
-progress
--------
-messagebox
-filedialog
-popup
-clip
 </t>
         </r>
       </text>
@@ -1627,8 +1634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="0"/>
       <c r="C67" s="0"/>
       <c r="D67" s="0"/>
@@ -2672,10 +2678,6 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A66 A69:A86" type="list">
-      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H66 E69:H86" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -2683,6 +2685,10 @@
     <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I66 I69:I86" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A500" type="list">
+      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2707,7 +2713,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
@@ -2998,10 +3004,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="15.14"/>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -953,7 +953,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -978,20 +978,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -999,31 +992,7 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1035,8 +1004,7 @@
     </font>
     <font>
       <b val="true"/>
-      <i val="true"/>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1052,28 +1020,8 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
-      <color rgb="FF5983B0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF5983B0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1081,63 +1029,44 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Arial"/>
+      <color rgb="FF5983B0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB2B2B2"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="DejaVu Sans Mono"/>
-      <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF5983B0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Chandas"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <name val="Chandas"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FFB2B2B2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
-      <sz val="11"/>
-      <name val="Chandas"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
-      <name val="Chandas"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1228,7 +1157,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1245,47 +1174,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1293,192 +1238,116 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1558,7 +1427,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1602,7 +1471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="true" ht="81.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="11" customFormat="true" ht="86.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -1634,1045 +1503,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0"/>
-      <c r="C67" s="0"/>
-      <c r="D67" s="0"/>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="0"/>
-      <c r="L67" s="0"/>
-      <c r="M67" s="0"/>
-      <c r="N67" s="0"/>
-      <c r="O67" s="0"/>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
-      <c r="R67" s="0"/>
-      <c r="S67" s="0"/>
-      <c r="T67" s="0"/>
-      <c r="U67" s="0"/>
-      <c r="V67" s="0"/>
-      <c r="W67" s="0"/>
-      <c r="X67" s="0"/>
-      <c r="Y67" s="0"/>
-      <c r="Z67" s="0"/>
-      <c r="AA67" s="0"/>
-      <c r="AB67" s="0"/>
-      <c r="AC67" s="0"/>
-      <c r="AD67" s="0"/>
-      <c r="AE67" s="0"/>
-      <c r="AF67" s="0"/>
-      <c r="AG67" s="0"/>
-      <c r="AH67" s="0"/>
-      <c r="AI67" s="0"/>
-      <c r="AJ67" s="0"/>
-      <c r="AK67" s="0"/>
-      <c r="AL67" s="0"/>
-      <c r="AM67" s="0"/>
-      <c r="AN67" s="0"/>
-      <c r="AO67" s="0"/>
-      <c r="AP67" s="0"/>
-      <c r="AQ67" s="0"/>
-      <c r="AR67" s="0"/>
-      <c r="AS67" s="0"/>
-      <c r="AT67" s="0"/>
-      <c r="AU67" s="0"/>
-      <c r="AV67" s="0"/>
-      <c r="AW67" s="0"/>
-      <c r="AX67" s="0"/>
-      <c r="AY67" s="0"/>
-      <c r="AZ67" s="0"/>
-      <c r="BA67" s="0"/>
-      <c r="BB67" s="0"/>
-      <c r="BC67" s="0"/>
-      <c r="BD67" s="0"/>
-      <c r="BE67" s="0"/>
-      <c r="BF67" s="0"/>
-      <c r="BG67" s="0"/>
-      <c r="BH67" s="0"/>
-      <c r="BI67" s="0"/>
-      <c r="BJ67" s="0"/>
-      <c r="BK67" s="0"/>
-      <c r="BL67" s="0"/>
-      <c r="BM67" s="0"/>
-      <c r="BN67" s="0"/>
-      <c r="BO67" s="0"/>
-      <c r="BP67" s="0"/>
-      <c r="BQ67" s="0"/>
-      <c r="BR67" s="0"/>
-      <c r="BS67" s="0"/>
-      <c r="BT67" s="0"/>
-      <c r="BU67" s="0"/>
-      <c r="BV67" s="0"/>
-      <c r="BW67" s="0"/>
-      <c r="BX67" s="0"/>
-      <c r="BY67" s="0"/>
-      <c r="BZ67" s="0"/>
-      <c r="CA67" s="0"/>
-      <c r="CB67" s="0"/>
-      <c r="CC67" s="0"/>
-      <c r="CD67" s="0"/>
-      <c r="CE67" s="0"/>
-      <c r="CF67" s="0"/>
-      <c r="CG67" s="0"/>
-      <c r="CH67" s="0"/>
-      <c r="CI67" s="0"/>
-      <c r="CJ67" s="0"/>
-      <c r="CK67" s="0"/>
-      <c r="CL67" s="0"/>
-      <c r="CM67" s="0"/>
-      <c r="CN67" s="0"/>
-      <c r="CO67" s="0"/>
-      <c r="CP67" s="0"/>
-      <c r="CQ67" s="0"/>
-      <c r="CR67" s="0"/>
-      <c r="CS67" s="0"/>
-      <c r="CT67" s="0"/>
-      <c r="CU67" s="0"/>
-      <c r="CV67" s="0"/>
-      <c r="CW67" s="0"/>
-      <c r="CX67" s="0"/>
-      <c r="CY67" s="0"/>
-      <c r="CZ67" s="0"/>
-      <c r="DA67" s="0"/>
-      <c r="DB67" s="0"/>
-      <c r="DC67" s="0"/>
-      <c r="DD67" s="0"/>
-      <c r="DE67" s="0"/>
-      <c r="DF67" s="0"/>
-      <c r="DG67" s="0"/>
-      <c r="DH67" s="0"/>
-      <c r="DI67" s="0"/>
-      <c r="DJ67" s="0"/>
-      <c r="DK67" s="0"/>
-      <c r="DL67" s="0"/>
-      <c r="DM67" s="0"/>
-      <c r="DN67" s="0"/>
-      <c r="DO67" s="0"/>
-      <c r="DP67" s="0"/>
-      <c r="DQ67" s="0"/>
-      <c r="DR67" s="0"/>
-      <c r="DS67" s="0"/>
-      <c r="DT67" s="0"/>
-      <c r="DU67" s="0"/>
-      <c r="DV67" s="0"/>
-      <c r="DW67" s="0"/>
-      <c r="DX67" s="0"/>
-      <c r="DY67" s="0"/>
-      <c r="DZ67" s="0"/>
-      <c r="EA67" s="0"/>
-      <c r="EB67" s="0"/>
-      <c r="EC67" s="0"/>
-      <c r="ED67" s="0"/>
-      <c r="EE67" s="0"/>
-      <c r="EF67" s="0"/>
-      <c r="EG67" s="0"/>
-      <c r="EH67" s="0"/>
-      <c r="EI67" s="0"/>
-      <c r="EJ67" s="0"/>
-      <c r="EK67" s="0"/>
-      <c r="EL67" s="0"/>
-      <c r="EM67" s="0"/>
-      <c r="EN67" s="0"/>
-      <c r="EO67" s="0"/>
-      <c r="EP67" s="0"/>
-      <c r="EQ67" s="0"/>
-      <c r="ER67" s="0"/>
-      <c r="ES67" s="0"/>
-      <c r="ET67" s="0"/>
-      <c r="EU67" s="0"/>
-      <c r="EV67" s="0"/>
-      <c r="EW67" s="0"/>
-      <c r="EX67" s="0"/>
-      <c r="EY67" s="0"/>
-      <c r="EZ67" s="0"/>
-      <c r="FA67" s="0"/>
-      <c r="FB67" s="0"/>
-      <c r="FC67" s="0"/>
-      <c r="FD67" s="0"/>
-      <c r="FE67" s="0"/>
-      <c r="FF67" s="0"/>
-      <c r="FG67" s="0"/>
-      <c r="FH67" s="0"/>
-      <c r="FI67" s="0"/>
-      <c r="FJ67" s="0"/>
-      <c r="FK67" s="0"/>
-      <c r="FL67" s="0"/>
-      <c r="FM67" s="0"/>
-      <c r="FN67" s="0"/>
-      <c r="FO67" s="0"/>
-      <c r="FP67" s="0"/>
-      <c r="FQ67" s="0"/>
-      <c r="FR67" s="0"/>
-      <c r="FS67" s="0"/>
-      <c r="FT67" s="0"/>
-      <c r="FU67" s="0"/>
-      <c r="FV67" s="0"/>
-      <c r="FW67" s="0"/>
-      <c r="FX67" s="0"/>
-      <c r="FY67" s="0"/>
-      <c r="FZ67" s="0"/>
-      <c r="GA67" s="0"/>
-      <c r="GB67" s="0"/>
-      <c r="GC67" s="0"/>
-      <c r="GD67" s="0"/>
-      <c r="GE67" s="0"/>
-      <c r="GF67" s="0"/>
-      <c r="GG67" s="0"/>
-      <c r="GH67" s="0"/>
-      <c r="GI67" s="0"/>
-      <c r="GJ67" s="0"/>
-      <c r="GK67" s="0"/>
-      <c r="GL67" s="0"/>
-      <c r="GM67" s="0"/>
-      <c r="GN67" s="0"/>
-      <c r="GO67" s="0"/>
-      <c r="GP67" s="0"/>
-      <c r="GQ67" s="0"/>
-      <c r="GR67" s="0"/>
-      <c r="GS67" s="0"/>
-      <c r="GT67" s="0"/>
-      <c r="GU67" s="0"/>
-      <c r="GV67" s="0"/>
-      <c r="GW67" s="0"/>
-      <c r="GX67" s="0"/>
-      <c r="GY67" s="0"/>
-      <c r="GZ67" s="0"/>
-      <c r="HA67" s="0"/>
-      <c r="HB67" s="0"/>
-      <c r="HC67" s="0"/>
-      <c r="HD67" s="0"/>
-      <c r="HE67" s="0"/>
-      <c r="HF67" s="0"/>
-      <c r="HG67" s="0"/>
-      <c r="HH67" s="0"/>
-      <c r="HI67" s="0"/>
-      <c r="HJ67" s="0"/>
-      <c r="HK67" s="0"/>
-      <c r="HL67" s="0"/>
-      <c r="HM67" s="0"/>
-      <c r="HN67" s="0"/>
-      <c r="HO67" s="0"/>
-      <c r="HP67" s="0"/>
-      <c r="HQ67" s="0"/>
-      <c r="HR67" s="0"/>
-      <c r="HS67" s="0"/>
-      <c r="HT67" s="0"/>
-      <c r="HU67" s="0"/>
-      <c r="HV67" s="0"/>
-      <c r="HW67" s="0"/>
-      <c r="HX67" s="0"/>
-      <c r="HY67" s="0"/>
-      <c r="HZ67" s="0"/>
-      <c r="IA67" s="0"/>
-      <c r="IB67" s="0"/>
-      <c r="IC67" s="0"/>
-      <c r="ID67" s="0"/>
-      <c r="IE67" s="0"/>
-      <c r="IF67" s="0"/>
-      <c r="IG67" s="0"/>
-      <c r="IH67" s="0"/>
-      <c r="II67" s="0"/>
-      <c r="IJ67" s="0"/>
-      <c r="IK67" s="0"/>
-      <c r="IL67" s="0"/>
-      <c r="IM67" s="0"/>
-      <c r="IN67" s="0"/>
-      <c r="IO67" s="0"/>
-      <c r="IP67" s="0"/>
-      <c r="IQ67" s="0"/>
-      <c r="IR67" s="0"/>
-      <c r="IS67" s="0"/>
-      <c r="IT67" s="0"/>
-      <c r="IU67" s="0"/>
-      <c r="IV67" s="0"/>
-      <c r="IW67" s="0"/>
-      <c r="IX67" s="0"/>
-      <c r="IY67" s="0"/>
-      <c r="IZ67" s="0"/>
-      <c r="JA67" s="0"/>
-      <c r="JB67" s="0"/>
-      <c r="JC67" s="0"/>
-      <c r="JD67" s="0"/>
-      <c r="JE67" s="0"/>
-      <c r="JF67" s="0"/>
-      <c r="JG67" s="0"/>
-      <c r="JH67" s="0"/>
-      <c r="JI67" s="0"/>
-      <c r="JJ67" s="0"/>
-      <c r="JK67" s="0"/>
-      <c r="JL67" s="0"/>
-      <c r="JM67" s="0"/>
-      <c r="JN67" s="0"/>
-      <c r="JO67" s="0"/>
-      <c r="JP67" s="0"/>
-      <c r="JQ67" s="0"/>
-      <c r="JR67" s="0"/>
-      <c r="JS67" s="0"/>
-      <c r="JT67" s="0"/>
-      <c r="JU67" s="0"/>
-      <c r="JV67" s="0"/>
-      <c r="JW67" s="0"/>
-      <c r="JX67" s="0"/>
-      <c r="JY67" s="0"/>
-      <c r="JZ67" s="0"/>
-      <c r="KA67" s="0"/>
-      <c r="KB67" s="0"/>
-      <c r="KC67" s="0"/>
-      <c r="KD67" s="0"/>
-      <c r="KE67" s="0"/>
-      <c r="KF67" s="0"/>
-      <c r="KG67" s="0"/>
-      <c r="KH67" s="0"/>
-      <c r="KI67" s="0"/>
-      <c r="KJ67" s="0"/>
-      <c r="KK67" s="0"/>
-      <c r="KL67" s="0"/>
-      <c r="KM67" s="0"/>
-      <c r="KN67" s="0"/>
-      <c r="KO67" s="0"/>
-      <c r="KP67" s="0"/>
-      <c r="KQ67" s="0"/>
-      <c r="KR67" s="0"/>
-      <c r="KS67" s="0"/>
-      <c r="KT67" s="0"/>
-      <c r="KU67" s="0"/>
-      <c r="KV67" s="0"/>
-      <c r="KW67" s="0"/>
-      <c r="KX67" s="0"/>
-      <c r="KY67" s="0"/>
-      <c r="KZ67" s="0"/>
-      <c r="LA67" s="0"/>
-      <c r="LB67" s="0"/>
-      <c r="LC67" s="0"/>
-      <c r="LD67" s="0"/>
-      <c r="LE67" s="0"/>
-      <c r="LF67" s="0"/>
-      <c r="LG67" s="0"/>
-      <c r="LH67" s="0"/>
-      <c r="LI67" s="0"/>
-      <c r="LJ67" s="0"/>
-      <c r="LK67" s="0"/>
-      <c r="LL67" s="0"/>
-      <c r="LM67" s="0"/>
-      <c r="LN67" s="0"/>
-      <c r="LO67" s="0"/>
-      <c r="LP67" s="0"/>
-      <c r="LQ67" s="0"/>
-      <c r="LR67" s="0"/>
-      <c r="LS67" s="0"/>
-      <c r="LT67" s="0"/>
-      <c r="LU67" s="0"/>
-      <c r="LV67" s="0"/>
-      <c r="LW67" s="0"/>
-      <c r="LX67" s="0"/>
-      <c r="LY67" s="0"/>
-      <c r="LZ67" s="0"/>
-      <c r="MA67" s="0"/>
-      <c r="MB67" s="0"/>
-      <c r="MC67" s="0"/>
-      <c r="MD67" s="0"/>
-      <c r="ME67" s="0"/>
-      <c r="MF67" s="0"/>
-      <c r="MG67" s="0"/>
-      <c r="MH67" s="0"/>
-      <c r="MI67" s="0"/>
-      <c r="MJ67" s="0"/>
-      <c r="MK67" s="0"/>
-      <c r="ML67" s="0"/>
-      <c r="MM67" s="0"/>
-      <c r="MN67" s="0"/>
-      <c r="MO67" s="0"/>
-      <c r="MP67" s="0"/>
-      <c r="MQ67" s="0"/>
-      <c r="MR67" s="0"/>
-      <c r="MS67" s="0"/>
-      <c r="MT67" s="0"/>
-      <c r="MU67" s="0"/>
-      <c r="MV67" s="0"/>
-      <c r="MW67" s="0"/>
-      <c r="MX67" s="0"/>
-      <c r="MY67" s="0"/>
-      <c r="MZ67" s="0"/>
-      <c r="NA67" s="0"/>
-      <c r="NB67" s="0"/>
-      <c r="NC67" s="0"/>
-      <c r="ND67" s="0"/>
-      <c r="NE67" s="0"/>
-      <c r="NF67" s="0"/>
-      <c r="NG67" s="0"/>
-      <c r="NH67" s="0"/>
-      <c r="NI67" s="0"/>
-      <c r="NJ67" s="0"/>
-      <c r="NK67" s="0"/>
-      <c r="NL67" s="0"/>
-      <c r="NM67" s="0"/>
-      <c r="NN67" s="0"/>
-      <c r="NO67" s="0"/>
-      <c r="NP67" s="0"/>
-      <c r="NQ67" s="0"/>
-      <c r="NR67" s="0"/>
-      <c r="NS67" s="0"/>
-      <c r="NT67" s="0"/>
-      <c r="NU67" s="0"/>
-      <c r="NV67" s="0"/>
-      <c r="NW67" s="0"/>
-      <c r="NX67" s="0"/>
-      <c r="NY67" s="0"/>
-      <c r="NZ67" s="0"/>
-      <c r="OA67" s="0"/>
-      <c r="OB67" s="0"/>
-      <c r="OC67" s="0"/>
-      <c r="OD67" s="0"/>
-      <c r="OE67" s="0"/>
-      <c r="OF67" s="0"/>
-      <c r="OG67" s="0"/>
-      <c r="OH67" s="0"/>
-      <c r="OI67" s="0"/>
-      <c r="OJ67" s="0"/>
-      <c r="OK67" s="0"/>
-      <c r="OL67" s="0"/>
-      <c r="OM67" s="0"/>
-      <c r="ON67" s="0"/>
-      <c r="OO67" s="0"/>
-      <c r="OP67" s="0"/>
-      <c r="OQ67" s="0"/>
-      <c r="OR67" s="0"/>
-      <c r="OS67" s="0"/>
-      <c r="OT67" s="0"/>
-      <c r="OU67" s="0"/>
-      <c r="OV67" s="0"/>
-      <c r="OW67" s="0"/>
-      <c r="OX67" s="0"/>
-      <c r="OY67" s="0"/>
-      <c r="OZ67" s="0"/>
-      <c r="PA67" s="0"/>
-      <c r="PB67" s="0"/>
-      <c r="PC67" s="0"/>
-      <c r="PD67" s="0"/>
-      <c r="PE67" s="0"/>
-      <c r="PF67" s="0"/>
-      <c r="PG67" s="0"/>
-      <c r="PH67" s="0"/>
-      <c r="PI67" s="0"/>
-      <c r="PJ67" s="0"/>
-      <c r="PK67" s="0"/>
-      <c r="PL67" s="0"/>
-      <c r="PM67" s="0"/>
-      <c r="PN67" s="0"/>
-      <c r="PO67" s="0"/>
-      <c r="PP67" s="0"/>
-      <c r="PQ67" s="0"/>
-      <c r="PR67" s="0"/>
-      <c r="PS67" s="0"/>
-      <c r="PT67" s="0"/>
-      <c r="PU67" s="0"/>
-      <c r="PV67" s="0"/>
-      <c r="PW67" s="0"/>
-      <c r="PX67" s="0"/>
-      <c r="PY67" s="0"/>
-      <c r="PZ67" s="0"/>
-      <c r="QA67" s="0"/>
-      <c r="QB67" s="0"/>
-      <c r="QC67" s="0"/>
-      <c r="QD67" s="0"/>
-      <c r="QE67" s="0"/>
-      <c r="QF67" s="0"/>
-      <c r="QG67" s="0"/>
-      <c r="QH67" s="0"/>
-      <c r="QI67" s="0"/>
-      <c r="QJ67" s="0"/>
-      <c r="QK67" s="0"/>
-      <c r="QL67" s="0"/>
-      <c r="QM67" s="0"/>
-      <c r="QN67" s="0"/>
-      <c r="QO67" s="0"/>
-      <c r="QP67" s="0"/>
-      <c r="QQ67" s="0"/>
-      <c r="QR67" s="0"/>
-      <c r="QS67" s="0"/>
-      <c r="QT67" s="0"/>
-      <c r="QU67" s="0"/>
-      <c r="QV67" s="0"/>
-      <c r="QW67" s="0"/>
-      <c r="QX67" s="0"/>
-      <c r="QY67" s="0"/>
-      <c r="QZ67" s="0"/>
-      <c r="RA67" s="0"/>
-      <c r="RB67" s="0"/>
-      <c r="RC67" s="0"/>
-      <c r="RD67" s="0"/>
-      <c r="RE67" s="0"/>
-      <c r="RF67" s="0"/>
-      <c r="RG67" s="0"/>
-      <c r="RH67" s="0"/>
-      <c r="RI67" s="0"/>
-      <c r="RJ67" s="0"/>
-      <c r="RK67" s="0"/>
-      <c r="RL67" s="0"/>
-      <c r="RM67" s="0"/>
-      <c r="RN67" s="0"/>
-      <c r="RO67" s="0"/>
-      <c r="RP67" s="0"/>
-      <c r="RQ67" s="0"/>
-      <c r="RR67" s="0"/>
-      <c r="RS67" s="0"/>
-      <c r="RT67" s="0"/>
-      <c r="RU67" s="0"/>
-      <c r="RV67" s="0"/>
-      <c r="RW67" s="0"/>
-      <c r="RX67" s="0"/>
-      <c r="RY67" s="0"/>
-      <c r="RZ67" s="0"/>
-      <c r="SA67" s="0"/>
-      <c r="SB67" s="0"/>
-      <c r="SC67" s="0"/>
-      <c r="SD67" s="0"/>
-      <c r="SE67" s="0"/>
-      <c r="SF67" s="0"/>
-      <c r="SG67" s="0"/>
-      <c r="SH67" s="0"/>
-      <c r="SI67" s="0"/>
-      <c r="SJ67" s="0"/>
-      <c r="SK67" s="0"/>
-      <c r="SL67" s="0"/>
-      <c r="SM67" s="0"/>
-      <c r="SN67" s="0"/>
-      <c r="SO67" s="0"/>
-      <c r="SP67" s="0"/>
-      <c r="SQ67" s="0"/>
-      <c r="SR67" s="0"/>
-      <c r="SS67" s="0"/>
-      <c r="ST67" s="0"/>
-      <c r="SU67" s="0"/>
-      <c r="SV67" s="0"/>
-      <c r="SW67" s="0"/>
-      <c r="SX67" s="0"/>
-      <c r="SY67" s="0"/>
-      <c r="SZ67" s="0"/>
-      <c r="TA67" s="0"/>
-      <c r="TB67" s="0"/>
-      <c r="TC67" s="0"/>
-      <c r="TD67" s="0"/>
-      <c r="TE67" s="0"/>
-      <c r="TF67" s="0"/>
-      <c r="TG67" s="0"/>
-      <c r="TH67" s="0"/>
-      <c r="TI67" s="0"/>
-      <c r="TJ67" s="0"/>
-      <c r="TK67" s="0"/>
-      <c r="TL67" s="0"/>
-      <c r="TM67" s="0"/>
-      <c r="TN67" s="0"/>
-      <c r="TO67" s="0"/>
-      <c r="TP67" s="0"/>
-      <c r="TQ67" s="0"/>
-      <c r="TR67" s="0"/>
-      <c r="TS67" s="0"/>
-      <c r="TT67" s="0"/>
-      <c r="TU67" s="0"/>
-      <c r="TV67" s="0"/>
-      <c r="TW67" s="0"/>
-      <c r="TX67" s="0"/>
-      <c r="TY67" s="0"/>
-      <c r="TZ67" s="0"/>
-      <c r="UA67" s="0"/>
-      <c r="UB67" s="0"/>
-      <c r="UC67" s="0"/>
-      <c r="UD67" s="0"/>
-      <c r="UE67" s="0"/>
-      <c r="UF67" s="0"/>
-      <c r="UG67" s="0"/>
-      <c r="UH67" s="0"/>
-      <c r="UI67" s="0"/>
-      <c r="UJ67" s="0"/>
-      <c r="UK67" s="0"/>
-      <c r="UL67" s="0"/>
-      <c r="UM67" s="0"/>
-      <c r="UN67" s="0"/>
-      <c r="UO67" s="0"/>
-      <c r="UP67" s="0"/>
-      <c r="UQ67" s="0"/>
-      <c r="UR67" s="0"/>
-      <c r="US67" s="0"/>
-      <c r="UT67" s="0"/>
-      <c r="UU67" s="0"/>
-      <c r="UV67" s="0"/>
-      <c r="UW67" s="0"/>
-      <c r="UX67" s="0"/>
-      <c r="UY67" s="0"/>
-      <c r="UZ67" s="0"/>
-      <c r="VA67" s="0"/>
-      <c r="VB67" s="0"/>
-      <c r="VC67" s="0"/>
-      <c r="VD67" s="0"/>
-      <c r="VE67" s="0"/>
-      <c r="VF67" s="0"/>
-      <c r="VG67" s="0"/>
-      <c r="VH67" s="0"/>
-      <c r="VI67" s="0"/>
-      <c r="VJ67" s="0"/>
-      <c r="VK67" s="0"/>
-      <c r="VL67" s="0"/>
-      <c r="VM67" s="0"/>
-      <c r="VN67" s="0"/>
-      <c r="VO67" s="0"/>
-      <c r="VP67" s="0"/>
-      <c r="VQ67" s="0"/>
-      <c r="VR67" s="0"/>
-      <c r="VS67" s="0"/>
-      <c r="VT67" s="0"/>
-      <c r="VU67" s="0"/>
-      <c r="VV67" s="0"/>
-      <c r="VW67" s="0"/>
-      <c r="VX67" s="0"/>
-      <c r="VY67" s="0"/>
-      <c r="VZ67" s="0"/>
-      <c r="WA67" s="0"/>
-      <c r="WB67" s="0"/>
-      <c r="WC67" s="0"/>
-      <c r="WD67" s="0"/>
-      <c r="WE67" s="0"/>
-      <c r="WF67" s="0"/>
-      <c r="WG67" s="0"/>
-      <c r="WH67" s="0"/>
-      <c r="WI67" s="0"/>
-      <c r="WJ67" s="0"/>
-      <c r="WK67" s="0"/>
-      <c r="WL67" s="0"/>
-      <c r="WM67" s="0"/>
-      <c r="WN67" s="0"/>
-      <c r="WO67" s="0"/>
-      <c r="WP67" s="0"/>
-      <c r="WQ67" s="0"/>
-      <c r="WR67" s="0"/>
-      <c r="WS67" s="0"/>
-      <c r="WT67" s="0"/>
-      <c r="WU67" s="0"/>
-      <c r="WV67" s="0"/>
-      <c r="WW67" s="0"/>
-      <c r="WX67" s="0"/>
-      <c r="WY67" s="0"/>
-      <c r="WZ67" s="0"/>
-      <c r="XA67" s="0"/>
-      <c r="XB67" s="0"/>
-      <c r="XC67" s="0"/>
-      <c r="XD67" s="0"/>
-      <c r="XE67" s="0"/>
-      <c r="XF67" s="0"/>
-      <c r="XG67" s="0"/>
-      <c r="XH67" s="0"/>
-      <c r="XI67" s="0"/>
-      <c r="XJ67" s="0"/>
-      <c r="XK67" s="0"/>
-      <c r="XL67" s="0"/>
-      <c r="XM67" s="0"/>
-      <c r="XN67" s="0"/>
-      <c r="XO67" s="0"/>
-      <c r="XP67" s="0"/>
-      <c r="XQ67" s="0"/>
-      <c r="XR67" s="0"/>
-      <c r="XS67" s="0"/>
-      <c r="XT67" s="0"/>
-      <c r="XU67" s="0"/>
-      <c r="XV67" s="0"/>
-      <c r="XW67" s="0"/>
-      <c r="XX67" s="0"/>
-      <c r="XY67" s="0"/>
-      <c r="XZ67" s="0"/>
-      <c r="YA67" s="0"/>
-      <c r="YB67" s="0"/>
-      <c r="YC67" s="0"/>
-      <c r="YD67" s="0"/>
-      <c r="YE67" s="0"/>
-      <c r="YF67" s="0"/>
-      <c r="YG67" s="0"/>
-      <c r="YH67" s="0"/>
-      <c r="YI67" s="0"/>
-      <c r="YJ67" s="0"/>
-      <c r="YK67" s="0"/>
-      <c r="YL67" s="0"/>
-      <c r="YM67" s="0"/>
-      <c r="YN67" s="0"/>
-      <c r="YO67" s="0"/>
-      <c r="YP67" s="0"/>
-      <c r="YQ67" s="0"/>
-      <c r="YR67" s="0"/>
-      <c r="YS67" s="0"/>
-      <c r="YT67" s="0"/>
-      <c r="YU67" s="0"/>
-      <c r="YV67" s="0"/>
-      <c r="YW67" s="0"/>
-      <c r="YX67" s="0"/>
-      <c r="YY67" s="0"/>
-      <c r="YZ67" s="0"/>
-      <c r="ZA67" s="0"/>
-      <c r="ZB67" s="0"/>
-      <c r="ZC67" s="0"/>
-      <c r="ZD67" s="0"/>
-      <c r="ZE67" s="0"/>
-      <c r="ZF67" s="0"/>
-      <c r="ZG67" s="0"/>
-      <c r="ZH67" s="0"/>
-      <c r="ZI67" s="0"/>
-      <c r="ZJ67" s="0"/>
-      <c r="ZK67" s="0"/>
-      <c r="ZL67" s="0"/>
-      <c r="ZM67" s="0"/>
-      <c r="ZN67" s="0"/>
-      <c r="ZO67" s="0"/>
-      <c r="ZP67" s="0"/>
-      <c r="ZQ67" s="0"/>
-      <c r="ZR67" s="0"/>
-      <c r="ZS67" s="0"/>
-      <c r="ZT67" s="0"/>
-      <c r="ZU67" s="0"/>
-      <c r="ZV67" s="0"/>
-      <c r="ZW67" s="0"/>
-      <c r="ZX67" s="0"/>
-      <c r="ZY67" s="0"/>
-      <c r="ZZ67" s="0"/>
-      <c r="AAA67" s="0"/>
-      <c r="AAB67" s="0"/>
-      <c r="AAC67" s="0"/>
-      <c r="AAD67" s="0"/>
-      <c r="AAE67" s="0"/>
-      <c r="AAF67" s="0"/>
-      <c r="AAG67" s="0"/>
-      <c r="AAH67" s="0"/>
-      <c r="AAI67" s="0"/>
-      <c r="AAJ67" s="0"/>
-      <c r="AAK67" s="0"/>
-      <c r="AAL67" s="0"/>
-      <c r="AAM67" s="0"/>
-      <c r="AAN67" s="0"/>
-      <c r="AAO67" s="0"/>
-      <c r="AAP67" s="0"/>
-      <c r="AAQ67" s="0"/>
-      <c r="AAR67" s="0"/>
-      <c r="AAS67" s="0"/>
-      <c r="AAT67" s="0"/>
-      <c r="AAU67" s="0"/>
-      <c r="AAV67" s="0"/>
-      <c r="AAW67" s="0"/>
-      <c r="AAX67" s="0"/>
-      <c r="AAY67" s="0"/>
-      <c r="AAZ67" s="0"/>
-      <c r="ABA67" s="0"/>
-      <c r="ABB67" s="0"/>
-      <c r="ABC67" s="0"/>
-      <c r="ABD67" s="0"/>
-      <c r="ABE67" s="0"/>
-      <c r="ABF67" s="0"/>
-      <c r="ABG67" s="0"/>
-      <c r="ABH67" s="0"/>
-      <c r="ABI67" s="0"/>
-      <c r="ABJ67" s="0"/>
-      <c r="ABK67" s="0"/>
-      <c r="ABL67" s="0"/>
-      <c r="ABM67" s="0"/>
-      <c r="ABN67" s="0"/>
-      <c r="ABO67" s="0"/>
-      <c r="ABP67" s="0"/>
-      <c r="ABQ67" s="0"/>
-      <c r="ABR67" s="0"/>
-      <c r="ABS67" s="0"/>
-      <c r="ABT67" s="0"/>
-      <c r="ABU67" s="0"/>
-      <c r="ABV67" s="0"/>
-      <c r="ABW67" s="0"/>
-      <c r="ABX67" s="0"/>
-      <c r="ABY67" s="0"/>
-      <c r="ABZ67" s="0"/>
-      <c r="ACA67" s="0"/>
-      <c r="ACB67" s="0"/>
-      <c r="ACC67" s="0"/>
-      <c r="ACD67" s="0"/>
-      <c r="ACE67" s="0"/>
-      <c r="ACF67" s="0"/>
-      <c r="ACG67" s="0"/>
-      <c r="ACH67" s="0"/>
-      <c r="ACI67" s="0"/>
-      <c r="ACJ67" s="0"/>
-      <c r="ACK67" s="0"/>
-      <c r="ACL67" s="0"/>
-      <c r="ACM67" s="0"/>
-      <c r="ACN67" s="0"/>
-      <c r="ACO67" s="0"/>
-      <c r="ACP67" s="0"/>
-      <c r="ACQ67" s="0"/>
-      <c r="ACR67" s="0"/>
-      <c r="ACS67" s="0"/>
-      <c r="ACT67" s="0"/>
-      <c r="ACU67" s="0"/>
-      <c r="ACV67" s="0"/>
-      <c r="ACW67" s="0"/>
-      <c r="ACX67" s="0"/>
-      <c r="ACY67" s="0"/>
-      <c r="ACZ67" s="0"/>
-      <c r="ADA67" s="0"/>
-      <c r="ADB67" s="0"/>
-      <c r="ADC67" s="0"/>
-      <c r="ADD67" s="0"/>
-      <c r="ADE67" s="0"/>
-      <c r="ADF67" s="0"/>
-      <c r="ADG67" s="0"/>
-      <c r="ADH67" s="0"/>
-      <c r="ADI67" s="0"/>
-      <c r="ADJ67" s="0"/>
-      <c r="ADK67" s="0"/>
-      <c r="ADL67" s="0"/>
-      <c r="ADM67" s="0"/>
-      <c r="ADN67" s="0"/>
-      <c r="ADO67" s="0"/>
-      <c r="ADP67" s="0"/>
-      <c r="ADQ67" s="0"/>
-      <c r="ADR67" s="0"/>
-      <c r="ADS67" s="0"/>
-      <c r="ADT67" s="0"/>
-      <c r="ADU67" s="0"/>
-      <c r="ADV67" s="0"/>
-      <c r="ADW67" s="0"/>
-      <c r="ADX67" s="0"/>
-      <c r="ADY67" s="0"/>
-      <c r="ADZ67" s="0"/>
-      <c r="AEA67" s="0"/>
-      <c r="AEB67" s="0"/>
-      <c r="AEC67" s="0"/>
-      <c r="AED67" s="0"/>
-      <c r="AEE67" s="0"/>
-      <c r="AEF67" s="0"/>
-      <c r="AEG67" s="0"/>
-      <c r="AEH67" s="0"/>
-      <c r="AEI67" s="0"/>
-      <c r="AEJ67" s="0"/>
-      <c r="AEK67" s="0"/>
-      <c r="AEL67" s="0"/>
-      <c r="AEM67" s="0"/>
-      <c r="AEN67" s="0"/>
-      <c r="AEO67" s="0"/>
-      <c r="AEP67" s="0"/>
-      <c r="AEQ67" s="0"/>
-      <c r="AER67" s="0"/>
-      <c r="AES67" s="0"/>
-      <c r="AET67" s="0"/>
-      <c r="AEU67" s="0"/>
-      <c r="AEV67" s="0"/>
-      <c r="AEW67" s="0"/>
-      <c r="AEX67" s="0"/>
-      <c r="AEY67" s="0"/>
-      <c r="AEZ67" s="0"/>
-      <c r="AFA67" s="0"/>
-      <c r="AFB67" s="0"/>
-      <c r="AFC67" s="0"/>
-      <c r="AFD67" s="0"/>
-      <c r="AFE67" s="0"/>
-      <c r="AFF67" s="0"/>
-      <c r="AFG67" s="0"/>
-      <c r="AFH67" s="0"/>
-      <c r="AFI67" s="0"/>
-      <c r="AFJ67" s="0"/>
-      <c r="AFK67" s="0"/>
-      <c r="AFL67" s="0"/>
-      <c r="AFM67" s="0"/>
-      <c r="AFN67" s="0"/>
-      <c r="AFO67" s="0"/>
-      <c r="AFP67" s="0"/>
-      <c r="AFQ67" s="0"/>
-      <c r="AFR67" s="0"/>
-      <c r="AFS67" s="0"/>
-      <c r="AFT67" s="0"/>
-      <c r="AFU67" s="0"/>
-      <c r="AFV67" s="0"/>
-      <c r="AFW67" s="0"/>
-      <c r="AFX67" s="0"/>
-      <c r="AFY67" s="0"/>
-      <c r="AFZ67" s="0"/>
-      <c r="AGA67" s="0"/>
-      <c r="AGB67" s="0"/>
-      <c r="AGC67" s="0"/>
-      <c r="AGD67" s="0"/>
-      <c r="AGE67" s="0"/>
-      <c r="AGF67" s="0"/>
-      <c r="AGG67" s="0"/>
-      <c r="AGH67" s="0"/>
-      <c r="AGI67" s="0"/>
-      <c r="AGJ67" s="0"/>
-      <c r="AGK67" s="0"/>
-      <c r="AGL67" s="0"/>
-      <c r="AGM67" s="0"/>
-      <c r="AGN67" s="0"/>
-      <c r="AGO67" s="0"/>
-      <c r="AGP67" s="0"/>
-      <c r="AGQ67" s="0"/>
-      <c r="AGR67" s="0"/>
-      <c r="AGS67" s="0"/>
-      <c r="AGT67" s="0"/>
-      <c r="AGU67" s="0"/>
-      <c r="AGV67" s="0"/>
-      <c r="AGW67" s="0"/>
-      <c r="AGX67" s="0"/>
-      <c r="AGY67" s="0"/>
-      <c r="AGZ67" s="0"/>
-      <c r="AHA67" s="0"/>
-      <c r="AHB67" s="0"/>
-      <c r="AHC67" s="0"/>
-      <c r="AHD67" s="0"/>
-      <c r="AHE67" s="0"/>
-      <c r="AHF67" s="0"/>
-      <c r="AHG67" s="0"/>
-      <c r="AHH67" s="0"/>
-      <c r="AHI67" s="0"/>
-      <c r="AHJ67" s="0"/>
-      <c r="AHK67" s="0"/>
-      <c r="AHL67" s="0"/>
-      <c r="AHM67" s="0"/>
-      <c r="AHN67" s="0"/>
-      <c r="AHO67" s="0"/>
-      <c r="AHP67" s="0"/>
-      <c r="AHQ67" s="0"/>
-      <c r="AHR67" s="0"/>
-      <c r="AHS67" s="0"/>
-      <c r="AHT67" s="0"/>
-      <c r="AHU67" s="0"/>
-      <c r="AHV67" s="0"/>
-      <c r="AHW67" s="0"/>
-      <c r="AHX67" s="0"/>
-      <c r="AHY67" s="0"/>
-      <c r="AHZ67" s="0"/>
-      <c r="AIA67" s="0"/>
-      <c r="AIB67" s="0"/>
-      <c r="AIC67" s="0"/>
-      <c r="AID67" s="0"/>
-      <c r="AIE67" s="0"/>
-      <c r="AIF67" s="0"/>
-      <c r="AIG67" s="0"/>
-      <c r="AIH67" s="0"/>
-      <c r="AII67" s="0"/>
-      <c r="AIJ67" s="0"/>
-      <c r="AIK67" s="0"/>
-      <c r="AIL67" s="0"/>
-      <c r="AIM67" s="0"/>
-      <c r="AIN67" s="0"/>
-      <c r="AIO67" s="0"/>
-      <c r="AIP67" s="0"/>
-      <c r="AIQ67" s="0"/>
-      <c r="AIR67" s="0"/>
-      <c r="AIS67" s="0"/>
-      <c r="AIT67" s="0"/>
-      <c r="AIU67" s="0"/>
-      <c r="AIV67" s="0"/>
-      <c r="AIW67" s="0"/>
-      <c r="AIX67" s="0"/>
-      <c r="AIY67" s="0"/>
-      <c r="AIZ67" s="0"/>
-      <c r="AJA67" s="0"/>
-      <c r="AJB67" s="0"/>
-      <c r="AJC67" s="0"/>
-      <c r="AJD67" s="0"/>
-      <c r="AJE67" s="0"/>
-      <c r="AJF67" s="0"/>
-      <c r="AJG67" s="0"/>
-      <c r="AJH67" s="0"/>
-      <c r="AJI67" s="0"/>
-      <c r="AJJ67" s="0"/>
-      <c r="AJK67" s="0"/>
-      <c r="AJL67" s="0"/>
-      <c r="AJM67" s="0"/>
-      <c r="AJN67" s="0"/>
-      <c r="AJO67" s="0"/>
-      <c r="AJP67" s="0"/>
-      <c r="AJQ67" s="0"/>
-      <c r="AJR67" s="0"/>
-      <c r="AJS67" s="0"/>
-      <c r="AJT67" s="0"/>
-      <c r="AJU67" s="0"/>
-      <c r="AJV67" s="0"/>
-      <c r="AJW67" s="0"/>
-      <c r="AJX67" s="0"/>
-      <c r="AJY67" s="0"/>
-      <c r="AJZ67" s="0"/>
-      <c r="AKA67" s="0"/>
-      <c r="AKB67" s="0"/>
-      <c r="AKC67" s="0"/>
-      <c r="AKD67" s="0"/>
-      <c r="AKE67" s="0"/>
-      <c r="AKF67" s="0"/>
-      <c r="AKG67" s="0"/>
-      <c r="AKH67" s="0"/>
-      <c r="AKI67" s="0"/>
-      <c r="AKJ67" s="0"/>
-      <c r="AKK67" s="0"/>
-      <c r="AKL67" s="0"/>
-      <c r="AKM67" s="0"/>
-      <c r="AKN67" s="0"/>
-      <c r="AKO67" s="0"/>
-      <c r="AKP67" s="0"/>
-      <c r="AKQ67" s="0"/>
-      <c r="AKR67" s="0"/>
-      <c r="AKS67" s="0"/>
-      <c r="AKT67" s="0"/>
-      <c r="AKU67" s="0"/>
-      <c r="AKV67" s="0"/>
-      <c r="AKW67" s="0"/>
-      <c r="AKX67" s="0"/>
-      <c r="AKY67" s="0"/>
-      <c r="AKZ67" s="0"/>
-      <c r="ALA67" s="0"/>
-      <c r="ALB67" s="0"/>
-      <c r="ALC67" s="0"/>
-      <c r="ALD67" s="0"/>
-      <c r="ALE67" s="0"/>
-      <c r="ALF67" s="0"/>
-      <c r="ALG67" s="0"/>
-      <c r="ALH67" s="0"/>
-      <c r="ALI67" s="0"/>
-      <c r="ALJ67" s="0"/>
-      <c r="ALK67" s="0"/>
-      <c r="ALL67" s="0"/>
-      <c r="ALM67" s="0"/>
-      <c r="ALN67" s="0"/>
-      <c r="ALO67" s="0"/>
-      <c r="ALP67" s="0"/>
-      <c r="ALQ67" s="0"/>
-      <c r="ALR67" s="0"/>
-      <c r="ALS67" s="0"/>
-      <c r="ALT67" s="0"/>
-      <c r="ALU67" s="0"/>
-      <c r="ALV67" s="0"/>
-      <c r="ALW67" s="0"/>
-      <c r="ALX67" s="0"/>
-      <c r="ALY67" s="0"/>
-      <c r="ALZ67" s="0"/>
-      <c r="AMA67" s="0"/>
-      <c r="AMB67" s="0"/>
-      <c r="AMC67" s="0"/>
-      <c r="AMD67" s="0"/>
-      <c r="AME67" s="0"/>
-      <c r="AMF67" s="0"/>
-      <c r="AMG67" s="0"/>
-      <c r="AMH67" s="0"/>
-      <c r="AMI67" s="0"/>
-      <c r="AMJ67" s="0"/>
-    </row>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
@@ -2713,14 +1546,15 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="78.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="11.86"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2784,7 +1618,7 @@
       <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
@@ -2802,7 +1636,7 @@
       <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
@@ -2814,7 +1648,7 @@
       <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
@@ -2823,7 +1657,7 @@
       <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
@@ -2838,7 +1672,7 @@
       <c r="D9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
@@ -2847,7 +1681,7 @@
       <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2864,7 +1698,7 @@
       <c r="D11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
@@ -2879,55 +1713,55 @@
       <c r="D12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2938,7 +1772,7 @@
       <c r="B16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2952,7 +1786,7 @@
       <c r="C17" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
@@ -2964,7 +1798,7 @@
       <c r="C18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
@@ -2973,15 +1807,15 @@
       <c r="B19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2999,7 +1833,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3007,18 +1841,19 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="24" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="24" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="24" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="24" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="24" width="4.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="24" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="12.01"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3042,640 +1877,595 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="31" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+    <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="s">
+    <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="34" t="s">
+      <c r="E3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="31" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="38" t="s">
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="38" t="s">
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I6" s="37" t="s">
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="38" t="s">
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="38" t="s">
+      <c r="B9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="38" t="s">
+      <c r="E10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="38" t="s">
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="38" t="s">
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="38" t="s">
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37" t="s">
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="37" t="s">
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="38" t="s">
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38" t="s">
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="47" t="s">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="38" t="s">
+      <c r="B23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-    </row>
-    <row r="26" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="47" t="s">
+    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" s="49" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="47" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="47"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
@@ -3702,213 +2492,213 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="50" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="39" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="41" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="53" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="53" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="53" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="53" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="43" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="53" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="53" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="43" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="53" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="53" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="53" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="53" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="43" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="43" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="43" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="55"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="B18" s="44"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="43" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="43" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="53" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="43" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" s="57" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="56"/>
+    <row r="26" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3954,7 +2744,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4012,42 +2802,42 @@
       <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="61" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+    <row r="3" s="31" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="62" t="n">
+      <c r="E3" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="62" t="n">
+      <c r="F3" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="61" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31" t="s">
         <v>155</v>
       </c>
     </row>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -58,6 +58,7 @@
 popup
 progress
 radio
+scale
 scrollx
 scrolly
 spin
@@ -292,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -352,6 +353,36 @@
 Attributes
 And
 Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450x350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borderwidth=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sb_lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lst_sb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nsw</t>
   </si>
   <si>
     <t xml:space="preserve">N O T E S</t>
@@ -618,15 +649,9 @@
     <t xml:space="preserve">ew</t>
   </si>
   <si>
-    <t xml:space="preserve">scrolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">nw</t>
   </si>
   <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -673,9 +698,6 @@
   </si>
   <si>
     <t xml:space="preserve">frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geometry</t>
   </si>
   <si>
     <t xml:space="preserve">999x999</t>
@@ -1427,27 +1449,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="47.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="34.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="2" width="16.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1503,24 +1526,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
-    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H66 E69:H86" type="whole">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H68 E71:H88" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I66 I69:I86" type="textLength">
+    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I68 I71:I88" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A500" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A5 A7:A20 A22 A24:A502" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A21" type="list">
+      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A23" type="list">
+      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6" type="list">
+      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1574,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1582,238 +1669,238 @@
     </row>
     <row r="3" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1836,12 +1923,12 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15.14"/>
@@ -1853,7 +1940,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="12.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="12.03"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1879,10 +1966,10 @@
     </row>
     <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>8</v>
@@ -1906,71 +1993,71 @@
         <v>14</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1978,352 +2065,352 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36"/>
@@ -2336,10 +2423,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
@@ -2352,10 +2439,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
@@ -2368,10 +2455,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
@@ -2384,10 +2471,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -2400,10 +2487,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -2416,35 +2503,35 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -2456,7 +2543,7 @@
     </row>
     <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -2501,200 +2588,200 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="42" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="42" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="42" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="42" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,10 +2872,10 @@
     </row>
     <row r="2" s="11" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
@@ -2817,16 +2904,16 @@
     </row>
     <row r="3" s="31" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E3" s="30" t="n">
         <v>1</v>
@@ -2838,18 +2925,18 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>2</v>
@@ -2858,18 +2945,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>3</v>
@@ -2878,15 +2965,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>4</v>
@@ -2895,21 +2982,21 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>5</v>
@@ -2918,21 +3005,21 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>6</v>
@@ -2941,21 +3028,21 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>7</v>
@@ -2964,18 +3051,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8</v>
@@ -2984,18 +3071,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9</v>
@@ -3006,13 +3093,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>10</v>
@@ -3021,15 +3108,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>11</v>
@@ -3038,18 +3125,18 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>12</v>
@@ -3058,12 +3145,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -43,7 +43,6 @@
 check
 clip
 combo
-dialog
 endmenu
 entry
 filedialog
@@ -61,10 +60,11 @@
 scale
 scrollx
 scrolly
+simpledialog
 spin
 submenu
 text
-</t>
+toplevel</t>
         </r>
       </text>
     </comment>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="192">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -355,34 +355,7 @@
 Values</t>
   </si>
   <si>
-    <t xml:space="preserve">geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450x350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">borderwidth=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrolly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sb_lst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lst_sb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsw</t>
+    <t xml:space="preserve">comments</t>
   </si>
   <si>
     <t xml:space="preserve">N O T E S</t>
@@ -649,9 +622,15 @@
     <t xml:space="preserve">ew</t>
   </si>
   <si>
+    <t xml:space="preserve">scrolly</t>
+  </si>
+  <si>
     <t xml:space="preserve">nw</t>
   </si>
   <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -670,6 +649,9 @@
     <t xml:space="preserve">spin</t>
   </si>
   <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">options</t>
   </si>
   <si>
@@ -682,6 +664,15 @@
     <t xml:space="preserve">notebook</t>
   </si>
   <si>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWWxHHH</t>
+  </si>
+  <si>
     <t xml:space="preserve">popup</t>
   </si>
   <si>
@@ -700,10 +691,10 @@
     <t xml:space="preserve">frames</t>
   </si>
   <si>
-    <t xml:space="preserve">999x999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progress</t>
+    <t xml:space="preserve">simpledialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toplevel</t>
   </si>
   <si>
     <t xml:space="preserve">x means fill in</t>
@@ -975,7 +966,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1072,6 +1063,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFB2B2B2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1092,7 +1090,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,8 +1105,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFFFFFA6"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1121,6 +1119,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1179,7 +1183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1221,7 +1225,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1285,7 +1289,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1316,7 +1320,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1328,48 +1336,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1398,7 +1426,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
-      <rgbColor rgb="FF5983B0"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1418,7 +1446,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFFA6"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1432,7 +1460,7 @@
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1449,12 +1477,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1469,7 +1497,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="2" width="16.53"/>
   </cols>
   <sheetData>
@@ -1525,56 +1553,8 @@
       <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="69" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1585,7 +1565,7 @@
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="5">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H68 E71:H88" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
@@ -1594,20 +1574,16 @@
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A5 A7:A20 A22 A24:A502" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A414:A502" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A21" type="list">
-      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A412:A413" type="list">
+      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text,toplevel,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A23" type="list">
-      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6" type="list">
-      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,spin,submenu,text"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A411" type="list">
+      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1661,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1669,238 +1645,238 @@
     </row>
     <row r="3" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" s="16"/>
     </row>
     <row r="6" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F6" s="16"/>
     </row>
     <row r="7" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F7" s="16"/>
     </row>
     <row r="8" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F8" s="16"/>
     </row>
     <row r="9" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F9" s="16"/>
     </row>
     <row r="10" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F11" s="16"/>
     </row>
     <row r="12" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F12" s="16"/>
     </row>
     <row r="13" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="21" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F17" s="16"/>
     </row>
     <row r="18" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F18" s="16"/>
     </row>
     <row r="19" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F20" s="16"/>
     </row>
@@ -1920,10 +1896,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
@@ -1966,10 +1942,10 @@
     </row>
     <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C2" s="22" t="s">
         <v>8</v>
@@ -1993,71 +1969,71 @@
         <v>14</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I3" s="30" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,384 +2041,410 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="J7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>82</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
+        <v>93</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="E18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
@@ -2455,26 +2457,26 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="33"/>
+        <v>97</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -2487,10 +2489,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -2503,55 +2505,1117 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
-      <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
+        <v>104</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
+      <c r="AE27" s="0"/>
+      <c r="AF27" s="0"/>
+      <c r="AG27" s="0"/>
+      <c r="AH27" s="0"/>
+      <c r="AI27" s="0"/>
+      <c r="AJ27" s="0"/>
+      <c r="AK27" s="0"/>
+      <c r="AL27" s="0"/>
+      <c r="AM27" s="0"/>
+      <c r="AN27" s="0"/>
+      <c r="AO27" s="0"/>
+      <c r="AP27" s="0"/>
+      <c r="AQ27" s="0"/>
+      <c r="AR27" s="0"/>
+      <c r="AS27" s="0"/>
+      <c r="AT27" s="0"/>
+      <c r="AU27" s="0"/>
+      <c r="AV27" s="0"/>
+      <c r="AW27" s="0"/>
+      <c r="AX27" s="0"/>
+      <c r="AY27" s="0"/>
+      <c r="AZ27" s="0"/>
+      <c r="BA27" s="0"/>
+      <c r="BB27" s="0"/>
+      <c r="BC27" s="0"/>
+      <c r="BD27" s="0"/>
+      <c r="BE27" s="0"/>
+      <c r="BF27" s="0"/>
+      <c r="BG27" s="0"/>
+      <c r="BH27" s="0"/>
+      <c r="BI27" s="0"/>
+      <c r="BJ27" s="0"/>
+      <c r="BK27" s="0"/>
+      <c r="BL27" s="0"/>
+      <c r="BM27" s="0"/>
+      <c r="BN27" s="0"/>
+      <c r="BO27" s="0"/>
+      <c r="BP27" s="0"/>
+      <c r="BQ27" s="0"/>
+      <c r="BR27" s="0"/>
+      <c r="BS27" s="0"/>
+      <c r="BT27" s="0"/>
+      <c r="BU27" s="0"/>
+      <c r="BV27" s="0"/>
+      <c r="BW27" s="0"/>
+      <c r="BX27" s="0"/>
+      <c r="BY27" s="0"/>
+      <c r="BZ27" s="0"/>
+      <c r="CA27" s="0"/>
+      <c r="CB27" s="0"/>
+      <c r="CC27" s="0"/>
+      <c r="CD27" s="0"/>
+      <c r="CE27" s="0"/>
+      <c r="CF27" s="0"/>
+      <c r="CG27" s="0"/>
+      <c r="CH27" s="0"/>
+      <c r="CI27" s="0"/>
+      <c r="CJ27" s="0"/>
+      <c r="CK27" s="0"/>
+      <c r="CL27" s="0"/>
+      <c r="CM27" s="0"/>
+      <c r="CN27" s="0"/>
+      <c r="CO27" s="0"/>
+      <c r="CP27" s="0"/>
+      <c r="CQ27" s="0"/>
+      <c r="CR27" s="0"/>
+      <c r="CS27" s="0"/>
+      <c r="CT27" s="0"/>
+      <c r="CU27" s="0"/>
+      <c r="CV27" s="0"/>
+      <c r="CW27" s="0"/>
+      <c r="CX27" s="0"/>
+      <c r="CY27" s="0"/>
+      <c r="CZ27" s="0"/>
+      <c r="DA27" s="0"/>
+      <c r="DB27" s="0"/>
+      <c r="DC27" s="0"/>
+      <c r="DD27" s="0"/>
+      <c r="DE27" s="0"/>
+      <c r="DF27" s="0"/>
+      <c r="DG27" s="0"/>
+      <c r="DH27" s="0"/>
+      <c r="DI27" s="0"/>
+      <c r="DJ27" s="0"/>
+      <c r="DK27" s="0"/>
+      <c r="DL27" s="0"/>
+      <c r="DM27" s="0"/>
+      <c r="DN27" s="0"/>
+      <c r="DO27" s="0"/>
+      <c r="DP27" s="0"/>
+      <c r="DQ27" s="0"/>
+      <c r="DR27" s="0"/>
+      <c r="DS27" s="0"/>
+      <c r="DT27" s="0"/>
+      <c r="DU27" s="0"/>
+      <c r="DV27" s="0"/>
+      <c r="DW27" s="0"/>
+      <c r="DX27" s="0"/>
+      <c r="DY27" s="0"/>
+      <c r="DZ27" s="0"/>
+      <c r="EA27" s="0"/>
+      <c r="EB27" s="0"/>
+      <c r="EC27" s="0"/>
+      <c r="ED27" s="0"/>
+      <c r="EE27" s="0"/>
+      <c r="EF27" s="0"/>
+      <c r="EG27" s="0"/>
+      <c r="EH27" s="0"/>
+      <c r="EI27" s="0"/>
+      <c r="EJ27" s="0"/>
+      <c r="EK27" s="0"/>
+      <c r="EL27" s="0"/>
+      <c r="EM27" s="0"/>
+      <c r="EN27" s="0"/>
+      <c r="EO27" s="0"/>
+      <c r="EP27" s="0"/>
+      <c r="EQ27" s="0"/>
+      <c r="ER27" s="0"/>
+      <c r="ES27" s="0"/>
+      <c r="ET27" s="0"/>
+      <c r="EU27" s="0"/>
+      <c r="EV27" s="0"/>
+      <c r="EW27" s="0"/>
+      <c r="EX27" s="0"/>
+      <c r="EY27" s="0"/>
+      <c r="EZ27" s="0"/>
+      <c r="FA27" s="0"/>
+      <c r="FB27" s="0"/>
+      <c r="FC27" s="0"/>
+      <c r="FD27" s="0"/>
+      <c r="FE27" s="0"/>
+      <c r="FF27" s="0"/>
+      <c r="FG27" s="0"/>
+      <c r="FH27" s="0"/>
+      <c r="FI27" s="0"/>
+      <c r="FJ27" s="0"/>
+      <c r="FK27" s="0"/>
+      <c r="FL27" s="0"/>
+      <c r="FM27" s="0"/>
+      <c r="FN27" s="0"/>
+      <c r="FO27" s="0"/>
+      <c r="FP27" s="0"/>
+      <c r="FQ27" s="0"/>
+      <c r="FR27" s="0"/>
+      <c r="FS27" s="0"/>
+      <c r="FT27" s="0"/>
+      <c r="FU27" s="0"/>
+      <c r="FV27" s="0"/>
+      <c r="FW27" s="0"/>
+      <c r="FX27" s="0"/>
+      <c r="FY27" s="0"/>
+      <c r="FZ27" s="0"/>
+      <c r="GA27" s="0"/>
+      <c r="GB27" s="0"/>
+      <c r="GC27" s="0"/>
+      <c r="GD27" s="0"/>
+      <c r="GE27" s="0"/>
+      <c r="GF27" s="0"/>
+      <c r="GG27" s="0"/>
+      <c r="GH27" s="0"/>
+      <c r="GI27" s="0"/>
+      <c r="GJ27" s="0"/>
+      <c r="GK27" s="0"/>
+      <c r="GL27" s="0"/>
+      <c r="GM27" s="0"/>
+      <c r="GN27" s="0"/>
+      <c r="GO27" s="0"/>
+      <c r="GP27" s="0"/>
+      <c r="GQ27" s="0"/>
+      <c r="GR27" s="0"/>
+      <c r="GS27" s="0"/>
+      <c r="GT27" s="0"/>
+      <c r="GU27" s="0"/>
+      <c r="GV27" s="0"/>
+      <c r="GW27" s="0"/>
+      <c r="GX27" s="0"/>
+      <c r="GY27" s="0"/>
+      <c r="GZ27" s="0"/>
+      <c r="HA27" s="0"/>
+      <c r="HB27" s="0"/>
+      <c r="HC27" s="0"/>
+      <c r="HD27" s="0"/>
+      <c r="HE27" s="0"/>
+      <c r="HF27" s="0"/>
+      <c r="HG27" s="0"/>
+      <c r="HH27" s="0"/>
+      <c r="HI27" s="0"/>
+      <c r="HJ27" s="0"/>
+      <c r="HK27" s="0"/>
+      <c r="HL27" s="0"/>
+      <c r="HM27" s="0"/>
+      <c r="HN27" s="0"/>
+      <c r="HO27" s="0"/>
+      <c r="HP27" s="0"/>
+      <c r="HQ27" s="0"/>
+      <c r="HR27" s="0"/>
+      <c r="HS27" s="0"/>
+      <c r="HT27" s="0"/>
+      <c r="HU27" s="0"/>
+      <c r="HV27" s="0"/>
+      <c r="HW27" s="0"/>
+      <c r="HX27" s="0"/>
+      <c r="HY27" s="0"/>
+      <c r="HZ27" s="0"/>
+      <c r="IA27" s="0"/>
+      <c r="IB27" s="0"/>
+      <c r="IC27" s="0"/>
+      <c r="ID27" s="0"/>
+      <c r="IE27" s="0"/>
+      <c r="IF27" s="0"/>
+      <c r="IG27" s="0"/>
+      <c r="IH27" s="0"/>
+      <c r="II27" s="0"/>
+      <c r="IJ27" s="0"/>
+      <c r="IK27" s="0"/>
+      <c r="IL27" s="0"/>
+      <c r="IM27" s="0"/>
+      <c r="IN27" s="0"/>
+      <c r="IO27" s="0"/>
+      <c r="IP27" s="0"/>
+      <c r="IQ27" s="0"/>
+      <c r="IR27" s="0"/>
+      <c r="IS27" s="0"/>
+      <c r="IT27" s="0"/>
+      <c r="IU27" s="0"/>
+      <c r="IV27" s="0"/>
+      <c r="IW27" s="0"/>
+      <c r="IX27" s="0"/>
+      <c r="IY27" s="0"/>
+      <c r="IZ27" s="0"/>
+      <c r="JA27" s="0"/>
+      <c r="JB27" s="0"/>
+      <c r="JC27" s="0"/>
+      <c r="JD27" s="0"/>
+      <c r="JE27" s="0"/>
+      <c r="JF27" s="0"/>
+      <c r="JG27" s="0"/>
+      <c r="JH27" s="0"/>
+      <c r="JI27" s="0"/>
+      <c r="JJ27" s="0"/>
+      <c r="JK27" s="0"/>
+      <c r="JL27" s="0"/>
+      <c r="JM27" s="0"/>
+      <c r="JN27" s="0"/>
+      <c r="JO27" s="0"/>
+      <c r="JP27" s="0"/>
+      <c r="JQ27" s="0"/>
+      <c r="JR27" s="0"/>
+      <c r="JS27" s="0"/>
+      <c r="JT27" s="0"/>
+      <c r="JU27" s="0"/>
+      <c r="JV27" s="0"/>
+      <c r="JW27" s="0"/>
+      <c r="JX27" s="0"/>
+      <c r="JY27" s="0"/>
+      <c r="JZ27" s="0"/>
+      <c r="KA27" s="0"/>
+      <c r="KB27" s="0"/>
+      <c r="KC27" s="0"/>
+      <c r="KD27" s="0"/>
+      <c r="KE27" s="0"/>
+      <c r="KF27" s="0"/>
+      <c r="KG27" s="0"/>
+      <c r="KH27" s="0"/>
+      <c r="KI27" s="0"/>
+      <c r="KJ27" s="0"/>
+      <c r="KK27" s="0"/>
+      <c r="KL27" s="0"/>
+      <c r="KM27" s="0"/>
+      <c r="KN27" s="0"/>
+      <c r="KO27" s="0"/>
+      <c r="KP27" s="0"/>
+      <c r="KQ27" s="0"/>
+      <c r="KR27" s="0"/>
+      <c r="KS27" s="0"/>
+      <c r="KT27" s="0"/>
+      <c r="KU27" s="0"/>
+      <c r="KV27" s="0"/>
+      <c r="KW27" s="0"/>
+      <c r="KX27" s="0"/>
+      <c r="KY27" s="0"/>
+      <c r="KZ27" s="0"/>
+      <c r="LA27" s="0"/>
+      <c r="LB27" s="0"/>
+      <c r="LC27" s="0"/>
+      <c r="LD27" s="0"/>
+      <c r="LE27" s="0"/>
+      <c r="LF27" s="0"/>
+      <c r="LG27" s="0"/>
+      <c r="LH27" s="0"/>
+      <c r="LI27" s="0"/>
+      <c r="LJ27" s="0"/>
+      <c r="LK27" s="0"/>
+      <c r="LL27" s="0"/>
+      <c r="LM27" s="0"/>
+      <c r="LN27" s="0"/>
+      <c r="LO27" s="0"/>
+      <c r="LP27" s="0"/>
+      <c r="LQ27" s="0"/>
+      <c r="LR27" s="0"/>
+      <c r="LS27" s="0"/>
+      <c r="LT27" s="0"/>
+      <c r="LU27" s="0"/>
+      <c r="LV27" s="0"/>
+      <c r="LW27" s="0"/>
+      <c r="LX27" s="0"/>
+      <c r="LY27" s="0"/>
+      <c r="LZ27" s="0"/>
+      <c r="MA27" s="0"/>
+      <c r="MB27" s="0"/>
+      <c r="MC27" s="0"/>
+      <c r="MD27" s="0"/>
+      <c r="ME27" s="0"/>
+      <c r="MF27" s="0"/>
+      <c r="MG27" s="0"/>
+      <c r="MH27" s="0"/>
+      <c r="MI27" s="0"/>
+      <c r="MJ27" s="0"/>
+      <c r="MK27" s="0"/>
+      <c r="ML27" s="0"/>
+      <c r="MM27" s="0"/>
+      <c r="MN27" s="0"/>
+      <c r="MO27" s="0"/>
+      <c r="MP27" s="0"/>
+      <c r="MQ27" s="0"/>
+      <c r="MR27" s="0"/>
+      <c r="MS27" s="0"/>
+      <c r="MT27" s="0"/>
+      <c r="MU27" s="0"/>
+      <c r="MV27" s="0"/>
+      <c r="MW27" s="0"/>
+      <c r="MX27" s="0"/>
+      <c r="MY27" s="0"/>
+      <c r="MZ27" s="0"/>
+      <c r="NA27" s="0"/>
+      <c r="NB27" s="0"/>
+      <c r="NC27" s="0"/>
+      <c r="ND27" s="0"/>
+      <c r="NE27" s="0"/>
+      <c r="NF27" s="0"/>
+      <c r="NG27" s="0"/>
+      <c r="NH27" s="0"/>
+      <c r="NI27" s="0"/>
+      <c r="NJ27" s="0"/>
+      <c r="NK27" s="0"/>
+      <c r="NL27" s="0"/>
+      <c r="NM27" s="0"/>
+      <c r="NN27" s="0"/>
+      <c r="NO27" s="0"/>
+      <c r="NP27" s="0"/>
+      <c r="NQ27" s="0"/>
+      <c r="NR27" s="0"/>
+      <c r="NS27" s="0"/>
+      <c r="NT27" s="0"/>
+      <c r="NU27" s="0"/>
+      <c r="NV27" s="0"/>
+      <c r="NW27" s="0"/>
+      <c r="NX27" s="0"/>
+      <c r="NY27" s="0"/>
+      <c r="NZ27" s="0"/>
+      <c r="OA27" s="0"/>
+      <c r="OB27" s="0"/>
+      <c r="OC27" s="0"/>
+      <c r="OD27" s="0"/>
+      <c r="OE27" s="0"/>
+      <c r="OF27" s="0"/>
+      <c r="OG27" s="0"/>
+      <c r="OH27" s="0"/>
+      <c r="OI27" s="0"/>
+      <c r="OJ27" s="0"/>
+      <c r="OK27" s="0"/>
+      <c r="OL27" s="0"/>
+      <c r="OM27" s="0"/>
+      <c r="ON27" s="0"/>
+      <c r="OO27" s="0"/>
+      <c r="OP27" s="0"/>
+      <c r="OQ27" s="0"/>
+      <c r="OR27" s="0"/>
+      <c r="OS27" s="0"/>
+      <c r="OT27" s="0"/>
+      <c r="OU27" s="0"/>
+      <c r="OV27" s="0"/>
+      <c r="OW27" s="0"/>
+      <c r="OX27" s="0"/>
+      <c r="OY27" s="0"/>
+      <c r="OZ27" s="0"/>
+      <c r="PA27" s="0"/>
+      <c r="PB27" s="0"/>
+      <c r="PC27" s="0"/>
+      <c r="PD27" s="0"/>
+      <c r="PE27" s="0"/>
+      <c r="PF27" s="0"/>
+      <c r="PG27" s="0"/>
+      <c r="PH27" s="0"/>
+      <c r="PI27" s="0"/>
+      <c r="PJ27" s="0"/>
+      <c r="PK27" s="0"/>
+      <c r="PL27" s="0"/>
+      <c r="PM27" s="0"/>
+      <c r="PN27" s="0"/>
+      <c r="PO27" s="0"/>
+      <c r="PP27" s="0"/>
+      <c r="PQ27" s="0"/>
+      <c r="PR27" s="0"/>
+      <c r="PS27" s="0"/>
+      <c r="PT27" s="0"/>
+      <c r="PU27" s="0"/>
+      <c r="PV27" s="0"/>
+      <c r="PW27" s="0"/>
+      <c r="PX27" s="0"/>
+      <c r="PY27" s="0"/>
+      <c r="PZ27" s="0"/>
+      <c r="QA27" s="0"/>
+      <c r="QB27" s="0"/>
+      <c r="QC27" s="0"/>
+      <c r="QD27" s="0"/>
+      <c r="QE27" s="0"/>
+      <c r="QF27" s="0"/>
+      <c r="QG27" s="0"/>
+      <c r="QH27" s="0"/>
+      <c r="QI27" s="0"/>
+      <c r="QJ27" s="0"/>
+      <c r="QK27" s="0"/>
+      <c r="QL27" s="0"/>
+      <c r="QM27" s="0"/>
+      <c r="QN27" s="0"/>
+      <c r="QO27" s="0"/>
+      <c r="QP27" s="0"/>
+      <c r="QQ27" s="0"/>
+      <c r="QR27" s="0"/>
+      <c r="QS27" s="0"/>
+      <c r="QT27" s="0"/>
+      <c r="QU27" s="0"/>
+      <c r="QV27" s="0"/>
+      <c r="QW27" s="0"/>
+      <c r="QX27" s="0"/>
+      <c r="QY27" s="0"/>
+      <c r="QZ27" s="0"/>
+      <c r="RA27" s="0"/>
+      <c r="RB27" s="0"/>
+      <c r="RC27" s="0"/>
+      <c r="RD27" s="0"/>
+      <c r="RE27" s="0"/>
+      <c r="RF27" s="0"/>
+      <c r="RG27" s="0"/>
+      <c r="RH27" s="0"/>
+      <c r="RI27" s="0"/>
+      <c r="RJ27" s="0"/>
+      <c r="RK27" s="0"/>
+      <c r="RL27" s="0"/>
+      <c r="RM27" s="0"/>
+      <c r="RN27" s="0"/>
+      <c r="RO27" s="0"/>
+      <c r="RP27" s="0"/>
+      <c r="RQ27" s="0"/>
+      <c r="RR27" s="0"/>
+      <c r="RS27" s="0"/>
+      <c r="RT27" s="0"/>
+      <c r="RU27" s="0"/>
+      <c r="RV27" s="0"/>
+      <c r="RW27" s="0"/>
+      <c r="RX27" s="0"/>
+      <c r="RY27" s="0"/>
+      <c r="RZ27" s="0"/>
+      <c r="SA27" s="0"/>
+      <c r="SB27" s="0"/>
+      <c r="SC27" s="0"/>
+      <c r="SD27" s="0"/>
+      <c r="SE27" s="0"/>
+      <c r="SF27" s="0"/>
+      <c r="SG27" s="0"/>
+      <c r="SH27" s="0"/>
+      <c r="SI27" s="0"/>
+      <c r="SJ27" s="0"/>
+      <c r="SK27" s="0"/>
+      <c r="SL27" s="0"/>
+      <c r="SM27" s="0"/>
+      <c r="SN27" s="0"/>
+      <c r="SO27" s="0"/>
+      <c r="SP27" s="0"/>
+      <c r="SQ27" s="0"/>
+      <c r="SR27" s="0"/>
+      <c r="SS27" s="0"/>
+      <c r="ST27" s="0"/>
+      <c r="SU27" s="0"/>
+      <c r="SV27" s="0"/>
+      <c r="SW27" s="0"/>
+      <c r="SX27" s="0"/>
+      <c r="SY27" s="0"/>
+      <c r="SZ27" s="0"/>
+      <c r="TA27" s="0"/>
+      <c r="TB27" s="0"/>
+      <c r="TC27" s="0"/>
+      <c r="TD27" s="0"/>
+      <c r="TE27" s="0"/>
+      <c r="TF27" s="0"/>
+      <c r="TG27" s="0"/>
+      <c r="TH27" s="0"/>
+      <c r="TI27" s="0"/>
+      <c r="TJ27" s="0"/>
+      <c r="TK27" s="0"/>
+      <c r="TL27" s="0"/>
+      <c r="TM27" s="0"/>
+      <c r="TN27" s="0"/>
+      <c r="TO27" s="0"/>
+      <c r="TP27" s="0"/>
+      <c r="TQ27" s="0"/>
+      <c r="TR27" s="0"/>
+      <c r="TS27" s="0"/>
+      <c r="TT27" s="0"/>
+      <c r="TU27" s="0"/>
+      <c r="TV27" s="0"/>
+      <c r="TW27" s="0"/>
+      <c r="TX27" s="0"/>
+      <c r="TY27" s="0"/>
+      <c r="TZ27" s="0"/>
+      <c r="UA27" s="0"/>
+      <c r="UB27" s="0"/>
+      <c r="UC27" s="0"/>
+      <c r="UD27" s="0"/>
+      <c r="UE27" s="0"/>
+      <c r="UF27" s="0"/>
+      <c r="UG27" s="0"/>
+      <c r="UH27" s="0"/>
+      <c r="UI27" s="0"/>
+      <c r="UJ27" s="0"/>
+      <c r="UK27" s="0"/>
+      <c r="UL27" s="0"/>
+      <c r="UM27" s="0"/>
+      <c r="UN27" s="0"/>
+      <c r="UO27" s="0"/>
+      <c r="UP27" s="0"/>
+      <c r="UQ27" s="0"/>
+      <c r="UR27" s="0"/>
+      <c r="US27" s="0"/>
+      <c r="UT27" s="0"/>
+      <c r="UU27" s="0"/>
+      <c r="UV27" s="0"/>
+      <c r="UW27" s="0"/>
+      <c r="UX27" s="0"/>
+      <c r="UY27" s="0"/>
+      <c r="UZ27" s="0"/>
+      <c r="VA27" s="0"/>
+      <c r="VB27" s="0"/>
+      <c r="VC27" s="0"/>
+      <c r="VD27" s="0"/>
+      <c r="VE27" s="0"/>
+      <c r="VF27" s="0"/>
+      <c r="VG27" s="0"/>
+      <c r="VH27" s="0"/>
+      <c r="VI27" s="0"/>
+      <c r="VJ27" s="0"/>
+      <c r="VK27" s="0"/>
+      <c r="VL27" s="0"/>
+      <c r="VM27" s="0"/>
+      <c r="VN27" s="0"/>
+      <c r="VO27" s="0"/>
+      <c r="VP27" s="0"/>
+      <c r="VQ27" s="0"/>
+      <c r="VR27" s="0"/>
+      <c r="VS27" s="0"/>
+      <c r="VT27" s="0"/>
+      <c r="VU27" s="0"/>
+      <c r="VV27" s="0"/>
+      <c r="VW27" s="0"/>
+      <c r="VX27" s="0"/>
+      <c r="VY27" s="0"/>
+      <c r="VZ27" s="0"/>
+      <c r="WA27" s="0"/>
+      <c r="WB27" s="0"/>
+      <c r="WC27" s="0"/>
+      <c r="WD27" s="0"/>
+      <c r="WE27" s="0"/>
+      <c r="WF27" s="0"/>
+      <c r="WG27" s="0"/>
+      <c r="WH27" s="0"/>
+      <c r="WI27" s="0"/>
+      <c r="WJ27" s="0"/>
+      <c r="WK27" s="0"/>
+      <c r="WL27" s="0"/>
+      <c r="WM27" s="0"/>
+      <c r="WN27" s="0"/>
+      <c r="WO27" s="0"/>
+      <c r="WP27" s="0"/>
+      <c r="WQ27" s="0"/>
+      <c r="WR27" s="0"/>
+      <c r="WS27" s="0"/>
+      <c r="WT27" s="0"/>
+      <c r="WU27" s="0"/>
+      <c r="WV27" s="0"/>
+      <c r="WW27" s="0"/>
+      <c r="WX27" s="0"/>
+      <c r="WY27" s="0"/>
+      <c r="WZ27" s="0"/>
+      <c r="XA27" s="0"/>
+      <c r="XB27" s="0"/>
+      <c r="XC27" s="0"/>
+      <c r="XD27" s="0"/>
+      <c r="XE27" s="0"/>
+      <c r="XF27" s="0"/>
+      <c r="XG27" s="0"/>
+      <c r="XH27" s="0"/>
+      <c r="XI27" s="0"/>
+      <c r="XJ27" s="0"/>
+      <c r="XK27" s="0"/>
+      <c r="XL27" s="0"/>
+      <c r="XM27" s="0"/>
+      <c r="XN27" s="0"/>
+      <c r="XO27" s="0"/>
+      <c r="XP27" s="0"/>
+      <c r="XQ27" s="0"/>
+      <c r="XR27" s="0"/>
+      <c r="XS27" s="0"/>
+      <c r="XT27" s="0"/>
+      <c r="XU27" s="0"/>
+      <c r="XV27" s="0"/>
+      <c r="XW27" s="0"/>
+      <c r="XX27" s="0"/>
+      <c r="XY27" s="0"/>
+      <c r="XZ27" s="0"/>
+      <c r="YA27" s="0"/>
+      <c r="YB27" s="0"/>
+      <c r="YC27" s="0"/>
+      <c r="YD27" s="0"/>
+      <c r="YE27" s="0"/>
+      <c r="YF27" s="0"/>
+      <c r="YG27" s="0"/>
+      <c r="YH27" s="0"/>
+      <c r="YI27" s="0"/>
+      <c r="YJ27" s="0"/>
+      <c r="YK27" s="0"/>
+      <c r="YL27" s="0"/>
+      <c r="YM27" s="0"/>
+      <c r="YN27" s="0"/>
+      <c r="YO27" s="0"/>
+      <c r="YP27" s="0"/>
+      <c r="YQ27" s="0"/>
+      <c r="YR27" s="0"/>
+      <c r="YS27" s="0"/>
+      <c r="YT27" s="0"/>
+      <c r="YU27" s="0"/>
+      <c r="YV27" s="0"/>
+      <c r="YW27" s="0"/>
+      <c r="YX27" s="0"/>
+      <c r="YY27" s="0"/>
+      <c r="YZ27" s="0"/>
+      <c r="ZA27" s="0"/>
+      <c r="ZB27" s="0"/>
+      <c r="ZC27" s="0"/>
+      <c r="ZD27" s="0"/>
+      <c r="ZE27" s="0"/>
+      <c r="ZF27" s="0"/>
+      <c r="ZG27" s="0"/>
+      <c r="ZH27" s="0"/>
+      <c r="ZI27" s="0"/>
+      <c r="ZJ27" s="0"/>
+      <c r="ZK27" s="0"/>
+      <c r="ZL27" s="0"/>
+      <c r="ZM27" s="0"/>
+      <c r="ZN27" s="0"/>
+      <c r="ZO27" s="0"/>
+      <c r="ZP27" s="0"/>
+      <c r="ZQ27" s="0"/>
+      <c r="ZR27" s="0"/>
+      <c r="ZS27" s="0"/>
+      <c r="ZT27" s="0"/>
+      <c r="ZU27" s="0"/>
+      <c r="ZV27" s="0"/>
+      <c r="ZW27" s="0"/>
+      <c r="ZX27" s="0"/>
+      <c r="ZY27" s="0"/>
+      <c r="ZZ27" s="0"/>
+      <c r="AAA27" s="0"/>
+      <c r="AAB27" s="0"/>
+      <c r="AAC27" s="0"/>
+      <c r="AAD27" s="0"/>
+      <c r="AAE27" s="0"/>
+      <c r="AAF27" s="0"/>
+      <c r="AAG27" s="0"/>
+      <c r="AAH27" s="0"/>
+      <c r="AAI27" s="0"/>
+      <c r="AAJ27" s="0"/>
+      <c r="AAK27" s="0"/>
+      <c r="AAL27" s="0"/>
+      <c r="AAM27" s="0"/>
+      <c r="AAN27" s="0"/>
+      <c r="AAO27" s="0"/>
+      <c r="AAP27" s="0"/>
+      <c r="AAQ27" s="0"/>
+      <c r="AAR27" s="0"/>
+      <c r="AAS27" s="0"/>
+      <c r="AAT27" s="0"/>
+      <c r="AAU27" s="0"/>
+      <c r="AAV27" s="0"/>
+      <c r="AAW27" s="0"/>
+      <c r="AAX27" s="0"/>
+      <c r="AAY27" s="0"/>
+      <c r="AAZ27" s="0"/>
+      <c r="ABA27" s="0"/>
+      <c r="ABB27" s="0"/>
+      <c r="ABC27" s="0"/>
+      <c r="ABD27" s="0"/>
+      <c r="ABE27" s="0"/>
+      <c r="ABF27" s="0"/>
+      <c r="ABG27" s="0"/>
+      <c r="ABH27" s="0"/>
+      <c r="ABI27" s="0"/>
+      <c r="ABJ27" s="0"/>
+      <c r="ABK27" s="0"/>
+      <c r="ABL27" s="0"/>
+      <c r="ABM27" s="0"/>
+      <c r="ABN27" s="0"/>
+      <c r="ABO27" s="0"/>
+      <c r="ABP27" s="0"/>
+      <c r="ABQ27" s="0"/>
+      <c r="ABR27" s="0"/>
+      <c r="ABS27" s="0"/>
+      <c r="ABT27" s="0"/>
+      <c r="ABU27" s="0"/>
+      <c r="ABV27" s="0"/>
+      <c r="ABW27" s="0"/>
+      <c r="ABX27" s="0"/>
+      <c r="ABY27" s="0"/>
+      <c r="ABZ27" s="0"/>
+      <c r="ACA27" s="0"/>
+      <c r="ACB27" s="0"/>
+      <c r="ACC27" s="0"/>
+      <c r="ACD27" s="0"/>
+      <c r="ACE27" s="0"/>
+      <c r="ACF27" s="0"/>
+      <c r="ACG27" s="0"/>
+      <c r="ACH27" s="0"/>
+      <c r="ACI27" s="0"/>
+      <c r="ACJ27" s="0"/>
+      <c r="ACK27" s="0"/>
+      <c r="ACL27" s="0"/>
+      <c r="ACM27" s="0"/>
+      <c r="ACN27" s="0"/>
+      <c r="ACO27" s="0"/>
+      <c r="ACP27" s="0"/>
+      <c r="ACQ27" s="0"/>
+      <c r="ACR27" s="0"/>
+      <c r="ACS27" s="0"/>
+      <c r="ACT27" s="0"/>
+      <c r="ACU27" s="0"/>
+      <c r="ACV27" s="0"/>
+      <c r="ACW27" s="0"/>
+      <c r="ACX27" s="0"/>
+      <c r="ACY27" s="0"/>
+      <c r="ACZ27" s="0"/>
+      <c r="ADA27" s="0"/>
+      <c r="ADB27" s="0"/>
+      <c r="ADC27" s="0"/>
+      <c r="ADD27" s="0"/>
+      <c r="ADE27" s="0"/>
+      <c r="ADF27" s="0"/>
+      <c r="ADG27" s="0"/>
+      <c r="ADH27" s="0"/>
+      <c r="ADI27" s="0"/>
+      <c r="ADJ27" s="0"/>
+      <c r="ADK27" s="0"/>
+      <c r="ADL27" s="0"/>
+      <c r="ADM27" s="0"/>
+      <c r="ADN27" s="0"/>
+      <c r="ADO27" s="0"/>
+      <c r="ADP27" s="0"/>
+      <c r="ADQ27" s="0"/>
+      <c r="ADR27" s="0"/>
+      <c r="ADS27" s="0"/>
+      <c r="ADT27" s="0"/>
+      <c r="ADU27" s="0"/>
+      <c r="ADV27" s="0"/>
+      <c r="ADW27" s="0"/>
+      <c r="ADX27" s="0"/>
+      <c r="ADY27" s="0"/>
+      <c r="ADZ27" s="0"/>
+      <c r="AEA27" s="0"/>
+      <c r="AEB27" s="0"/>
+      <c r="AEC27" s="0"/>
+      <c r="AED27" s="0"/>
+      <c r="AEE27" s="0"/>
+      <c r="AEF27" s="0"/>
+      <c r="AEG27" s="0"/>
+      <c r="AEH27" s="0"/>
+      <c r="AEI27" s="0"/>
+      <c r="AEJ27" s="0"/>
+      <c r="AEK27" s="0"/>
+      <c r="AEL27" s="0"/>
+      <c r="AEM27" s="0"/>
+      <c r="AEN27" s="0"/>
+      <c r="AEO27" s="0"/>
+      <c r="AEP27" s="0"/>
+      <c r="AEQ27" s="0"/>
+      <c r="AER27" s="0"/>
+      <c r="AES27" s="0"/>
+      <c r="AET27" s="0"/>
+      <c r="AEU27" s="0"/>
+      <c r="AEV27" s="0"/>
+      <c r="AEW27" s="0"/>
+      <c r="AEX27" s="0"/>
+      <c r="AEY27" s="0"/>
+      <c r="AEZ27" s="0"/>
+      <c r="AFA27" s="0"/>
+      <c r="AFB27" s="0"/>
+      <c r="AFC27" s="0"/>
+      <c r="AFD27" s="0"/>
+      <c r="AFE27" s="0"/>
+      <c r="AFF27" s="0"/>
+      <c r="AFG27" s="0"/>
+      <c r="AFH27" s="0"/>
+      <c r="AFI27" s="0"/>
+      <c r="AFJ27" s="0"/>
+      <c r="AFK27" s="0"/>
+      <c r="AFL27" s="0"/>
+      <c r="AFM27" s="0"/>
+      <c r="AFN27" s="0"/>
+      <c r="AFO27" s="0"/>
+      <c r="AFP27" s="0"/>
+      <c r="AFQ27" s="0"/>
+      <c r="AFR27" s="0"/>
+      <c r="AFS27" s="0"/>
+      <c r="AFT27" s="0"/>
+      <c r="AFU27" s="0"/>
+      <c r="AFV27" s="0"/>
+      <c r="AFW27" s="0"/>
+      <c r="AFX27" s="0"/>
+      <c r="AFY27" s="0"/>
+      <c r="AFZ27" s="0"/>
+      <c r="AGA27" s="0"/>
+      <c r="AGB27" s="0"/>
+      <c r="AGC27" s="0"/>
+      <c r="AGD27" s="0"/>
+      <c r="AGE27" s="0"/>
+      <c r="AGF27" s="0"/>
+      <c r="AGG27" s="0"/>
+      <c r="AGH27" s="0"/>
+      <c r="AGI27" s="0"/>
+      <c r="AGJ27" s="0"/>
+      <c r="AGK27" s="0"/>
+      <c r="AGL27" s="0"/>
+      <c r="AGM27" s="0"/>
+      <c r="AGN27" s="0"/>
+      <c r="AGO27" s="0"/>
+      <c r="AGP27" s="0"/>
+      <c r="AGQ27" s="0"/>
+      <c r="AGR27" s="0"/>
+      <c r="AGS27" s="0"/>
+      <c r="AGT27" s="0"/>
+      <c r="AGU27" s="0"/>
+      <c r="AGV27" s="0"/>
+      <c r="AGW27" s="0"/>
+      <c r="AGX27" s="0"/>
+      <c r="AGY27" s="0"/>
+      <c r="AGZ27" s="0"/>
+      <c r="AHA27" s="0"/>
+      <c r="AHB27" s="0"/>
+      <c r="AHC27" s="0"/>
+      <c r="AHD27" s="0"/>
+      <c r="AHE27" s="0"/>
+      <c r="AHF27" s="0"/>
+      <c r="AHG27" s="0"/>
+      <c r="AHH27" s="0"/>
+      <c r="AHI27" s="0"/>
+      <c r="AHJ27" s="0"/>
+      <c r="AHK27" s="0"/>
+      <c r="AHL27" s="0"/>
+      <c r="AHM27" s="0"/>
+      <c r="AHN27" s="0"/>
+      <c r="AHO27" s="0"/>
+      <c r="AHP27" s="0"/>
+      <c r="AHQ27" s="0"/>
+      <c r="AHR27" s="0"/>
+      <c r="AHS27" s="0"/>
+      <c r="AHT27" s="0"/>
+      <c r="AHU27" s="0"/>
+      <c r="AHV27" s="0"/>
+      <c r="AHW27" s="0"/>
+      <c r="AHX27" s="0"/>
+      <c r="AHY27" s="0"/>
+      <c r="AHZ27" s="0"/>
+      <c r="AIA27" s="0"/>
+      <c r="AIB27" s="0"/>
+      <c r="AIC27" s="0"/>
+      <c r="AID27" s="0"/>
+      <c r="AIE27" s="0"/>
+      <c r="AIF27" s="0"/>
+      <c r="AIG27" s="0"/>
+      <c r="AIH27" s="0"/>
+      <c r="AII27" s="0"/>
+      <c r="AIJ27" s="0"/>
+      <c r="AIK27" s="0"/>
+      <c r="AIL27" s="0"/>
+      <c r="AIM27" s="0"/>
+      <c r="AIN27" s="0"/>
+      <c r="AIO27" s="0"/>
+      <c r="AIP27" s="0"/>
+      <c r="AIQ27" s="0"/>
+      <c r="AIR27" s="0"/>
+      <c r="AIS27" s="0"/>
+      <c r="AIT27" s="0"/>
+      <c r="AIU27" s="0"/>
+      <c r="AIV27" s="0"/>
+      <c r="AIW27" s="0"/>
+      <c r="AIX27" s="0"/>
+      <c r="AIY27" s="0"/>
+      <c r="AIZ27" s="0"/>
+      <c r="AJA27" s="0"/>
+      <c r="AJB27" s="0"/>
+      <c r="AJC27" s="0"/>
+      <c r="AJD27" s="0"/>
+      <c r="AJE27" s="0"/>
+      <c r="AJF27" s="0"/>
+      <c r="AJG27" s="0"/>
+      <c r="AJH27" s="0"/>
+      <c r="AJI27" s="0"/>
+      <c r="AJJ27" s="0"/>
+      <c r="AJK27" s="0"/>
+      <c r="AJL27" s="0"/>
+      <c r="AJM27" s="0"/>
+      <c r="AJN27" s="0"/>
+      <c r="AJO27" s="0"/>
+      <c r="AJP27" s="0"/>
+      <c r="AJQ27" s="0"/>
+      <c r="AJR27" s="0"/>
+      <c r="AJS27" s="0"/>
+      <c r="AJT27" s="0"/>
+      <c r="AJU27" s="0"/>
+      <c r="AJV27" s="0"/>
+      <c r="AJW27" s="0"/>
+      <c r="AJX27" s="0"/>
+      <c r="AJY27" s="0"/>
+      <c r="AJZ27" s="0"/>
+      <c r="AKA27" s="0"/>
+      <c r="AKB27" s="0"/>
+      <c r="AKC27" s="0"/>
+      <c r="AKD27" s="0"/>
+      <c r="AKE27" s="0"/>
+      <c r="AKF27" s="0"/>
+      <c r="AKG27" s="0"/>
+      <c r="AKH27" s="0"/>
+      <c r="AKI27" s="0"/>
+      <c r="AKJ27" s="0"/>
+      <c r="AKK27" s="0"/>
+      <c r="AKL27" s="0"/>
+      <c r="AKM27" s="0"/>
+      <c r="AKN27" s="0"/>
+      <c r="AKO27" s="0"/>
+      <c r="AKP27" s="0"/>
+      <c r="AKQ27" s="0"/>
+      <c r="AKR27" s="0"/>
+      <c r="AKS27" s="0"/>
+      <c r="AKT27" s="0"/>
+      <c r="AKU27" s="0"/>
+      <c r="AKV27" s="0"/>
+      <c r="AKW27" s="0"/>
+      <c r="AKX27" s="0"/>
+      <c r="AKY27" s="0"/>
+      <c r="AKZ27" s="0"/>
+      <c r="ALA27" s="0"/>
+      <c r="ALB27" s="0"/>
+      <c r="ALC27" s="0"/>
+      <c r="ALD27" s="0"/>
+      <c r="ALE27" s="0"/>
+      <c r="ALF27" s="0"/>
+      <c r="ALG27" s="0"/>
+      <c r="ALH27" s="0"/>
+      <c r="ALI27" s="0"/>
+      <c r="ALJ27" s="0"/>
+      <c r="ALK27" s="0"/>
+      <c r="ALL27" s="0"/>
+      <c r="ALM27" s="0"/>
+      <c r="ALN27" s="0"/>
+      <c r="ALO27" s="0"/>
+      <c r="ALP27" s="0"/>
+      <c r="ALQ27" s="0"/>
+      <c r="ALR27" s="0"/>
+      <c r="ALS27" s="0"/>
+      <c r="ALT27" s="0"/>
+      <c r="ALU27" s="0"/>
+      <c r="ALV27" s="0"/>
+      <c r="ALW27" s="0"/>
+      <c r="ALX27" s="0"/>
+      <c r="ALY27" s="0"/>
+      <c r="ALZ27" s="0"/>
+      <c r="AMA27" s="0"/>
+      <c r="AMB27" s="0"/>
+      <c r="AMC27" s="0"/>
+      <c r="AMD27" s="0"/>
+      <c r="AME27" s="0"/>
+      <c r="AMF27" s="0"/>
+      <c r="AMG27" s="0"/>
+      <c r="AMH27" s="0"/>
+      <c r="AMI27" s="0"/>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2588,200 +3652,200 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B18" s="44"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="42" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="42" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2870,50 +3934,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="11" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
+    <row r="2" s="53" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" s="31" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>158</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>161</v>
       </c>
       <c r="E3" s="30" t="n">
         <v>1</v>
@@ -2925,18 +3989,18 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
       <c r="J3" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>2</v>
@@ -2945,18 +4009,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>3</v>
@@ -2965,15 +4029,15 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>4</v>
@@ -2982,21 +4046,21 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>5</v>
@@ -3005,21 +4069,21 @@
         <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>6</v>
@@ -3028,21 +4092,21 @@
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>7</v>
@@ -3051,18 +4115,18 @@
         <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>8</v>
@@ -3071,18 +4135,18 @@
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>9</v>
@@ -3093,13 +4157,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>10</v>
@@ -3108,15 +4172,15 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>11</v>
@@ -3125,18 +4189,18 @@
         <v>1</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>12</v>
@@ -3145,12 +4209,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -9,10 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="layout" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="menus" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="guide" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="guide" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="menus" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Widget Attr" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="example" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -77,6 +76,22 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">‘self’
+or other parent
+widget
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">The Widget variable. REQUIRED for every widget.
 eg.
 varname  OR
@@ -85,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +147,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>m</author>
@@ -176,7 +191,36 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">and
+LableFrame
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">and
+scrolledtext</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,60 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Orientation of the widget. 
-“nsew” or some combination of those letters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>m</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The TEXT of a button
-label
-or entry widget
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">The callback function name, or the Textvariable name.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -315,6 +306,9 @@
   <si>
     <t xml:space="preserve">tkinter Widget
 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parent Widget</t>
   </si>
   <si>
     <t xml:space="preserve">Variable
@@ -356,6 +350,136 @@
   </si>
   <si>
     <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget
+Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Widget
+Variable
+Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Optional)
+Widget
+Attributes
+And
+Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x (command)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( x,x,x,… )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x (textvariable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrollx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x (widget)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x (variable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWWxHHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commented in the generated code because of many required edits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">messagebox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filedialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simpledialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toplevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x means fill in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(x) means optional or depends on widget formats</t>
   </si>
   <si>
     <t xml:space="preserve">N O T E S</t>
@@ -576,133 +700,6 @@
     <t xml:space="preserve">endmenu</t>
   </si>
   <si>
-    <t xml:space="preserve">Widget
-Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widget
-Variable
-Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Optional)
-Widget
-Attributes
-And
-Values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (command)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">( x,x,x,… )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (textvariable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrollx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (widget)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrolly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x (variable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">options</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geometry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WWWxHHH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commented in the generated code because of many required edits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">messagebox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filedialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simpledialog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toplevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x means fill in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(x) means optional or depends on widget formats</t>
-  </si>
-  <si>
     <t xml:space="preserve">Widgets</t>
   </si>
   <si>
@@ -845,117 +842,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://anzeljg.github.io/rin2/book2/2405/docs/tkinter/ttk-Notebook.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cursor=’hand1’, padding=12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’m a Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relief=SUNKEN, padding=4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tbVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width=10, show=’*’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width=40, bg=’#eee’, height=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radio 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cursor=’hand1’, padding=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radio 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chkVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">onvalue=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spnVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from_=5, to=25, increment=5, width=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">optVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbxVar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">width=15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cursor=’hand1’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrx</t>
   </si>
 </sst>
 </file>
@@ -966,7 +852,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1005,6 +891,28 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFB2B2B2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1062,20 +970,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFB2B2B2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="12"/>
       <name val="Calibri"/>
@@ -1111,14 +1005,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1183,7 +1077,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1192,6 +1086,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1220,8 +1118,8 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1232,46 +1130,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1304,6 +1170,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1312,32 +1182,68 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1348,7 +1254,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1356,7 +1262,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1369,34 +1275,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1477,59 +1355,61 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="42.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="2" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="42.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="3" width="16.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="11" customFormat="true" ht="86.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="12" customFormat="true" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -1538,52 +1418,158 @@
       <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
-    </row>
+      <c r="L2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="40" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:H68 E71:H88" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:I39 F42:I59" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I3:I68 I71:I88" type="textLength">
+    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J39 J42:J59" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A414:A502" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A463:A473" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A412:A413" type="list">
-      <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text,toplevel,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="B2:B998" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A411" type="list">
-      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,simpledialog,spin,submenu,text,toplevel,"</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A462" type="list">
+      <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1603,973 +1589,768 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="12" width="78.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="2" width="11.86"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" s="15" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="16"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="27.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="12.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="3" width="12.03"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="23" t="s">
+    <row r="2" s="21" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>73</v>
+      <c r="J2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="25" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>73</v>
+      <c r="B5" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="33"/>
+        <v>29</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+        <v>47</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
+        <v>50</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="31"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="33"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
+        <v>52</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="33"/>
+        <v>55</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
@@ -3595,31 +3376,33 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+        <v>57</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
+        <v>58</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3629,6 +3412,299 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="78.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="36"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3645,211 +3721,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="39" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="42" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="42" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>108</v>
+      <c r="A1" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>110</v>
+      <c r="A2" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>112</v>
+      <c r="A3" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>114</v>
+      <c r="A4" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>116</v>
+      <c r="A5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>118</v>
+      <c r="A6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>120</v>
+      <c r="A7" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>122</v>
+      <c r="A8" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>124</v>
+      <c r="A9" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>126</v>
+      <c r="A10" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" s="43" t="s">
+      <c r="A11" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>131</v>
+      <c r="A13" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>133</v>
+      <c r="A14" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>135</v>
+      <c r="A15" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>137</v>
+      <c r="A16" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>139</v>
+      <c r="A17" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="44"/>
+      <c r="A18" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>142</v>
+      <c r="A19" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>144</v>
+      <c r="A20" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>146</v>
+      <c r="A21" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>148</v>
+      <c r="A22" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>150</v>
+      <c r="A23" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>152</v>
+      <c r="A24" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="45"/>
+      <c r="A25" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3885,349 +3961,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="52.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="2" width="16.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="4" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" s="53" customFormat="true" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" s="31" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="158">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calendar</t>
   </si>
   <si>
     <t xml:space="preserve">check</t>
@@ -1287,6 +1290,29 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFA6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1360,7 +1386,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1551,31 +1577,35 @@
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:I39 F42:I59" type="whole">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:I39 F42:I59" type="whole">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J39 J42:J59" type="textLength">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J39 J42:J59" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A463:A473" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A463:A473" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="B2:B998" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="B2:B998" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3:A462" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A462" type="list">
       <formula1>"begmenu,button,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A3" type="list">
+      <formula1>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1589,12 +1619,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1933,12 +1963,8 @@
       <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="4" t="s">
         <v>23</v>
       </c>
@@ -1960,7 +1986,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>22</v>
@@ -1972,7 +1998,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>23</v>
@@ -2006,7 +2032,9 @@
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>23</v>
       </c>
@@ -2036,10 +2064,10 @@
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="26"/>
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
@@ -2071,7 +2099,7 @@
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>23</v>
@@ -2104,7 +2132,7 @@
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>23</v>
@@ -2119,13 +2147,15 @@
         <v>23</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>22</v>
@@ -2135,7 +2165,7 @@
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>23</v>
@@ -2150,11 +2180,9 @@
         <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -2167,7 +2195,9 @@
         <v>23</v>
       </c>
       <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
@@ -2178,6 +2208,9 @@
         <v>23</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -2208,9 +2241,6 @@
       <c r="I19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="K19" s="3" t="s">
         <v>25</v>
       </c>
@@ -2222,55 +2252,67 @@
       <c r="B20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>49</v>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
+      <c r="F20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
+      <c r="C21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -2280,7 +2322,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -2299,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -2318,7 +2360,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="27"/>
@@ -2337,7 +2379,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
@@ -2348,1044 +2390,1050 @@
       <c r="J26" s="26"/>
       <c r="K26" s="27"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="0"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
-      <c r="AB27" s="0"/>
-      <c r="AC27" s="0"/>
-      <c r="AD27" s="0"/>
-      <c r="AE27" s="0"/>
-      <c r="AF27" s="0"/>
-      <c r="AG27" s="0"/>
-      <c r="AH27" s="0"/>
-      <c r="AI27" s="0"/>
-      <c r="AJ27" s="0"/>
-      <c r="AK27" s="0"/>
-      <c r="AL27" s="0"/>
-      <c r="AM27" s="0"/>
-      <c r="AN27" s="0"/>
-      <c r="AO27" s="0"/>
-      <c r="AP27" s="0"/>
-      <c r="AQ27" s="0"/>
-      <c r="AR27" s="0"/>
-      <c r="AS27" s="0"/>
-      <c r="AT27" s="0"/>
-      <c r="AU27" s="0"/>
-      <c r="AV27" s="0"/>
-      <c r="AW27" s="0"/>
-      <c r="AX27" s="0"/>
-      <c r="AY27" s="0"/>
-      <c r="AZ27" s="0"/>
-      <c r="BA27" s="0"/>
-      <c r="BB27" s="0"/>
-      <c r="BC27" s="0"/>
-      <c r="BD27" s="0"/>
-      <c r="BE27" s="0"/>
-      <c r="BF27" s="0"/>
-      <c r="BG27" s="0"/>
-      <c r="BH27" s="0"/>
-      <c r="BI27" s="0"/>
-      <c r="BJ27" s="0"/>
-      <c r="BK27" s="0"/>
-      <c r="BL27" s="0"/>
-      <c r="BM27" s="0"/>
-      <c r="BN27" s="0"/>
-      <c r="BO27" s="0"/>
-      <c r="BP27" s="0"/>
-      <c r="BQ27" s="0"/>
-      <c r="BR27" s="0"/>
-      <c r="BS27" s="0"/>
-      <c r="BT27" s="0"/>
-      <c r="BU27" s="0"/>
-      <c r="BV27" s="0"/>
-      <c r="BW27" s="0"/>
-      <c r="BX27" s="0"/>
-      <c r="BY27" s="0"/>
-      <c r="BZ27" s="0"/>
-      <c r="CA27" s="0"/>
-      <c r="CB27" s="0"/>
-      <c r="CC27" s="0"/>
-      <c r="CD27" s="0"/>
-      <c r="CE27" s="0"/>
-      <c r="CF27" s="0"/>
-      <c r="CG27" s="0"/>
-      <c r="CH27" s="0"/>
-      <c r="CI27" s="0"/>
-      <c r="CJ27" s="0"/>
-      <c r="CK27" s="0"/>
-      <c r="CL27" s="0"/>
-      <c r="CM27" s="0"/>
-      <c r="CN27" s="0"/>
-      <c r="CO27" s="0"/>
-      <c r="CP27" s="0"/>
-      <c r="CQ27" s="0"/>
-      <c r="CR27" s="0"/>
-      <c r="CS27" s="0"/>
-      <c r="CT27" s="0"/>
-      <c r="CU27" s="0"/>
-      <c r="CV27" s="0"/>
-      <c r="CW27" s="0"/>
-      <c r="CX27" s="0"/>
-      <c r="CY27" s="0"/>
-      <c r="CZ27" s="0"/>
-      <c r="DA27" s="0"/>
-      <c r="DB27" s="0"/>
-      <c r="DC27" s="0"/>
-      <c r="DD27" s="0"/>
-      <c r="DE27" s="0"/>
-      <c r="DF27" s="0"/>
-      <c r="DG27" s="0"/>
-      <c r="DH27" s="0"/>
-      <c r="DI27" s="0"/>
-      <c r="DJ27" s="0"/>
-      <c r="DK27" s="0"/>
-      <c r="DL27" s="0"/>
-      <c r="DM27" s="0"/>
-      <c r="DN27" s="0"/>
-      <c r="DO27" s="0"/>
-      <c r="DP27" s="0"/>
-      <c r="DQ27" s="0"/>
-      <c r="DR27" s="0"/>
-      <c r="DS27" s="0"/>
-      <c r="DT27" s="0"/>
-      <c r="DU27" s="0"/>
-      <c r="DV27" s="0"/>
-      <c r="DW27" s="0"/>
-      <c r="DX27" s="0"/>
-      <c r="DY27" s="0"/>
-      <c r="DZ27" s="0"/>
-      <c r="EA27" s="0"/>
-      <c r="EB27" s="0"/>
-      <c r="EC27" s="0"/>
-      <c r="ED27" s="0"/>
-      <c r="EE27" s="0"/>
-      <c r="EF27" s="0"/>
-      <c r="EG27" s="0"/>
-      <c r="EH27" s="0"/>
-      <c r="EI27" s="0"/>
-      <c r="EJ27" s="0"/>
-      <c r="EK27" s="0"/>
-      <c r="EL27" s="0"/>
-      <c r="EM27" s="0"/>
-      <c r="EN27" s="0"/>
-      <c r="EO27" s="0"/>
-      <c r="EP27" s="0"/>
-      <c r="EQ27" s="0"/>
-      <c r="ER27" s="0"/>
-      <c r="ES27" s="0"/>
-      <c r="ET27" s="0"/>
-      <c r="EU27" s="0"/>
-      <c r="EV27" s="0"/>
-      <c r="EW27" s="0"/>
-      <c r="EX27" s="0"/>
-      <c r="EY27" s="0"/>
-      <c r="EZ27" s="0"/>
-      <c r="FA27" s="0"/>
-      <c r="FB27" s="0"/>
-      <c r="FC27" s="0"/>
-      <c r="FD27" s="0"/>
-      <c r="FE27" s="0"/>
-      <c r="FF27" s="0"/>
-      <c r="FG27" s="0"/>
-      <c r="FH27" s="0"/>
-      <c r="FI27" s="0"/>
-      <c r="FJ27" s="0"/>
-      <c r="FK27" s="0"/>
-      <c r="FL27" s="0"/>
-      <c r="FM27" s="0"/>
-      <c r="FN27" s="0"/>
-      <c r="FO27" s="0"/>
-      <c r="FP27" s="0"/>
-      <c r="FQ27" s="0"/>
-      <c r="FR27" s="0"/>
-      <c r="FS27" s="0"/>
-      <c r="FT27" s="0"/>
-      <c r="FU27" s="0"/>
-      <c r="FV27" s="0"/>
-      <c r="FW27" s="0"/>
-      <c r="FX27" s="0"/>
-      <c r="FY27" s="0"/>
-      <c r="FZ27" s="0"/>
-      <c r="GA27" s="0"/>
-      <c r="GB27" s="0"/>
-      <c r="GC27" s="0"/>
-      <c r="GD27" s="0"/>
-      <c r="GE27" s="0"/>
-      <c r="GF27" s="0"/>
-      <c r="GG27" s="0"/>
-      <c r="GH27" s="0"/>
-      <c r="GI27" s="0"/>
-      <c r="GJ27" s="0"/>
-      <c r="GK27" s="0"/>
-      <c r="GL27" s="0"/>
-      <c r="GM27" s="0"/>
-      <c r="GN27" s="0"/>
-      <c r="GO27" s="0"/>
-      <c r="GP27" s="0"/>
-      <c r="GQ27" s="0"/>
-      <c r="GR27" s="0"/>
-      <c r="GS27" s="0"/>
-      <c r="GT27" s="0"/>
-      <c r="GU27" s="0"/>
-      <c r="GV27" s="0"/>
-      <c r="GW27" s="0"/>
-      <c r="GX27" s="0"/>
-      <c r="GY27" s="0"/>
-      <c r="GZ27" s="0"/>
-      <c r="HA27" s="0"/>
-      <c r="HB27" s="0"/>
-      <c r="HC27" s="0"/>
-      <c r="HD27" s="0"/>
-      <c r="HE27" s="0"/>
-      <c r="HF27" s="0"/>
-      <c r="HG27" s="0"/>
-      <c r="HH27" s="0"/>
-      <c r="HI27" s="0"/>
-      <c r="HJ27" s="0"/>
-      <c r="HK27" s="0"/>
-      <c r="HL27" s="0"/>
-      <c r="HM27" s="0"/>
-      <c r="HN27" s="0"/>
-      <c r="HO27" s="0"/>
-      <c r="HP27" s="0"/>
-      <c r="HQ27" s="0"/>
-      <c r="HR27" s="0"/>
-      <c r="HS27" s="0"/>
-      <c r="HT27" s="0"/>
-      <c r="HU27" s="0"/>
-      <c r="HV27" s="0"/>
-      <c r="HW27" s="0"/>
-      <c r="HX27" s="0"/>
-      <c r="HY27" s="0"/>
-      <c r="HZ27" s="0"/>
-      <c r="IA27" s="0"/>
-      <c r="IB27" s="0"/>
-      <c r="IC27" s="0"/>
-      <c r="ID27" s="0"/>
-      <c r="IE27" s="0"/>
-      <c r="IF27" s="0"/>
-      <c r="IG27" s="0"/>
-      <c r="IH27" s="0"/>
-      <c r="II27" s="0"/>
-      <c r="IJ27" s="0"/>
-      <c r="IK27" s="0"/>
-      <c r="IL27" s="0"/>
-      <c r="IM27" s="0"/>
-      <c r="IN27" s="0"/>
-      <c r="IO27" s="0"/>
-      <c r="IP27" s="0"/>
-      <c r="IQ27" s="0"/>
-      <c r="IR27" s="0"/>
-      <c r="IS27" s="0"/>
-      <c r="IT27" s="0"/>
-      <c r="IU27" s="0"/>
-      <c r="IV27" s="0"/>
-      <c r="IW27" s="0"/>
-      <c r="IX27" s="0"/>
-      <c r="IY27" s="0"/>
-      <c r="IZ27" s="0"/>
-      <c r="JA27" s="0"/>
-      <c r="JB27" s="0"/>
-      <c r="JC27" s="0"/>
-      <c r="JD27" s="0"/>
-      <c r="JE27" s="0"/>
-      <c r="JF27" s="0"/>
-      <c r="JG27" s="0"/>
-      <c r="JH27" s="0"/>
-      <c r="JI27" s="0"/>
-      <c r="JJ27" s="0"/>
-      <c r="JK27" s="0"/>
-      <c r="JL27" s="0"/>
-      <c r="JM27" s="0"/>
-      <c r="JN27" s="0"/>
-      <c r="JO27" s="0"/>
-      <c r="JP27" s="0"/>
-      <c r="JQ27" s="0"/>
-      <c r="JR27" s="0"/>
-      <c r="JS27" s="0"/>
-      <c r="JT27" s="0"/>
-      <c r="JU27" s="0"/>
-      <c r="JV27" s="0"/>
-      <c r="JW27" s="0"/>
-      <c r="JX27" s="0"/>
-      <c r="JY27" s="0"/>
-      <c r="JZ27" s="0"/>
-      <c r="KA27" s="0"/>
-      <c r="KB27" s="0"/>
-      <c r="KC27" s="0"/>
-      <c r="KD27" s="0"/>
-      <c r="KE27" s="0"/>
-      <c r="KF27" s="0"/>
-      <c r="KG27" s="0"/>
-      <c r="KH27" s="0"/>
-      <c r="KI27" s="0"/>
-      <c r="KJ27" s="0"/>
-      <c r="KK27" s="0"/>
-      <c r="KL27" s="0"/>
-      <c r="KM27" s="0"/>
-      <c r="KN27" s="0"/>
-      <c r="KO27" s="0"/>
-      <c r="KP27" s="0"/>
-      <c r="KQ27" s="0"/>
-      <c r="KR27" s="0"/>
-      <c r="KS27" s="0"/>
-      <c r="KT27" s="0"/>
-      <c r="KU27" s="0"/>
-      <c r="KV27" s="0"/>
-      <c r="KW27" s="0"/>
-      <c r="KX27" s="0"/>
-      <c r="KY27" s="0"/>
-      <c r="KZ27" s="0"/>
-      <c r="LA27" s="0"/>
-      <c r="LB27" s="0"/>
-      <c r="LC27" s="0"/>
-      <c r="LD27" s="0"/>
-      <c r="LE27" s="0"/>
-      <c r="LF27" s="0"/>
-      <c r="LG27" s="0"/>
-      <c r="LH27" s="0"/>
-      <c r="LI27" s="0"/>
-      <c r="LJ27" s="0"/>
-      <c r="LK27" s="0"/>
-      <c r="LL27" s="0"/>
-      <c r="LM27" s="0"/>
-      <c r="LN27" s="0"/>
-      <c r="LO27" s="0"/>
-      <c r="LP27" s="0"/>
-      <c r="LQ27" s="0"/>
-      <c r="LR27" s="0"/>
-      <c r="LS27" s="0"/>
-      <c r="LT27" s="0"/>
-      <c r="LU27" s="0"/>
-      <c r="LV27" s="0"/>
-      <c r="LW27" s="0"/>
-      <c r="LX27" s="0"/>
-      <c r="LY27" s="0"/>
-      <c r="LZ27" s="0"/>
-      <c r="MA27" s="0"/>
-      <c r="MB27" s="0"/>
-      <c r="MC27" s="0"/>
-      <c r="MD27" s="0"/>
-      <c r="ME27" s="0"/>
-      <c r="MF27" s="0"/>
-      <c r="MG27" s="0"/>
-      <c r="MH27" s="0"/>
-      <c r="MI27" s="0"/>
-      <c r="MJ27" s="0"/>
-      <c r="MK27" s="0"/>
-      <c r="ML27" s="0"/>
-      <c r="MM27" s="0"/>
-      <c r="MN27" s="0"/>
-      <c r="MO27" s="0"/>
-      <c r="MP27" s="0"/>
-      <c r="MQ27" s="0"/>
-      <c r="MR27" s="0"/>
-      <c r="MS27" s="0"/>
-      <c r="MT27" s="0"/>
-      <c r="MU27" s="0"/>
-      <c r="MV27" s="0"/>
-      <c r="MW27" s="0"/>
-      <c r="MX27" s="0"/>
-      <c r="MY27" s="0"/>
-      <c r="MZ27" s="0"/>
-      <c r="NA27" s="0"/>
-      <c r="NB27" s="0"/>
-      <c r="NC27" s="0"/>
-      <c r="ND27" s="0"/>
-      <c r="NE27" s="0"/>
-      <c r="NF27" s="0"/>
-      <c r="NG27" s="0"/>
-      <c r="NH27" s="0"/>
-      <c r="NI27" s="0"/>
-      <c r="NJ27" s="0"/>
-      <c r="NK27" s="0"/>
-      <c r="NL27" s="0"/>
-      <c r="NM27" s="0"/>
-      <c r="NN27" s="0"/>
-      <c r="NO27" s="0"/>
-      <c r="NP27" s="0"/>
-      <c r="NQ27" s="0"/>
-      <c r="NR27" s="0"/>
-      <c r="NS27" s="0"/>
-      <c r="NT27" s="0"/>
-      <c r="NU27" s="0"/>
-      <c r="NV27" s="0"/>
-      <c r="NW27" s="0"/>
-      <c r="NX27" s="0"/>
-      <c r="NY27" s="0"/>
-      <c r="NZ27" s="0"/>
-      <c r="OA27" s="0"/>
-      <c r="OB27" s="0"/>
-      <c r="OC27" s="0"/>
-      <c r="OD27" s="0"/>
-      <c r="OE27" s="0"/>
-      <c r="OF27" s="0"/>
-      <c r="OG27" s="0"/>
-      <c r="OH27" s="0"/>
-      <c r="OI27" s="0"/>
-      <c r="OJ27" s="0"/>
-      <c r="OK27" s="0"/>
-      <c r="OL27" s="0"/>
-      <c r="OM27" s="0"/>
-      <c r="ON27" s="0"/>
-      <c r="OO27" s="0"/>
-      <c r="OP27" s="0"/>
-      <c r="OQ27" s="0"/>
-      <c r="OR27" s="0"/>
-      <c r="OS27" s="0"/>
-      <c r="OT27" s="0"/>
-      <c r="OU27" s="0"/>
-      <c r="OV27" s="0"/>
-      <c r="OW27" s="0"/>
-      <c r="OX27" s="0"/>
-      <c r="OY27" s="0"/>
-      <c r="OZ27" s="0"/>
-      <c r="PA27" s="0"/>
-      <c r="PB27" s="0"/>
-      <c r="PC27" s="0"/>
-      <c r="PD27" s="0"/>
-      <c r="PE27" s="0"/>
-      <c r="PF27" s="0"/>
-      <c r="PG27" s="0"/>
-      <c r="PH27" s="0"/>
-      <c r="PI27" s="0"/>
-      <c r="PJ27" s="0"/>
-      <c r="PK27" s="0"/>
-      <c r="PL27" s="0"/>
-      <c r="PM27" s="0"/>
-      <c r="PN27" s="0"/>
-      <c r="PO27" s="0"/>
-      <c r="PP27" s="0"/>
-      <c r="PQ27" s="0"/>
-      <c r="PR27" s="0"/>
-      <c r="PS27" s="0"/>
-      <c r="PT27" s="0"/>
-      <c r="PU27" s="0"/>
-      <c r="PV27" s="0"/>
-      <c r="PW27" s="0"/>
-      <c r="PX27" s="0"/>
-      <c r="PY27" s="0"/>
-      <c r="PZ27" s="0"/>
-      <c r="QA27" s="0"/>
-      <c r="QB27" s="0"/>
-      <c r="QC27" s="0"/>
-      <c r="QD27" s="0"/>
-      <c r="QE27" s="0"/>
-      <c r="QF27" s="0"/>
-      <c r="QG27" s="0"/>
-      <c r="QH27" s="0"/>
-      <c r="QI27" s="0"/>
-      <c r="QJ27" s="0"/>
-      <c r="QK27" s="0"/>
-      <c r="QL27" s="0"/>
-      <c r="QM27" s="0"/>
-      <c r="QN27" s="0"/>
-      <c r="QO27" s="0"/>
-      <c r="QP27" s="0"/>
-      <c r="QQ27" s="0"/>
-      <c r="QR27" s="0"/>
-      <c r="QS27" s="0"/>
-      <c r="QT27" s="0"/>
-      <c r="QU27" s="0"/>
-      <c r="QV27" s="0"/>
-      <c r="QW27" s="0"/>
-      <c r="QX27" s="0"/>
-      <c r="QY27" s="0"/>
-      <c r="QZ27" s="0"/>
-      <c r="RA27" s="0"/>
-      <c r="RB27" s="0"/>
-      <c r="RC27" s="0"/>
-      <c r="RD27" s="0"/>
-      <c r="RE27" s="0"/>
-      <c r="RF27" s="0"/>
-      <c r="RG27" s="0"/>
-      <c r="RH27" s="0"/>
-      <c r="RI27" s="0"/>
-      <c r="RJ27" s="0"/>
-      <c r="RK27" s="0"/>
-      <c r="RL27" s="0"/>
-      <c r="RM27" s="0"/>
-      <c r="RN27" s="0"/>
-      <c r="RO27" s="0"/>
-      <c r="RP27" s="0"/>
-      <c r="RQ27" s="0"/>
-      <c r="RR27" s="0"/>
-      <c r="RS27" s="0"/>
-      <c r="RT27" s="0"/>
-      <c r="RU27" s="0"/>
-      <c r="RV27" s="0"/>
-      <c r="RW27" s="0"/>
-      <c r="RX27" s="0"/>
-      <c r="RY27" s="0"/>
-      <c r="RZ27" s="0"/>
-      <c r="SA27" s="0"/>
-      <c r="SB27" s="0"/>
-      <c r="SC27" s="0"/>
-      <c r="SD27" s="0"/>
-      <c r="SE27" s="0"/>
-      <c r="SF27" s="0"/>
-      <c r="SG27" s="0"/>
-      <c r="SH27" s="0"/>
-      <c r="SI27" s="0"/>
-      <c r="SJ27" s="0"/>
-      <c r="SK27" s="0"/>
-      <c r="SL27" s="0"/>
-      <c r="SM27" s="0"/>
-      <c r="SN27" s="0"/>
-      <c r="SO27" s="0"/>
-      <c r="SP27" s="0"/>
-      <c r="SQ27" s="0"/>
-      <c r="SR27" s="0"/>
-      <c r="SS27" s="0"/>
-      <c r="ST27" s="0"/>
-      <c r="SU27" s="0"/>
-      <c r="SV27" s="0"/>
-      <c r="SW27" s="0"/>
-      <c r="SX27" s="0"/>
-      <c r="SY27" s="0"/>
-      <c r="SZ27" s="0"/>
-      <c r="TA27" s="0"/>
-      <c r="TB27" s="0"/>
-      <c r="TC27" s="0"/>
-      <c r="TD27" s="0"/>
-      <c r="TE27" s="0"/>
-      <c r="TF27" s="0"/>
-      <c r="TG27" s="0"/>
-      <c r="TH27" s="0"/>
-      <c r="TI27" s="0"/>
-      <c r="TJ27" s="0"/>
-      <c r="TK27" s="0"/>
-      <c r="TL27" s="0"/>
-      <c r="TM27" s="0"/>
-      <c r="TN27" s="0"/>
-      <c r="TO27" s="0"/>
-      <c r="TP27" s="0"/>
-      <c r="TQ27" s="0"/>
-      <c r="TR27" s="0"/>
-      <c r="TS27" s="0"/>
-      <c r="TT27" s="0"/>
-      <c r="TU27" s="0"/>
-      <c r="TV27" s="0"/>
-      <c r="TW27" s="0"/>
-      <c r="TX27" s="0"/>
-      <c r="TY27" s="0"/>
-      <c r="TZ27" s="0"/>
-      <c r="UA27" s="0"/>
-      <c r="UB27" s="0"/>
-      <c r="UC27" s="0"/>
-      <c r="UD27" s="0"/>
-      <c r="UE27" s="0"/>
-      <c r="UF27" s="0"/>
-      <c r="UG27" s="0"/>
-      <c r="UH27" s="0"/>
-      <c r="UI27" s="0"/>
-      <c r="UJ27" s="0"/>
-      <c r="UK27" s="0"/>
-      <c r="UL27" s="0"/>
-      <c r="UM27" s="0"/>
-      <c r="UN27" s="0"/>
-      <c r="UO27" s="0"/>
-      <c r="UP27" s="0"/>
-      <c r="UQ27" s="0"/>
-      <c r="UR27" s="0"/>
-      <c r="US27" s="0"/>
-      <c r="UT27" s="0"/>
-      <c r="UU27" s="0"/>
-      <c r="UV27" s="0"/>
-      <c r="UW27" s="0"/>
-      <c r="UX27" s="0"/>
-      <c r="UY27" s="0"/>
-      <c r="UZ27" s="0"/>
-      <c r="VA27" s="0"/>
-      <c r="VB27" s="0"/>
-      <c r="VC27" s="0"/>
-      <c r="VD27" s="0"/>
-      <c r="VE27" s="0"/>
-      <c r="VF27" s="0"/>
-      <c r="VG27" s="0"/>
-      <c r="VH27" s="0"/>
-      <c r="VI27" s="0"/>
-      <c r="VJ27" s="0"/>
-      <c r="VK27" s="0"/>
-      <c r="VL27" s="0"/>
-      <c r="VM27" s="0"/>
-      <c r="VN27" s="0"/>
-      <c r="VO27" s="0"/>
-      <c r="VP27" s="0"/>
-      <c r="VQ27" s="0"/>
-      <c r="VR27" s="0"/>
-      <c r="VS27" s="0"/>
-      <c r="VT27" s="0"/>
-      <c r="VU27" s="0"/>
-      <c r="VV27" s="0"/>
-      <c r="VW27" s="0"/>
-      <c r="VX27" s="0"/>
-      <c r="VY27" s="0"/>
-      <c r="VZ27" s="0"/>
-      <c r="WA27" s="0"/>
-      <c r="WB27" s="0"/>
-      <c r="WC27" s="0"/>
-      <c r="WD27" s="0"/>
-      <c r="WE27" s="0"/>
-      <c r="WF27" s="0"/>
-      <c r="WG27" s="0"/>
-      <c r="WH27" s="0"/>
-      <c r="WI27" s="0"/>
-      <c r="WJ27" s="0"/>
-      <c r="WK27" s="0"/>
-      <c r="WL27" s="0"/>
-      <c r="WM27" s="0"/>
-      <c r="WN27" s="0"/>
-      <c r="WO27" s="0"/>
-      <c r="WP27" s="0"/>
-      <c r="WQ27" s="0"/>
-      <c r="WR27" s="0"/>
-      <c r="WS27" s="0"/>
-      <c r="WT27" s="0"/>
-      <c r="WU27" s="0"/>
-      <c r="WV27" s="0"/>
-      <c r="WW27" s="0"/>
-      <c r="WX27" s="0"/>
-      <c r="WY27" s="0"/>
-      <c r="WZ27" s="0"/>
-      <c r="XA27" s="0"/>
-      <c r="XB27" s="0"/>
-      <c r="XC27" s="0"/>
-      <c r="XD27" s="0"/>
-      <c r="XE27" s="0"/>
-      <c r="XF27" s="0"/>
-      <c r="XG27" s="0"/>
-      <c r="XH27" s="0"/>
-      <c r="XI27" s="0"/>
-      <c r="XJ27" s="0"/>
-      <c r="XK27" s="0"/>
-      <c r="XL27" s="0"/>
-      <c r="XM27" s="0"/>
-      <c r="XN27" s="0"/>
-      <c r="XO27" s="0"/>
-      <c r="XP27" s="0"/>
-      <c r="XQ27" s="0"/>
-      <c r="XR27" s="0"/>
-      <c r="XS27" s="0"/>
-      <c r="XT27" s="0"/>
-      <c r="XU27" s="0"/>
-      <c r="XV27" s="0"/>
-      <c r="XW27" s="0"/>
-      <c r="XX27" s="0"/>
-      <c r="XY27" s="0"/>
-      <c r="XZ27" s="0"/>
-      <c r="YA27" s="0"/>
-      <c r="YB27" s="0"/>
-      <c r="YC27" s="0"/>
-      <c r="YD27" s="0"/>
-      <c r="YE27" s="0"/>
-      <c r="YF27" s="0"/>
-      <c r="YG27" s="0"/>
-      <c r="YH27" s="0"/>
-      <c r="YI27" s="0"/>
-      <c r="YJ27" s="0"/>
-      <c r="YK27" s="0"/>
-      <c r="YL27" s="0"/>
-      <c r="YM27" s="0"/>
-      <c r="YN27" s="0"/>
-      <c r="YO27" s="0"/>
-      <c r="YP27" s="0"/>
-      <c r="YQ27" s="0"/>
-      <c r="YR27" s="0"/>
-      <c r="YS27" s="0"/>
-      <c r="YT27" s="0"/>
-      <c r="YU27" s="0"/>
-      <c r="YV27" s="0"/>
-      <c r="YW27" s="0"/>
-      <c r="YX27" s="0"/>
-      <c r="YY27" s="0"/>
-      <c r="YZ27" s="0"/>
-      <c r="ZA27" s="0"/>
-      <c r="ZB27" s="0"/>
-      <c r="ZC27" s="0"/>
-      <c r="ZD27" s="0"/>
-      <c r="ZE27" s="0"/>
-      <c r="ZF27" s="0"/>
-      <c r="ZG27" s="0"/>
-      <c r="ZH27" s="0"/>
-      <c r="ZI27" s="0"/>
-      <c r="ZJ27" s="0"/>
-      <c r="ZK27" s="0"/>
-      <c r="ZL27" s="0"/>
-      <c r="ZM27" s="0"/>
-      <c r="ZN27" s="0"/>
-      <c r="ZO27" s="0"/>
-      <c r="ZP27" s="0"/>
-      <c r="ZQ27" s="0"/>
-      <c r="ZR27" s="0"/>
-      <c r="ZS27" s="0"/>
-      <c r="ZT27" s="0"/>
-      <c r="ZU27" s="0"/>
-      <c r="ZV27" s="0"/>
-      <c r="ZW27" s="0"/>
-      <c r="ZX27" s="0"/>
-      <c r="ZY27" s="0"/>
-      <c r="ZZ27" s="0"/>
-      <c r="AAA27" s="0"/>
-      <c r="AAB27" s="0"/>
-      <c r="AAC27" s="0"/>
-      <c r="AAD27" s="0"/>
-      <c r="AAE27" s="0"/>
-      <c r="AAF27" s="0"/>
-      <c r="AAG27" s="0"/>
-      <c r="AAH27" s="0"/>
-      <c r="AAI27" s="0"/>
-      <c r="AAJ27" s="0"/>
-      <c r="AAK27" s="0"/>
-      <c r="AAL27" s="0"/>
-      <c r="AAM27" s="0"/>
-      <c r="AAN27" s="0"/>
-      <c r="AAO27" s="0"/>
-      <c r="AAP27" s="0"/>
-      <c r="AAQ27" s="0"/>
-      <c r="AAR27" s="0"/>
-      <c r="AAS27" s="0"/>
-      <c r="AAT27" s="0"/>
-      <c r="AAU27" s="0"/>
-      <c r="AAV27" s="0"/>
-      <c r="AAW27" s="0"/>
-      <c r="AAX27" s="0"/>
-      <c r="AAY27" s="0"/>
-      <c r="AAZ27" s="0"/>
-      <c r="ABA27" s="0"/>
-      <c r="ABB27" s="0"/>
-      <c r="ABC27" s="0"/>
-      <c r="ABD27" s="0"/>
-      <c r="ABE27" s="0"/>
-      <c r="ABF27" s="0"/>
-      <c r="ABG27" s="0"/>
-      <c r="ABH27" s="0"/>
-      <c r="ABI27" s="0"/>
-      <c r="ABJ27" s="0"/>
-      <c r="ABK27" s="0"/>
-      <c r="ABL27" s="0"/>
-      <c r="ABM27" s="0"/>
-      <c r="ABN27" s="0"/>
-      <c r="ABO27" s="0"/>
-      <c r="ABP27" s="0"/>
-      <c r="ABQ27" s="0"/>
-      <c r="ABR27" s="0"/>
-      <c r="ABS27" s="0"/>
-      <c r="ABT27" s="0"/>
-      <c r="ABU27" s="0"/>
-      <c r="ABV27" s="0"/>
-      <c r="ABW27" s="0"/>
-      <c r="ABX27" s="0"/>
-      <c r="ABY27" s="0"/>
-      <c r="ABZ27" s="0"/>
-      <c r="ACA27" s="0"/>
-      <c r="ACB27" s="0"/>
-      <c r="ACC27" s="0"/>
-      <c r="ACD27" s="0"/>
-      <c r="ACE27" s="0"/>
-      <c r="ACF27" s="0"/>
-      <c r="ACG27" s="0"/>
-      <c r="ACH27" s="0"/>
-      <c r="ACI27" s="0"/>
-      <c r="ACJ27" s="0"/>
-      <c r="ACK27" s="0"/>
-      <c r="ACL27" s="0"/>
-      <c r="ACM27" s="0"/>
-      <c r="ACN27" s="0"/>
-      <c r="ACO27" s="0"/>
-      <c r="ACP27" s="0"/>
-      <c r="ACQ27" s="0"/>
-      <c r="ACR27" s="0"/>
-      <c r="ACS27" s="0"/>
-      <c r="ACT27" s="0"/>
-      <c r="ACU27" s="0"/>
-      <c r="ACV27" s="0"/>
-      <c r="ACW27" s="0"/>
-      <c r="ACX27" s="0"/>
-      <c r="ACY27" s="0"/>
-      <c r="ACZ27" s="0"/>
-      <c r="ADA27" s="0"/>
-      <c r="ADB27" s="0"/>
-      <c r="ADC27" s="0"/>
-      <c r="ADD27" s="0"/>
-      <c r="ADE27" s="0"/>
-      <c r="ADF27" s="0"/>
-      <c r="ADG27" s="0"/>
-      <c r="ADH27" s="0"/>
-      <c r="ADI27" s="0"/>
-      <c r="ADJ27" s="0"/>
-      <c r="ADK27" s="0"/>
-      <c r="ADL27" s="0"/>
-      <c r="ADM27" s="0"/>
-      <c r="ADN27" s="0"/>
-      <c r="ADO27" s="0"/>
-      <c r="ADP27" s="0"/>
-      <c r="ADQ27" s="0"/>
-      <c r="ADR27" s="0"/>
-      <c r="ADS27" s="0"/>
-      <c r="ADT27" s="0"/>
-      <c r="ADU27" s="0"/>
-      <c r="ADV27" s="0"/>
-      <c r="ADW27" s="0"/>
-      <c r="ADX27" s="0"/>
-      <c r="ADY27" s="0"/>
-      <c r="ADZ27" s="0"/>
-      <c r="AEA27" s="0"/>
-      <c r="AEB27" s="0"/>
-      <c r="AEC27" s="0"/>
-      <c r="AED27" s="0"/>
-      <c r="AEE27" s="0"/>
-      <c r="AEF27" s="0"/>
-      <c r="AEG27" s="0"/>
-      <c r="AEH27" s="0"/>
-      <c r="AEI27" s="0"/>
-      <c r="AEJ27" s="0"/>
-      <c r="AEK27" s="0"/>
-      <c r="AEL27" s="0"/>
-      <c r="AEM27" s="0"/>
-      <c r="AEN27" s="0"/>
-      <c r="AEO27" s="0"/>
-      <c r="AEP27" s="0"/>
-      <c r="AEQ27" s="0"/>
-      <c r="AER27" s="0"/>
-      <c r="AES27" s="0"/>
-      <c r="AET27" s="0"/>
-      <c r="AEU27" s="0"/>
-      <c r="AEV27" s="0"/>
-      <c r="AEW27" s="0"/>
-      <c r="AEX27" s="0"/>
-      <c r="AEY27" s="0"/>
-      <c r="AEZ27" s="0"/>
-      <c r="AFA27" s="0"/>
-      <c r="AFB27" s="0"/>
-      <c r="AFC27" s="0"/>
-      <c r="AFD27" s="0"/>
-      <c r="AFE27" s="0"/>
-      <c r="AFF27" s="0"/>
-      <c r="AFG27" s="0"/>
-      <c r="AFH27" s="0"/>
-      <c r="AFI27" s="0"/>
-      <c r="AFJ27" s="0"/>
-      <c r="AFK27" s="0"/>
-      <c r="AFL27" s="0"/>
-      <c r="AFM27" s="0"/>
-      <c r="AFN27" s="0"/>
-      <c r="AFO27" s="0"/>
-      <c r="AFP27" s="0"/>
-      <c r="AFQ27" s="0"/>
-      <c r="AFR27" s="0"/>
-      <c r="AFS27" s="0"/>
-      <c r="AFT27" s="0"/>
-      <c r="AFU27" s="0"/>
-      <c r="AFV27" s="0"/>
-      <c r="AFW27" s="0"/>
-      <c r="AFX27" s="0"/>
-      <c r="AFY27" s="0"/>
-      <c r="AFZ27" s="0"/>
-      <c r="AGA27" s="0"/>
-      <c r="AGB27" s="0"/>
-      <c r="AGC27" s="0"/>
-      <c r="AGD27" s="0"/>
-      <c r="AGE27" s="0"/>
-      <c r="AGF27" s="0"/>
-      <c r="AGG27" s="0"/>
-      <c r="AGH27" s="0"/>
-      <c r="AGI27" s="0"/>
-      <c r="AGJ27" s="0"/>
-      <c r="AGK27" s="0"/>
-      <c r="AGL27" s="0"/>
-      <c r="AGM27" s="0"/>
-      <c r="AGN27" s="0"/>
-      <c r="AGO27" s="0"/>
-      <c r="AGP27" s="0"/>
-      <c r="AGQ27" s="0"/>
-      <c r="AGR27" s="0"/>
-      <c r="AGS27" s="0"/>
-      <c r="AGT27" s="0"/>
-      <c r="AGU27" s="0"/>
-      <c r="AGV27" s="0"/>
-      <c r="AGW27" s="0"/>
-      <c r="AGX27" s="0"/>
-      <c r="AGY27" s="0"/>
-      <c r="AGZ27" s="0"/>
-      <c r="AHA27" s="0"/>
-      <c r="AHB27" s="0"/>
-      <c r="AHC27" s="0"/>
-      <c r="AHD27" s="0"/>
-      <c r="AHE27" s="0"/>
-      <c r="AHF27" s="0"/>
-      <c r="AHG27" s="0"/>
-      <c r="AHH27" s="0"/>
-      <c r="AHI27" s="0"/>
-      <c r="AHJ27" s="0"/>
-      <c r="AHK27" s="0"/>
-      <c r="AHL27" s="0"/>
-      <c r="AHM27" s="0"/>
-      <c r="AHN27" s="0"/>
-      <c r="AHO27" s="0"/>
-      <c r="AHP27" s="0"/>
-      <c r="AHQ27" s="0"/>
-      <c r="AHR27" s="0"/>
-      <c r="AHS27" s="0"/>
-      <c r="AHT27" s="0"/>
-      <c r="AHU27" s="0"/>
-      <c r="AHV27" s="0"/>
-      <c r="AHW27" s="0"/>
-      <c r="AHX27" s="0"/>
-      <c r="AHY27" s="0"/>
-      <c r="AHZ27" s="0"/>
-      <c r="AIA27" s="0"/>
-      <c r="AIB27" s="0"/>
-      <c r="AIC27" s="0"/>
-      <c r="AID27" s="0"/>
-      <c r="AIE27" s="0"/>
-      <c r="AIF27" s="0"/>
-      <c r="AIG27" s="0"/>
-      <c r="AIH27" s="0"/>
-      <c r="AII27" s="0"/>
-      <c r="AIJ27" s="0"/>
-      <c r="AIK27" s="0"/>
-      <c r="AIL27" s="0"/>
-      <c r="AIM27" s="0"/>
-      <c r="AIN27" s="0"/>
-      <c r="AIO27" s="0"/>
-      <c r="AIP27" s="0"/>
-      <c r="AIQ27" s="0"/>
-      <c r="AIR27" s="0"/>
-      <c r="AIS27" s="0"/>
-      <c r="AIT27" s="0"/>
-      <c r="AIU27" s="0"/>
-      <c r="AIV27" s="0"/>
-      <c r="AIW27" s="0"/>
-      <c r="AIX27" s="0"/>
-      <c r="AIY27" s="0"/>
-      <c r="AIZ27" s="0"/>
-      <c r="AJA27" s="0"/>
-      <c r="AJB27" s="0"/>
-      <c r="AJC27" s="0"/>
-      <c r="AJD27" s="0"/>
-      <c r="AJE27" s="0"/>
-      <c r="AJF27" s="0"/>
-      <c r="AJG27" s="0"/>
-      <c r="AJH27" s="0"/>
-      <c r="AJI27" s="0"/>
-      <c r="AJJ27" s="0"/>
-      <c r="AJK27" s="0"/>
-      <c r="AJL27" s="0"/>
-      <c r="AJM27" s="0"/>
-      <c r="AJN27" s="0"/>
-      <c r="AJO27" s="0"/>
-      <c r="AJP27" s="0"/>
-      <c r="AJQ27" s="0"/>
-      <c r="AJR27" s="0"/>
-      <c r="AJS27" s="0"/>
-      <c r="AJT27" s="0"/>
-      <c r="AJU27" s="0"/>
-      <c r="AJV27" s="0"/>
-      <c r="AJW27" s="0"/>
-      <c r="AJX27" s="0"/>
-      <c r="AJY27" s="0"/>
-      <c r="AJZ27" s="0"/>
-      <c r="AKA27" s="0"/>
-      <c r="AKB27" s="0"/>
-      <c r="AKC27" s="0"/>
-      <c r="AKD27" s="0"/>
-      <c r="AKE27" s="0"/>
-      <c r="AKF27" s="0"/>
-      <c r="AKG27" s="0"/>
-      <c r="AKH27" s="0"/>
-      <c r="AKI27" s="0"/>
-      <c r="AKJ27" s="0"/>
-      <c r="AKK27" s="0"/>
-      <c r="AKL27" s="0"/>
-      <c r="AKM27" s="0"/>
-      <c r="AKN27" s="0"/>
-      <c r="AKO27" s="0"/>
-      <c r="AKP27" s="0"/>
-      <c r="AKQ27" s="0"/>
-      <c r="AKR27" s="0"/>
-      <c r="AKS27" s="0"/>
-      <c r="AKT27" s="0"/>
-      <c r="AKU27" s="0"/>
-      <c r="AKV27" s="0"/>
-      <c r="AKW27" s="0"/>
-      <c r="AKX27" s="0"/>
-      <c r="AKY27" s="0"/>
-      <c r="AKZ27" s="0"/>
-      <c r="ALA27" s="0"/>
-      <c r="ALB27" s="0"/>
-      <c r="ALC27" s="0"/>
-      <c r="ALD27" s="0"/>
-      <c r="ALE27" s="0"/>
-      <c r="ALF27" s="0"/>
-      <c r="ALG27" s="0"/>
-      <c r="ALH27" s="0"/>
-      <c r="ALI27" s="0"/>
-      <c r="ALJ27" s="0"/>
-      <c r="ALK27" s="0"/>
-      <c r="ALL27" s="0"/>
-      <c r="ALM27" s="0"/>
-      <c r="ALN27" s="0"/>
-      <c r="ALO27" s="0"/>
-      <c r="ALP27" s="0"/>
-      <c r="ALQ27" s="0"/>
-      <c r="ALR27" s="0"/>
-      <c r="ALS27" s="0"/>
-      <c r="ALT27" s="0"/>
-      <c r="ALU27" s="0"/>
-      <c r="ALV27" s="0"/>
-      <c r="ALW27" s="0"/>
-      <c r="ALX27" s="0"/>
-      <c r="ALY27" s="0"/>
-      <c r="ALZ27" s="0"/>
-      <c r="AMA27" s="0"/>
-      <c r="AMB27" s="0"/>
-      <c r="AMC27" s="0"/>
-      <c r="AMD27" s="0"/>
-      <c r="AME27" s="0"/>
-      <c r="AMF27" s="0"/>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="B27" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="0"/>
+      <c r="D28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
+      <c r="AE28" s="0"/>
+      <c r="AF28" s="0"/>
+      <c r="AG28" s="0"/>
+      <c r="AH28" s="0"/>
+      <c r="AI28" s="0"/>
+      <c r="AJ28" s="0"/>
+      <c r="AK28" s="0"/>
+      <c r="AL28" s="0"/>
+      <c r="AM28" s="0"/>
+      <c r="AN28" s="0"/>
+      <c r="AO28" s="0"/>
+      <c r="AP28" s="0"/>
+      <c r="AQ28" s="0"/>
+      <c r="AR28" s="0"/>
+      <c r="AS28" s="0"/>
+      <c r="AT28" s="0"/>
+      <c r="AU28" s="0"/>
+      <c r="AV28" s="0"/>
+      <c r="AW28" s="0"/>
+      <c r="AX28" s="0"/>
+      <c r="AY28" s="0"/>
+      <c r="AZ28" s="0"/>
+      <c r="BA28" s="0"/>
+      <c r="BB28" s="0"/>
+      <c r="BC28" s="0"/>
+      <c r="BD28" s="0"/>
+      <c r="BE28" s="0"/>
+      <c r="BF28" s="0"/>
+      <c r="BG28" s="0"/>
+      <c r="BH28" s="0"/>
+      <c r="BI28" s="0"/>
+      <c r="BJ28" s="0"/>
+      <c r="BK28" s="0"/>
+      <c r="BL28" s="0"/>
+      <c r="BM28" s="0"/>
+      <c r="BN28" s="0"/>
+      <c r="BO28" s="0"/>
+      <c r="BP28" s="0"/>
+      <c r="BQ28" s="0"/>
+      <c r="BR28" s="0"/>
+      <c r="BS28" s="0"/>
+      <c r="BT28" s="0"/>
+      <c r="BU28" s="0"/>
+      <c r="BV28" s="0"/>
+      <c r="BW28" s="0"/>
+      <c r="BX28" s="0"/>
+      <c r="BY28" s="0"/>
+      <c r="BZ28" s="0"/>
+      <c r="CA28" s="0"/>
+      <c r="CB28" s="0"/>
+      <c r="CC28" s="0"/>
+      <c r="CD28" s="0"/>
+      <c r="CE28" s="0"/>
+      <c r="CF28" s="0"/>
+      <c r="CG28" s="0"/>
+      <c r="CH28" s="0"/>
+      <c r="CI28" s="0"/>
+      <c r="CJ28" s="0"/>
+      <c r="CK28" s="0"/>
+      <c r="CL28" s="0"/>
+      <c r="CM28" s="0"/>
+      <c r="CN28" s="0"/>
+      <c r="CO28" s="0"/>
+      <c r="CP28" s="0"/>
+      <c r="CQ28" s="0"/>
+      <c r="CR28" s="0"/>
+      <c r="CS28" s="0"/>
+      <c r="CT28" s="0"/>
+      <c r="CU28" s="0"/>
+      <c r="CV28" s="0"/>
+      <c r="CW28" s="0"/>
+      <c r="CX28" s="0"/>
+      <c r="CY28" s="0"/>
+      <c r="CZ28" s="0"/>
+      <c r="DA28" s="0"/>
+      <c r="DB28" s="0"/>
+      <c r="DC28" s="0"/>
+      <c r="DD28" s="0"/>
+      <c r="DE28" s="0"/>
+      <c r="DF28" s="0"/>
+      <c r="DG28" s="0"/>
+      <c r="DH28" s="0"/>
+      <c r="DI28" s="0"/>
+      <c r="DJ28" s="0"/>
+      <c r="DK28" s="0"/>
+      <c r="DL28" s="0"/>
+      <c r="DM28" s="0"/>
+      <c r="DN28" s="0"/>
+      <c r="DO28" s="0"/>
+      <c r="DP28" s="0"/>
+      <c r="DQ28" s="0"/>
+      <c r="DR28" s="0"/>
+      <c r="DS28" s="0"/>
+      <c r="DT28" s="0"/>
+      <c r="DU28" s="0"/>
+      <c r="DV28" s="0"/>
+      <c r="DW28" s="0"/>
+      <c r="DX28" s="0"/>
+      <c r="DY28" s="0"/>
+      <c r="DZ28" s="0"/>
+      <c r="EA28" s="0"/>
+      <c r="EB28" s="0"/>
+      <c r="EC28" s="0"/>
+      <c r="ED28" s="0"/>
+      <c r="EE28" s="0"/>
+      <c r="EF28" s="0"/>
+      <c r="EG28" s="0"/>
+      <c r="EH28" s="0"/>
+      <c r="EI28" s="0"/>
+      <c r="EJ28" s="0"/>
+      <c r="EK28" s="0"/>
+      <c r="EL28" s="0"/>
+      <c r="EM28" s="0"/>
+      <c r="EN28" s="0"/>
+      <c r="EO28" s="0"/>
+      <c r="EP28" s="0"/>
+      <c r="EQ28" s="0"/>
+      <c r="ER28" s="0"/>
+      <c r="ES28" s="0"/>
+      <c r="ET28" s="0"/>
+      <c r="EU28" s="0"/>
+      <c r="EV28" s="0"/>
+      <c r="EW28" s="0"/>
+      <c r="EX28" s="0"/>
+      <c r="EY28" s="0"/>
+      <c r="EZ28" s="0"/>
+      <c r="FA28" s="0"/>
+      <c r="FB28" s="0"/>
+      <c r="FC28" s="0"/>
+      <c r="FD28" s="0"/>
+      <c r="FE28" s="0"/>
+      <c r="FF28" s="0"/>
+      <c r="FG28" s="0"/>
+      <c r="FH28" s="0"/>
+      <c r="FI28" s="0"/>
+      <c r="FJ28" s="0"/>
+      <c r="FK28" s="0"/>
+      <c r="FL28" s="0"/>
+      <c r="FM28" s="0"/>
+      <c r="FN28" s="0"/>
+      <c r="FO28" s="0"/>
+      <c r="FP28" s="0"/>
+      <c r="FQ28" s="0"/>
+      <c r="FR28" s="0"/>
+      <c r="FS28" s="0"/>
+      <c r="FT28" s="0"/>
+      <c r="FU28" s="0"/>
+      <c r="FV28" s="0"/>
+      <c r="FW28" s="0"/>
+      <c r="FX28" s="0"/>
+      <c r="FY28" s="0"/>
+      <c r="FZ28" s="0"/>
+      <c r="GA28" s="0"/>
+      <c r="GB28" s="0"/>
+      <c r="GC28" s="0"/>
+      <c r="GD28" s="0"/>
+      <c r="GE28" s="0"/>
+      <c r="GF28" s="0"/>
+      <c r="GG28" s="0"/>
+      <c r="GH28" s="0"/>
+      <c r="GI28" s="0"/>
+      <c r="GJ28" s="0"/>
+      <c r="GK28" s="0"/>
+      <c r="GL28" s="0"/>
+      <c r="GM28" s="0"/>
+      <c r="GN28" s="0"/>
+      <c r="GO28" s="0"/>
+      <c r="GP28" s="0"/>
+      <c r="GQ28" s="0"/>
+      <c r="GR28" s="0"/>
+      <c r="GS28" s="0"/>
+      <c r="GT28" s="0"/>
+      <c r="GU28" s="0"/>
+      <c r="GV28" s="0"/>
+      <c r="GW28" s="0"/>
+      <c r="GX28" s="0"/>
+      <c r="GY28" s="0"/>
+      <c r="GZ28" s="0"/>
+      <c r="HA28" s="0"/>
+      <c r="HB28" s="0"/>
+      <c r="HC28" s="0"/>
+      <c r="HD28" s="0"/>
+      <c r="HE28" s="0"/>
+      <c r="HF28" s="0"/>
+      <c r="HG28" s="0"/>
+      <c r="HH28" s="0"/>
+      <c r="HI28" s="0"/>
+      <c r="HJ28" s="0"/>
+      <c r="HK28" s="0"/>
+      <c r="HL28" s="0"/>
+      <c r="HM28" s="0"/>
+      <c r="HN28" s="0"/>
+      <c r="HO28" s="0"/>
+      <c r="HP28" s="0"/>
+      <c r="HQ28" s="0"/>
+      <c r="HR28" s="0"/>
+      <c r="HS28" s="0"/>
+      <c r="HT28" s="0"/>
+      <c r="HU28" s="0"/>
+      <c r="HV28" s="0"/>
+      <c r="HW28" s="0"/>
+      <c r="HX28" s="0"/>
+      <c r="HY28" s="0"/>
+      <c r="HZ28" s="0"/>
+      <c r="IA28" s="0"/>
+      <c r="IB28" s="0"/>
+      <c r="IC28" s="0"/>
+      <c r="ID28" s="0"/>
+      <c r="IE28" s="0"/>
+      <c r="IF28" s="0"/>
+      <c r="IG28" s="0"/>
+      <c r="IH28" s="0"/>
+      <c r="II28" s="0"/>
+      <c r="IJ28" s="0"/>
+      <c r="IK28" s="0"/>
+      <c r="IL28" s="0"/>
+      <c r="IM28" s="0"/>
+      <c r="IN28" s="0"/>
+      <c r="IO28" s="0"/>
+      <c r="IP28" s="0"/>
+      <c r="IQ28" s="0"/>
+      <c r="IR28" s="0"/>
+      <c r="IS28" s="0"/>
+      <c r="IT28" s="0"/>
+      <c r="IU28" s="0"/>
+      <c r="IV28" s="0"/>
+      <c r="IW28" s="0"/>
+      <c r="IX28" s="0"/>
+      <c r="IY28" s="0"/>
+      <c r="IZ28" s="0"/>
+      <c r="JA28" s="0"/>
+      <c r="JB28" s="0"/>
+      <c r="JC28" s="0"/>
+      <c r="JD28" s="0"/>
+      <c r="JE28" s="0"/>
+      <c r="JF28" s="0"/>
+      <c r="JG28" s="0"/>
+      <c r="JH28" s="0"/>
+      <c r="JI28" s="0"/>
+      <c r="JJ28" s="0"/>
+      <c r="JK28" s="0"/>
+      <c r="JL28" s="0"/>
+      <c r="JM28" s="0"/>
+      <c r="JN28" s="0"/>
+      <c r="JO28" s="0"/>
+      <c r="JP28" s="0"/>
+      <c r="JQ28" s="0"/>
+      <c r="JR28" s="0"/>
+      <c r="JS28" s="0"/>
+      <c r="JT28" s="0"/>
+      <c r="JU28" s="0"/>
+      <c r="JV28" s="0"/>
+      <c r="JW28" s="0"/>
+      <c r="JX28" s="0"/>
+      <c r="JY28" s="0"/>
+      <c r="JZ28" s="0"/>
+      <c r="KA28" s="0"/>
+      <c r="KB28" s="0"/>
+      <c r="KC28" s="0"/>
+      <c r="KD28" s="0"/>
+      <c r="KE28" s="0"/>
+      <c r="KF28" s="0"/>
+      <c r="KG28" s="0"/>
+      <c r="KH28" s="0"/>
+      <c r="KI28" s="0"/>
+      <c r="KJ28" s="0"/>
+      <c r="KK28" s="0"/>
+      <c r="KL28" s="0"/>
+      <c r="KM28" s="0"/>
+      <c r="KN28" s="0"/>
+      <c r="KO28" s="0"/>
+      <c r="KP28" s="0"/>
+      <c r="KQ28" s="0"/>
+      <c r="KR28" s="0"/>
+      <c r="KS28" s="0"/>
+      <c r="KT28" s="0"/>
+      <c r="KU28" s="0"/>
+      <c r="KV28" s="0"/>
+      <c r="KW28" s="0"/>
+      <c r="KX28" s="0"/>
+      <c r="KY28" s="0"/>
+      <c r="KZ28" s="0"/>
+      <c r="LA28" s="0"/>
+      <c r="LB28" s="0"/>
+      <c r="LC28" s="0"/>
+      <c r="LD28" s="0"/>
+      <c r="LE28" s="0"/>
+      <c r="LF28" s="0"/>
+      <c r="LG28" s="0"/>
+      <c r="LH28" s="0"/>
+      <c r="LI28" s="0"/>
+      <c r="LJ28" s="0"/>
+      <c r="LK28" s="0"/>
+      <c r="LL28" s="0"/>
+      <c r="LM28" s="0"/>
+      <c r="LN28" s="0"/>
+      <c r="LO28" s="0"/>
+      <c r="LP28" s="0"/>
+      <c r="LQ28" s="0"/>
+      <c r="LR28" s="0"/>
+      <c r="LS28" s="0"/>
+      <c r="LT28" s="0"/>
+      <c r="LU28" s="0"/>
+      <c r="LV28" s="0"/>
+      <c r="LW28" s="0"/>
+      <c r="LX28" s="0"/>
+      <c r="LY28" s="0"/>
+      <c r="LZ28" s="0"/>
+      <c r="MA28" s="0"/>
+      <c r="MB28" s="0"/>
+      <c r="MC28" s="0"/>
+      <c r="MD28" s="0"/>
+      <c r="ME28" s="0"/>
+      <c r="MF28" s="0"/>
+      <c r="MG28" s="0"/>
+      <c r="MH28" s="0"/>
+      <c r="MI28" s="0"/>
+      <c r="MJ28" s="0"/>
+      <c r="MK28" s="0"/>
+      <c r="ML28" s="0"/>
+      <c r="MM28" s="0"/>
+      <c r="MN28" s="0"/>
+      <c r="MO28" s="0"/>
+      <c r="MP28" s="0"/>
+      <c r="MQ28" s="0"/>
+      <c r="MR28" s="0"/>
+      <c r="MS28" s="0"/>
+      <c r="MT28" s="0"/>
+      <c r="MU28" s="0"/>
+      <c r="MV28" s="0"/>
+      <c r="MW28" s="0"/>
+      <c r="MX28" s="0"/>
+      <c r="MY28" s="0"/>
+      <c r="MZ28" s="0"/>
+      <c r="NA28" s="0"/>
+      <c r="NB28" s="0"/>
+      <c r="NC28" s="0"/>
+      <c r="ND28" s="0"/>
+      <c r="NE28" s="0"/>
+      <c r="NF28" s="0"/>
+      <c r="NG28" s="0"/>
+      <c r="NH28" s="0"/>
+      <c r="NI28" s="0"/>
+      <c r="NJ28" s="0"/>
+      <c r="NK28" s="0"/>
+      <c r="NL28" s="0"/>
+      <c r="NM28" s="0"/>
+      <c r="NN28" s="0"/>
+      <c r="NO28" s="0"/>
+      <c r="NP28" s="0"/>
+      <c r="NQ28" s="0"/>
+      <c r="NR28" s="0"/>
+      <c r="NS28" s="0"/>
+      <c r="NT28" s="0"/>
+      <c r="NU28" s="0"/>
+      <c r="NV28" s="0"/>
+      <c r="NW28" s="0"/>
+      <c r="NX28" s="0"/>
+      <c r="NY28" s="0"/>
+      <c r="NZ28" s="0"/>
+      <c r="OA28" s="0"/>
+      <c r="OB28" s="0"/>
+      <c r="OC28" s="0"/>
+      <c r="OD28" s="0"/>
+      <c r="OE28" s="0"/>
+      <c r="OF28" s="0"/>
+      <c r="OG28" s="0"/>
+      <c r="OH28" s="0"/>
+      <c r="OI28" s="0"/>
+      <c r="OJ28" s="0"/>
+      <c r="OK28" s="0"/>
+      <c r="OL28" s="0"/>
+      <c r="OM28" s="0"/>
+      <c r="ON28" s="0"/>
+      <c r="OO28" s="0"/>
+      <c r="OP28" s="0"/>
+      <c r="OQ28" s="0"/>
+      <c r="OR28" s="0"/>
+      <c r="OS28" s="0"/>
+      <c r="OT28" s="0"/>
+      <c r="OU28" s="0"/>
+      <c r="OV28" s="0"/>
+      <c r="OW28" s="0"/>
+      <c r="OX28" s="0"/>
+      <c r="OY28" s="0"/>
+      <c r="OZ28" s="0"/>
+      <c r="PA28" s="0"/>
+      <c r="PB28" s="0"/>
+      <c r="PC28" s="0"/>
+      <c r="PD28" s="0"/>
+      <c r="PE28" s="0"/>
+      <c r="PF28" s="0"/>
+      <c r="PG28" s="0"/>
+      <c r="PH28" s="0"/>
+      <c r="PI28" s="0"/>
+      <c r="PJ28" s="0"/>
+      <c r="PK28" s="0"/>
+      <c r="PL28" s="0"/>
+      <c r="PM28" s="0"/>
+      <c r="PN28" s="0"/>
+      <c r="PO28" s="0"/>
+      <c r="PP28" s="0"/>
+      <c r="PQ28" s="0"/>
+      <c r="PR28" s="0"/>
+      <c r="PS28" s="0"/>
+      <c r="PT28" s="0"/>
+      <c r="PU28" s="0"/>
+      <c r="PV28" s="0"/>
+      <c r="PW28" s="0"/>
+      <c r="PX28" s="0"/>
+      <c r="PY28" s="0"/>
+      <c r="PZ28" s="0"/>
+      <c r="QA28" s="0"/>
+      <c r="QB28" s="0"/>
+      <c r="QC28" s="0"/>
+      <c r="QD28" s="0"/>
+      <c r="QE28" s="0"/>
+      <c r="QF28" s="0"/>
+      <c r="QG28" s="0"/>
+      <c r="QH28" s="0"/>
+      <c r="QI28" s="0"/>
+      <c r="QJ28" s="0"/>
+      <c r="QK28" s="0"/>
+      <c r="QL28" s="0"/>
+      <c r="QM28" s="0"/>
+      <c r="QN28" s="0"/>
+      <c r="QO28" s="0"/>
+      <c r="QP28" s="0"/>
+      <c r="QQ28" s="0"/>
+      <c r="QR28" s="0"/>
+      <c r="QS28" s="0"/>
+      <c r="QT28" s="0"/>
+      <c r="QU28" s="0"/>
+      <c r="QV28" s="0"/>
+      <c r="QW28" s="0"/>
+      <c r="QX28" s="0"/>
+      <c r="QY28" s="0"/>
+      <c r="QZ28" s="0"/>
+      <c r="RA28" s="0"/>
+      <c r="RB28" s="0"/>
+      <c r="RC28" s="0"/>
+      <c r="RD28" s="0"/>
+      <c r="RE28" s="0"/>
+      <c r="RF28" s="0"/>
+      <c r="RG28" s="0"/>
+      <c r="RH28" s="0"/>
+      <c r="RI28" s="0"/>
+      <c r="RJ28" s="0"/>
+      <c r="RK28" s="0"/>
+      <c r="RL28" s="0"/>
+      <c r="RM28" s="0"/>
+      <c r="RN28" s="0"/>
+      <c r="RO28" s="0"/>
+      <c r="RP28" s="0"/>
+      <c r="RQ28" s="0"/>
+      <c r="RR28" s="0"/>
+      <c r="RS28" s="0"/>
+      <c r="RT28" s="0"/>
+      <c r="RU28" s="0"/>
+      <c r="RV28" s="0"/>
+      <c r="RW28" s="0"/>
+      <c r="RX28" s="0"/>
+      <c r="RY28" s="0"/>
+      <c r="RZ28" s="0"/>
+      <c r="SA28" s="0"/>
+      <c r="SB28" s="0"/>
+      <c r="SC28" s="0"/>
+      <c r="SD28" s="0"/>
+      <c r="SE28" s="0"/>
+      <c r="SF28" s="0"/>
+      <c r="SG28" s="0"/>
+      <c r="SH28" s="0"/>
+      <c r="SI28" s="0"/>
+      <c r="SJ28" s="0"/>
+      <c r="SK28" s="0"/>
+      <c r="SL28" s="0"/>
+      <c r="SM28" s="0"/>
+      <c r="SN28" s="0"/>
+      <c r="SO28" s="0"/>
+      <c r="SP28" s="0"/>
+      <c r="SQ28" s="0"/>
+      <c r="SR28" s="0"/>
+      <c r="SS28" s="0"/>
+      <c r="ST28" s="0"/>
+      <c r="SU28" s="0"/>
+      <c r="SV28" s="0"/>
+      <c r="SW28" s="0"/>
+      <c r="SX28" s="0"/>
+      <c r="SY28" s="0"/>
+      <c r="SZ28" s="0"/>
+      <c r="TA28" s="0"/>
+      <c r="TB28" s="0"/>
+      <c r="TC28" s="0"/>
+      <c r="TD28" s="0"/>
+      <c r="TE28" s="0"/>
+      <c r="TF28" s="0"/>
+      <c r="TG28" s="0"/>
+      <c r="TH28" s="0"/>
+      <c r="TI28" s="0"/>
+      <c r="TJ28" s="0"/>
+      <c r="TK28" s="0"/>
+      <c r="TL28" s="0"/>
+      <c r="TM28" s="0"/>
+      <c r="TN28" s="0"/>
+      <c r="TO28" s="0"/>
+      <c r="TP28" s="0"/>
+      <c r="TQ28" s="0"/>
+      <c r="TR28" s="0"/>
+      <c r="TS28" s="0"/>
+      <c r="TT28" s="0"/>
+      <c r="TU28" s="0"/>
+      <c r="TV28" s="0"/>
+      <c r="TW28" s="0"/>
+      <c r="TX28" s="0"/>
+      <c r="TY28" s="0"/>
+      <c r="TZ28" s="0"/>
+      <c r="UA28" s="0"/>
+      <c r="UB28" s="0"/>
+      <c r="UC28" s="0"/>
+      <c r="UD28" s="0"/>
+      <c r="UE28" s="0"/>
+      <c r="UF28" s="0"/>
+      <c r="UG28" s="0"/>
+      <c r="UH28" s="0"/>
+      <c r="UI28" s="0"/>
+      <c r="UJ28" s="0"/>
+      <c r="UK28" s="0"/>
+      <c r="UL28" s="0"/>
+      <c r="UM28" s="0"/>
+      <c r="UN28" s="0"/>
+      <c r="UO28" s="0"/>
+      <c r="UP28" s="0"/>
+      <c r="UQ28" s="0"/>
+      <c r="UR28" s="0"/>
+      <c r="US28" s="0"/>
+      <c r="UT28" s="0"/>
+      <c r="UU28" s="0"/>
+      <c r="UV28" s="0"/>
+      <c r="UW28" s="0"/>
+      <c r="UX28" s="0"/>
+      <c r="UY28" s="0"/>
+      <c r="UZ28" s="0"/>
+      <c r="VA28" s="0"/>
+      <c r="VB28" s="0"/>
+      <c r="VC28" s="0"/>
+      <c r="VD28" s="0"/>
+      <c r="VE28" s="0"/>
+      <c r="VF28" s="0"/>
+      <c r="VG28" s="0"/>
+      <c r="VH28" s="0"/>
+      <c r="VI28" s="0"/>
+      <c r="VJ28" s="0"/>
+      <c r="VK28" s="0"/>
+      <c r="VL28" s="0"/>
+      <c r="VM28" s="0"/>
+      <c r="VN28" s="0"/>
+      <c r="VO28" s="0"/>
+      <c r="VP28" s="0"/>
+      <c r="VQ28" s="0"/>
+      <c r="VR28" s="0"/>
+      <c r="VS28" s="0"/>
+      <c r="VT28" s="0"/>
+      <c r="VU28" s="0"/>
+      <c r="VV28" s="0"/>
+      <c r="VW28" s="0"/>
+      <c r="VX28" s="0"/>
+      <c r="VY28" s="0"/>
+      <c r="VZ28" s="0"/>
+      <c r="WA28" s="0"/>
+      <c r="WB28" s="0"/>
+      <c r="WC28" s="0"/>
+      <c r="WD28" s="0"/>
+      <c r="WE28" s="0"/>
+      <c r="WF28" s="0"/>
+      <c r="WG28" s="0"/>
+      <c r="WH28" s="0"/>
+      <c r="WI28" s="0"/>
+      <c r="WJ28" s="0"/>
+      <c r="WK28" s="0"/>
+      <c r="WL28" s="0"/>
+      <c r="WM28" s="0"/>
+      <c r="WN28" s="0"/>
+      <c r="WO28" s="0"/>
+      <c r="WP28" s="0"/>
+      <c r="WQ28" s="0"/>
+      <c r="WR28" s="0"/>
+      <c r="WS28" s="0"/>
+      <c r="WT28" s="0"/>
+      <c r="WU28" s="0"/>
+      <c r="WV28" s="0"/>
+      <c r="WW28" s="0"/>
+      <c r="WX28" s="0"/>
+      <c r="WY28" s="0"/>
+      <c r="WZ28" s="0"/>
+      <c r="XA28" s="0"/>
+      <c r="XB28" s="0"/>
+      <c r="XC28" s="0"/>
+      <c r="XD28" s="0"/>
+      <c r="XE28" s="0"/>
+      <c r="XF28" s="0"/>
+      <c r="XG28" s="0"/>
+      <c r="XH28" s="0"/>
+      <c r="XI28" s="0"/>
+      <c r="XJ28" s="0"/>
+      <c r="XK28" s="0"/>
+      <c r="XL28" s="0"/>
+      <c r="XM28" s="0"/>
+      <c r="XN28" s="0"/>
+      <c r="XO28" s="0"/>
+      <c r="XP28" s="0"/>
+      <c r="XQ28" s="0"/>
+      <c r="XR28" s="0"/>
+      <c r="XS28" s="0"/>
+      <c r="XT28" s="0"/>
+      <c r="XU28" s="0"/>
+      <c r="XV28" s="0"/>
+      <c r="XW28" s="0"/>
+      <c r="XX28" s="0"/>
+      <c r="XY28" s="0"/>
+      <c r="XZ28" s="0"/>
+      <c r="YA28" s="0"/>
+      <c r="YB28" s="0"/>
+      <c r="YC28" s="0"/>
+      <c r="YD28" s="0"/>
+      <c r="YE28" s="0"/>
+      <c r="YF28" s="0"/>
+      <c r="YG28" s="0"/>
+      <c r="YH28" s="0"/>
+      <c r="YI28" s="0"/>
+      <c r="YJ28" s="0"/>
+      <c r="YK28" s="0"/>
+      <c r="YL28" s="0"/>
+      <c r="YM28" s="0"/>
+      <c r="YN28" s="0"/>
+      <c r="YO28" s="0"/>
+      <c r="YP28" s="0"/>
+      <c r="YQ28" s="0"/>
+      <c r="YR28" s="0"/>
+      <c r="YS28" s="0"/>
+      <c r="YT28" s="0"/>
+      <c r="YU28" s="0"/>
+      <c r="YV28" s="0"/>
+      <c r="YW28" s="0"/>
+      <c r="YX28" s="0"/>
+      <c r="YY28" s="0"/>
+      <c r="YZ28" s="0"/>
+      <c r="ZA28" s="0"/>
+      <c r="ZB28" s="0"/>
+      <c r="ZC28" s="0"/>
+      <c r="ZD28" s="0"/>
+      <c r="ZE28" s="0"/>
+      <c r="ZF28" s="0"/>
+      <c r="ZG28" s="0"/>
+      <c r="ZH28" s="0"/>
+      <c r="ZI28" s="0"/>
+      <c r="ZJ28" s="0"/>
+      <c r="ZK28" s="0"/>
+      <c r="ZL28" s="0"/>
+      <c r="ZM28" s="0"/>
+      <c r="ZN28" s="0"/>
+      <c r="ZO28" s="0"/>
+      <c r="ZP28" s="0"/>
+      <c r="ZQ28" s="0"/>
+      <c r="ZR28" s="0"/>
+      <c r="ZS28" s="0"/>
+      <c r="ZT28" s="0"/>
+      <c r="ZU28" s="0"/>
+      <c r="ZV28" s="0"/>
+      <c r="ZW28" s="0"/>
+      <c r="ZX28" s="0"/>
+      <c r="ZY28" s="0"/>
+      <c r="ZZ28" s="0"/>
+      <c r="AAA28" s="0"/>
+      <c r="AAB28" s="0"/>
+      <c r="AAC28" s="0"/>
+      <c r="AAD28" s="0"/>
+      <c r="AAE28" s="0"/>
+      <c r="AAF28" s="0"/>
+      <c r="AAG28" s="0"/>
+      <c r="AAH28" s="0"/>
+      <c r="AAI28" s="0"/>
+      <c r="AAJ28" s="0"/>
+      <c r="AAK28" s="0"/>
+      <c r="AAL28" s="0"/>
+      <c r="AAM28" s="0"/>
+      <c r="AAN28" s="0"/>
+      <c r="AAO28" s="0"/>
+      <c r="AAP28" s="0"/>
+      <c r="AAQ28" s="0"/>
+      <c r="AAR28" s="0"/>
+      <c r="AAS28" s="0"/>
+      <c r="AAT28" s="0"/>
+      <c r="AAU28" s="0"/>
+      <c r="AAV28" s="0"/>
+      <c r="AAW28" s="0"/>
+      <c r="AAX28" s="0"/>
+      <c r="AAY28" s="0"/>
+      <c r="AAZ28" s="0"/>
+      <c r="ABA28" s="0"/>
+      <c r="ABB28" s="0"/>
+      <c r="ABC28" s="0"/>
+      <c r="ABD28" s="0"/>
+      <c r="ABE28" s="0"/>
+      <c r="ABF28" s="0"/>
+      <c r="ABG28" s="0"/>
+      <c r="ABH28" s="0"/>
+      <c r="ABI28" s="0"/>
+      <c r="ABJ28" s="0"/>
+      <c r="ABK28" s="0"/>
+      <c r="ABL28" s="0"/>
+      <c r="ABM28" s="0"/>
+      <c r="ABN28" s="0"/>
+      <c r="ABO28" s="0"/>
+      <c r="ABP28" s="0"/>
+      <c r="ABQ28" s="0"/>
+      <c r="ABR28" s="0"/>
+      <c r="ABS28" s="0"/>
+      <c r="ABT28" s="0"/>
+      <c r="ABU28" s="0"/>
+      <c r="ABV28" s="0"/>
+      <c r="ABW28" s="0"/>
+      <c r="ABX28" s="0"/>
+      <c r="ABY28" s="0"/>
+      <c r="ABZ28" s="0"/>
+      <c r="ACA28" s="0"/>
+      <c r="ACB28" s="0"/>
+      <c r="ACC28" s="0"/>
+      <c r="ACD28" s="0"/>
+      <c r="ACE28" s="0"/>
+      <c r="ACF28" s="0"/>
+      <c r="ACG28" s="0"/>
+      <c r="ACH28" s="0"/>
+      <c r="ACI28" s="0"/>
+      <c r="ACJ28" s="0"/>
+      <c r="ACK28" s="0"/>
+      <c r="ACL28" s="0"/>
+      <c r="ACM28" s="0"/>
+      <c r="ACN28" s="0"/>
+      <c r="ACO28" s="0"/>
+      <c r="ACP28" s="0"/>
+      <c r="ACQ28" s="0"/>
+      <c r="ACR28" s="0"/>
+      <c r="ACS28" s="0"/>
+      <c r="ACT28" s="0"/>
+      <c r="ACU28" s="0"/>
+      <c r="ACV28" s="0"/>
+      <c r="ACW28" s="0"/>
+      <c r="ACX28" s="0"/>
+      <c r="ACY28" s="0"/>
+      <c r="ACZ28" s="0"/>
+      <c r="ADA28" s="0"/>
+      <c r="ADB28" s="0"/>
+      <c r="ADC28" s="0"/>
+      <c r="ADD28" s="0"/>
+      <c r="ADE28" s="0"/>
+      <c r="ADF28" s="0"/>
+      <c r="ADG28" s="0"/>
+      <c r="ADH28" s="0"/>
+      <c r="ADI28" s="0"/>
+      <c r="ADJ28" s="0"/>
+      <c r="ADK28" s="0"/>
+      <c r="ADL28" s="0"/>
+      <c r="ADM28" s="0"/>
+      <c r="ADN28" s="0"/>
+      <c r="ADO28" s="0"/>
+      <c r="ADP28" s="0"/>
+      <c r="ADQ28" s="0"/>
+      <c r="ADR28" s="0"/>
+      <c r="ADS28" s="0"/>
+      <c r="ADT28" s="0"/>
+      <c r="ADU28" s="0"/>
+      <c r="ADV28" s="0"/>
+      <c r="ADW28" s="0"/>
+      <c r="ADX28" s="0"/>
+      <c r="ADY28" s="0"/>
+      <c r="ADZ28" s="0"/>
+      <c r="AEA28" s="0"/>
+      <c r="AEB28" s="0"/>
+      <c r="AEC28" s="0"/>
+      <c r="AED28" s="0"/>
+      <c r="AEE28" s="0"/>
+      <c r="AEF28" s="0"/>
+      <c r="AEG28" s="0"/>
+      <c r="AEH28" s="0"/>
+      <c r="AEI28" s="0"/>
+      <c r="AEJ28" s="0"/>
+      <c r="AEK28" s="0"/>
+      <c r="AEL28" s="0"/>
+      <c r="AEM28" s="0"/>
+      <c r="AEN28" s="0"/>
+      <c r="AEO28" s="0"/>
+      <c r="AEP28" s="0"/>
+      <c r="AEQ28" s="0"/>
+      <c r="AER28" s="0"/>
+      <c r="AES28" s="0"/>
+      <c r="AET28" s="0"/>
+      <c r="AEU28" s="0"/>
+      <c r="AEV28" s="0"/>
+      <c r="AEW28" s="0"/>
+      <c r="AEX28" s="0"/>
+      <c r="AEY28" s="0"/>
+      <c r="AEZ28" s="0"/>
+      <c r="AFA28" s="0"/>
+      <c r="AFB28" s="0"/>
+      <c r="AFC28" s="0"/>
+      <c r="AFD28" s="0"/>
+      <c r="AFE28" s="0"/>
+      <c r="AFF28" s="0"/>
+      <c r="AFG28" s="0"/>
+      <c r="AFH28" s="0"/>
+      <c r="AFI28" s="0"/>
+      <c r="AFJ28" s="0"/>
+      <c r="AFK28" s="0"/>
+      <c r="AFL28" s="0"/>
+      <c r="AFM28" s="0"/>
+      <c r="AFN28" s="0"/>
+      <c r="AFO28" s="0"/>
+      <c r="AFP28" s="0"/>
+      <c r="AFQ28" s="0"/>
+      <c r="AFR28" s="0"/>
+      <c r="AFS28" s="0"/>
+      <c r="AFT28" s="0"/>
+      <c r="AFU28" s="0"/>
+      <c r="AFV28" s="0"/>
+      <c r="AFW28" s="0"/>
+      <c r="AFX28" s="0"/>
+      <c r="AFY28" s="0"/>
+      <c r="AFZ28" s="0"/>
+      <c r="AGA28" s="0"/>
+      <c r="AGB28" s="0"/>
+      <c r="AGC28" s="0"/>
+      <c r="AGD28" s="0"/>
+      <c r="AGE28" s="0"/>
+      <c r="AGF28" s="0"/>
+      <c r="AGG28" s="0"/>
+      <c r="AGH28" s="0"/>
+      <c r="AGI28" s="0"/>
+      <c r="AGJ28" s="0"/>
+      <c r="AGK28" s="0"/>
+      <c r="AGL28" s="0"/>
+      <c r="AGM28" s="0"/>
+      <c r="AGN28" s="0"/>
+      <c r="AGO28" s="0"/>
+      <c r="AGP28" s="0"/>
+      <c r="AGQ28" s="0"/>
+      <c r="AGR28" s="0"/>
+      <c r="AGS28" s="0"/>
+      <c r="AGT28" s="0"/>
+      <c r="AGU28" s="0"/>
+      <c r="AGV28" s="0"/>
+      <c r="AGW28" s="0"/>
+      <c r="AGX28" s="0"/>
+      <c r="AGY28" s="0"/>
+      <c r="AGZ28" s="0"/>
+      <c r="AHA28" s="0"/>
+      <c r="AHB28" s="0"/>
+      <c r="AHC28" s="0"/>
+      <c r="AHD28" s="0"/>
+      <c r="AHE28" s="0"/>
+      <c r="AHF28" s="0"/>
+      <c r="AHG28" s="0"/>
+      <c r="AHH28" s="0"/>
+      <c r="AHI28" s="0"/>
+      <c r="AHJ28" s="0"/>
+      <c r="AHK28" s="0"/>
+      <c r="AHL28" s="0"/>
+      <c r="AHM28" s="0"/>
+      <c r="AHN28" s="0"/>
+      <c r="AHO28" s="0"/>
+      <c r="AHP28" s="0"/>
+      <c r="AHQ28" s="0"/>
+      <c r="AHR28" s="0"/>
+      <c r="AHS28" s="0"/>
+      <c r="AHT28" s="0"/>
+      <c r="AHU28" s="0"/>
+      <c r="AHV28" s="0"/>
+      <c r="AHW28" s="0"/>
+      <c r="AHX28" s="0"/>
+      <c r="AHY28" s="0"/>
+      <c r="AHZ28" s="0"/>
+      <c r="AIA28" s="0"/>
+      <c r="AIB28" s="0"/>
+      <c r="AIC28" s="0"/>
+      <c r="AID28" s="0"/>
+      <c r="AIE28" s="0"/>
+      <c r="AIF28" s="0"/>
+      <c r="AIG28" s="0"/>
+      <c r="AIH28" s="0"/>
+      <c r="AII28" s="0"/>
+      <c r="AIJ28" s="0"/>
+      <c r="AIK28" s="0"/>
+      <c r="AIL28" s="0"/>
+      <c r="AIM28" s="0"/>
+      <c r="AIN28" s="0"/>
+      <c r="AIO28" s="0"/>
+      <c r="AIP28" s="0"/>
+      <c r="AIQ28" s="0"/>
+      <c r="AIR28" s="0"/>
+      <c r="AIS28" s="0"/>
+      <c r="AIT28" s="0"/>
+      <c r="AIU28" s="0"/>
+      <c r="AIV28" s="0"/>
+      <c r="AIW28" s="0"/>
+      <c r="AIX28" s="0"/>
+      <c r="AIY28" s="0"/>
+      <c r="AIZ28" s="0"/>
+      <c r="AJA28" s="0"/>
+      <c r="AJB28" s="0"/>
+      <c r="AJC28" s="0"/>
+      <c r="AJD28" s="0"/>
+      <c r="AJE28" s="0"/>
+      <c r="AJF28" s="0"/>
+      <c r="AJG28" s="0"/>
+      <c r="AJH28" s="0"/>
+      <c r="AJI28" s="0"/>
+      <c r="AJJ28" s="0"/>
+      <c r="AJK28" s="0"/>
+      <c r="AJL28" s="0"/>
+      <c r="AJM28" s="0"/>
+      <c r="AJN28" s="0"/>
+      <c r="AJO28" s="0"/>
+      <c r="AJP28" s="0"/>
+      <c r="AJQ28" s="0"/>
+      <c r="AJR28" s="0"/>
+      <c r="AJS28" s="0"/>
+      <c r="AJT28" s="0"/>
+      <c r="AJU28" s="0"/>
+      <c r="AJV28" s="0"/>
+      <c r="AJW28" s="0"/>
+      <c r="AJX28" s="0"/>
+      <c r="AJY28" s="0"/>
+      <c r="AJZ28" s="0"/>
+      <c r="AKA28" s="0"/>
+      <c r="AKB28" s="0"/>
+      <c r="AKC28" s="0"/>
+      <c r="AKD28" s="0"/>
+      <c r="AKE28" s="0"/>
+      <c r="AKF28" s="0"/>
+      <c r="AKG28" s="0"/>
+      <c r="AKH28" s="0"/>
+      <c r="AKI28" s="0"/>
+      <c r="AKJ28" s="0"/>
+      <c r="AKK28" s="0"/>
+      <c r="AKL28" s="0"/>
+      <c r="AKM28" s="0"/>
+      <c r="AKN28" s="0"/>
+      <c r="AKO28" s="0"/>
+      <c r="AKP28" s="0"/>
+      <c r="AKQ28" s="0"/>
+      <c r="AKR28" s="0"/>
+      <c r="AKS28" s="0"/>
+      <c r="AKT28" s="0"/>
+      <c r="AKU28" s="0"/>
+      <c r="AKV28" s="0"/>
+      <c r="AKW28" s="0"/>
+      <c r="AKX28" s="0"/>
+      <c r="AKY28" s="0"/>
+      <c r="AKZ28" s="0"/>
+      <c r="ALA28" s="0"/>
+      <c r="ALB28" s="0"/>
+      <c r="ALC28" s="0"/>
+      <c r="ALD28" s="0"/>
+      <c r="ALE28" s="0"/>
+      <c r="ALF28" s="0"/>
+      <c r="ALG28" s="0"/>
+      <c r="ALH28" s="0"/>
+      <c r="ALI28" s="0"/>
+      <c r="ALJ28" s="0"/>
+      <c r="ALK28" s="0"/>
+      <c r="ALL28" s="0"/>
+      <c r="ALM28" s="0"/>
+      <c r="ALN28" s="0"/>
+      <c r="ALO28" s="0"/>
+      <c r="ALP28" s="0"/>
+      <c r="ALQ28" s="0"/>
+      <c r="ALR28" s="0"/>
+      <c r="ALS28" s="0"/>
+      <c r="ALT28" s="0"/>
+      <c r="ALU28" s="0"/>
+      <c r="ALV28" s="0"/>
+      <c r="ALW28" s="0"/>
+      <c r="ALX28" s="0"/>
+      <c r="ALY28" s="0"/>
+      <c r="ALZ28" s="0"/>
+      <c r="AMA28" s="0"/>
+      <c r="AMB28" s="0"/>
+      <c r="AMC28" s="0"/>
+      <c r="AMD28" s="0"/>
+      <c r="AME28" s="0"/>
+      <c r="AMF28" s="0"/>
+      <c r="AMG28" s="0"/>
+      <c r="AMH28" s="0"/>
+      <c r="AMI28" s="0"/>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -3400,13 +3448,26 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
+    <row r="33" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3454,7 +3515,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3462,245 +3523,245 @@
     </row>
     <row r="3" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" s="36"/>
     </row>
     <row r="6" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" s="36"/>
     </row>
     <row r="7" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="36"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" s="36"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" s="36"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="36"/>
     </row>
     <row r="12" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="36"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="36"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="36"/>
     </row>
     <row r="18" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F18" s="36"/>
     </row>
     <row r="19" s="13" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="36"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3728,200 +3789,200 @@
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" s="47"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="45" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="45" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3955,7 +4016,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -20,6 +20,7 @@
   <authors>
     <author>tc={007600A0-00D6-431D-BA50-007E00EB001B}</author>
     <author>tc={00A30064-00B3-4DE1-9EC6-001300DF00F0}</author>
+    <author>tc={0A9E2001-95A2-F2FA-83F4-A53EB91C4422}</author>
     <author>tc={00C0002F-0078-4B60-B76D-00F5001E00C3}</author>
     <author>tc={00DE0006-00AB-45C3-A4E8-00F8003D0023}</author>
     <author>tc={004B002A-00DD-485B-8C18-003C00840097}</author>
@@ -96,7 +97,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="2" xr:uid="{00C0002F-0078-4B60-B76D-00F5001E00C3}">
+    <comment ref="L2" authorId="2" xr:uid="{0A9E2001-95A2-F2FA-83F4-A53EB91C4422}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>ml:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+First click on item in column A. Then click this button to see unused cells.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="3" xr:uid="{00C0002F-0078-4B60-B76D-00F5001E00C3}">
       <text>
         <r>
           <rPr>
@@ -120,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="3" xr:uid="{00DE0006-00AB-45C3-A4E8-00F8003D0023}">
+    <comment ref="D2" authorId="4" xr:uid="{00DE0006-00AB-45C3-A4E8-00F8003D0023}">
       <text>
         <r>
           <rPr>
@@ -143,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="4" xr:uid="{004B002A-00DD-485B-8C18-003C00840097}">
+    <comment ref="E2" authorId="5" xr:uid="{004B002A-00DD-485B-8C18-003C00840097}">
       <text>
         <r>
           <rPr>
@@ -164,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="5" xr:uid="{00B30040-00F4-41F0-A459-0090003D00BC}">
+    <comment ref="J2" authorId="6" xr:uid="{00B30040-00F4-41F0-A459-0090003D00BC}">
       <text>
         <r>
           <rPr>
@@ -1077,11 +1099,11 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
@@ -1292,7 +1314,8 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="m" id="{9BC95C87-F467-5F72-47FA-F33C3315BC72}"/>
+  <person displayName="m" id="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}"/>
+  <person displayName="ml" id="{B8CB909A-CF2C-40C4-BD16-105458A4B32E}" userId="ml" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1752,7 +1775,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{007600A0-00D6-431D-BA50-007E00EB001B}" done="0">
+  <threadedComment ref="A2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{007600A0-00D6-431D-BA50-007E00EB001B}" done="0">
     <text xml:space="preserve">begmenu
 button
 check
@@ -1782,30 +1805,34 @@
 toplevel
 </text>
   </threadedComment>
-  <threadedComment ref="B2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00A30064-00B3-4DE1-9EC6-001300DF00F0}" done="0">
+  <threadedComment ref="B2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00A30064-00B3-4DE1-9EC6-001300DF00F0}" done="0">
     <text xml:space="preserve">‘self’
 or other parent
 widget
 </text>
   </threadedComment>
-  <threadedComment ref="C2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00C0002F-0078-4B60-B76D-00F5001E00C3}" done="0">
+  <threadedComment ref="L2" dT="2023-06-10T20:32:16.16Z" personId="{B8CB909A-CF2C-40C4-BD16-105458A4B32E}" id="{0A9E2001-95A2-F2FA-83F4-A53EB91C4422}" done="0">
+    <text xml:space="preserve">First click on item in column A. Then click this button to see unused cells.
+</text>
+  </threadedComment>
+  <threadedComment ref="C2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00C0002F-0078-4B60-B76D-00F5001E00C3}" done="0">
     <text xml:space="preserve">The Widget variable. REQUIRED for every widget.
 eg.
 varname  OR
 self.varname
 </text>
   </threadedComment>
-  <threadedComment ref="D2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00DE0006-00AB-45C3-A4E8-00F8003D0023}" done="0">
+  <threadedComment ref="D2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00DE0006-00AB-45C3-A4E8-00F8003D0023}" done="0">
     <text xml:space="preserve">The TEXT of a button
 label
 or entry widget
 </text>
   </threadedComment>
-  <threadedComment ref="E2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{004B002A-00DD-485B-8C18-003C00840097}" done="0">
+  <threadedComment ref="E2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{004B002A-00DD-485B-8C18-003C00840097}" done="0">
     <text xml:space="preserve">The callback function name, or the Textvariable name.
 </text>
   </threadedComment>
-  <threadedComment ref="J2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00B30040-00F4-41F0-A459-0090003D00BC}" done="0">
+  <threadedComment ref="J2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00B30040-00F4-41F0-A459-0090003D00BC}" done="0">
     <text xml:space="preserve">Orientation of the widget. 
 “nsew” or some combination of those letters.
 </text>
@@ -1815,7 +1842,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00D10033-00BA-4EAE-BA93-008A00360012}" done="0">
+  <threadedComment ref="A2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00D10033-00BA-4EAE-BA93-008A00360012}" done="0">
     <text xml:space="preserve">begmenu
 button
 check
@@ -1843,33 +1870,33 @@
 text
 </text>
   </threadedComment>
-  <threadedComment ref="C2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{006D0099-0015-48D6-B429-000F002B00F7}" done="0">
+  <threadedComment ref="C2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{006D0099-0015-48D6-B429-000F002B00F7}" done="0">
     <text xml:space="preserve">The Widget variable. REQUIRED for every widget.
 eg. varname  OR
 self.varname
 </text>
   </threadedComment>
-  <threadedComment ref="D2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{006E0040-004C-41B2-92FA-002200D5009A}" done="0">
+  <threadedComment ref="D2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{006E0040-004C-41B2-92FA-002200D5009A}" done="0">
     <text xml:space="preserve">The TEXT of a button
 label
 or entry widget
 </text>
   </threadedComment>
-  <threadedComment ref="E2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00D7002E-004C-4BC5-AA51-000B00D0008A}" done="0">
+  <threadedComment ref="E2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00D7002E-004C-4BC5-AA51-000B00D0008A}" done="0">
     <text xml:space="preserve">The callback function name, or the Textvariable name.
 </text>
   </threadedComment>
-  <threadedComment ref="J2" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00690002-007D-4772-9F72-004A00B80082}" done="0">
+  <threadedComment ref="J2" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00690002-007D-4772-9F72-004A00B80082}" done="0">
     <text xml:space="preserve">Orientation of the widget. 
 “nsew” or some combination of those letters.
 </text>
   </threadedComment>
-  <threadedComment ref="A8" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00C100EC-00BD-4727-B41D-0024001100A8}" done="0">
+  <threadedComment ref="A8" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00C100EC-00BD-4727-B41D-0024001100A8}" done="0">
     <text xml:space="preserve">and
 LableFrame
 </text>
   </threadedComment>
-  <threadedComment ref="A10" personId="{9BC95C87-F467-5F72-47FA-F33C3315BC72}" id="{00E400B3-00F6-435A-92C4-00B6000E0092}" done="0">
+  <threadedComment ref="A10" personId="{9D2FCD79-83D8-7D9A-0972-B2319DD93181}" id="{00E400B3-00F6-435A-92C4-00B6000E0092}" done="0">
     <text xml:space="preserve">and
 scrolledtext
 </text>
@@ -2985,11 +3012,11 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -3056,9 +3083,8 @@
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="D8"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3070,8 +3096,8 @@
     </row>
     <row r="9" ht="16.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -3158,8 +3184,8 @@
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -3171,10 +3197,10 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3184,10 +3210,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3197,10 +3223,10 @@
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3210,10 +3236,10 @@
     </row>
     <row r="19" ht="16.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3223,10 +3249,10 @@
     </row>
     <row r="20" ht="16.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3236,8 +3262,8 @@
     </row>
     <row r="21" ht="16.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -3249,8 +3275,8 @@
     </row>
     <row r="22" ht="16.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="15"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -3262,8 +3288,8 @@
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="15"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -5642,7 +5668,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12" disablePrompts="0">
-        <x14:dataValidation xr:uid="{004B00A6-00A6-46F3-8D1E-00420020006D}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00F600D3-0062-4707-B4AC-009A009400D5}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5651,7 +5677,7 @@
           </x14:formula2>
           <xm:sqref>F3:I4 F6:I6 F8:I9 F15:I39 F5:I5 F42:I59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0012001C-0088-4541-B918-00A10061009B}" type="textLength" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D600E8-00A7-470A-AF2D-00B8003E005B}" type="textLength" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5660,7 +5686,7 @@
           </x14:formula2>
           <xm:sqref>J3:J9 J15:J39 J42:J59</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0051006C-003E-4D3F-8F69-00CF00BA004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{006800AF-00E6-4490-8C0D-00AD00290020}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</xm:f>
           </x14:formula1>
@@ -5669,7 +5695,7 @@
           </x14:formula2>
           <xm:sqref>A463:A473</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D80024-0018-4AA8-ADA8-0019008F008B}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="1" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B10037-004A-44DC-AF76-002A00D60044}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="1" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5678,7 +5704,7 @@
           </x14:formula2>
           <xm:sqref>B2:B3 B8:B9 B15:B16 B18:B998 B4 B5 B6 B7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004D0039-0099-4B7A-A600-00F2003C0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{008F00DC-009A-4133-9320-00C700D100DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</xm:f>
           </x14:formula1>
@@ -5687,7 +5713,7 @@
           </x14:formula2>
           <xm:sqref>A4:A9 A15 A17:A462</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A90083-00FA-4E78-8FAE-006F008E0066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{005B00BA-0054-423B-8A6A-006C009400D9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</xm:f>
           </x14:formula1>
@@ -5696,7 +5722,7 @@
           </x14:formula2>
           <xm:sqref>A3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BA003C-00A8-41A9-A788-00CA00470027}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00920077-006F-414E-A277-00C00067007E}" type="whole" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5705,7 +5731,7 @@
           </x14:formula2>
           <xm:sqref>F10:I11 F13:I13 F12:I12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A00085-00C1-40D7-8075-00E0009E00C0}" type="textLength" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C900D3-00E5-47EB-B63B-00AD00A10045}" type="textLength" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5714,7 +5740,7 @@
           </x14:formula2>
           <xm:sqref>J10:J14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005000E1-009B-4411-83F0-00B300BD004D}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="1" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{000D0079-008B-4F34-86F2-00AF009A00B6}" type="none" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="1" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>0</xm:f>
           </x14:formula1>
@@ -5723,7 +5749,7 @@
           </x14:formula2>
           <xm:sqref>B10 B11 B12 B13 B14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001300B8-003D-4E29-8286-00E80042006F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{00B700B5-00AB-4239-8EED-00F100E5001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</xm:f>
           </x14:formula1>
@@ -5732,7 +5758,7 @@
           </x14:formula2>
           <xm:sqref>A11:A14</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000800D6-00E3-4B37-945C-004A00BE00CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{002900F3-003D-48E4-B72C-00C600750012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</xm:f>
           </x14:formula1>
@@ -5741,7 +5767,7 @@
           </x14:formula2>
           <xm:sqref>A10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009E00E9-007F-4F14-89AA-004500390087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
+        <x14:dataValidation xr:uid="{003C0093-001D-4085-9920-004A00A000DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="0" showErrorMessage="1" showInputMessage="0">
           <x14:formula1>
             <xm:f>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</xm:f>
           </x14:formula1>
@@ -6452,9 +6478,9 @@
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" ht="16.5">
       <c r="A23" s="1" t="s">
@@ -6542,7 +6568,7 @@
       <c r="K27" s="31"/>
     </row>
     <row r="28" ht="12.800000000000001">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="16.5">
       <c r="A29" s="1" t="s">

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>m</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -218,7 +218,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>m</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="A2" authorId="0">
@@ -1148,215 +1148,215 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1456,10 +1456,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="40.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="18.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="3" width="16.53"/>
   </cols>
@@ -3588,16 +3588,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3608,7 +3608,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="12.64"/>
@@ -4415,7 +4415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4430,10 +4430,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="44" width="78.09"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.85"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -474,16 +474,16 @@
 IntVar StringVar name</t>
   </si>
   <si>
-    <t xml:space="preserve">Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rowspan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colspan</t>
+    <t xml:space="preserve">row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rowspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colspan</t>
   </si>
   <si>
     <t xml:space="preserve">Sticky</t>
@@ -513,6 +513,18 @@
   <si>
     <t xml:space="preserve">Command or
 IntVar | StringVar name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rowspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colspan</t>
   </si>
   <si>
     <t xml:space="preserve">(Optional)
@@ -1438,7 +1450,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1446,7 +1458,7 @@
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.85"/>
@@ -1458,8 +1470,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="40.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="38.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="26.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="3" width="16.53"/>
   </cols>
@@ -1485,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="12" customFormat="true" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -3295,246 +3307,212 @@
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="22"/>
     </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="22"/>
     </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="22"/>
     </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="22"/>
     </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="22"/>
     </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="22"/>
     </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="22"/>
     </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="22"/>
     </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="22"/>
     </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="22"/>
     </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="22"/>
     </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="22"/>
     </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="22"/>
     </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="22"/>
     </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="22"/>
     </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="22"/>
     </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="22"/>
     </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="22"/>
     </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="22"/>
     </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="22"/>
     </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="22"/>
     </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="22"/>
     </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="22"/>
     </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="22"/>
     </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="22"/>
     </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="22"/>
     </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="22"/>
     </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="22"/>
     </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="22"/>
     </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="22"/>
     </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="22"/>
     </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="22"/>
     </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="22"/>
     </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="4"/>
     </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="4"/>
     </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="4"/>
     </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="4"/>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="4"/>
     </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="4"/>
     </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="4"/>
     </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="4"/>
     </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="4"/>
     </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="4"/>
     </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="4"/>
     </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="4"/>
     </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="4"/>
     </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="4"/>
     </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="4"/>
     </row>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="12">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:I6 F8:I9 F15:I39 F42:I59" type="whole">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J3:J9 J15:J39 J42:J59" type="textLength">
-      <formula1>0</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
+  <dataValidations count="11">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A463:A473" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
@@ -3551,14 +3529,6 @@
       <formula1>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:I13" type="whole">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J10:J14" type="textLength">
-      <formula1>0</formula1>
-      <formula2>4</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="true" showErrorMessage="true" showInputMessage="false" sqref="B10:B14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3574,6 +3544,18 @@
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A16" type="list">
       <formula1>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>"0"</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:I1 F3:I1003" type="whole">
+      <formula1>0</formula1>
+      <formula2>60</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J1003" type="textLength">
+      <formula1>0</formula1>
+      <formula2>4</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:I2" type="none">
+      <formula1>0</formula1>
+      <formula2>60</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3637,7 +3619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="28" customFormat="true" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
@@ -3654,92 +3636,92 @@
         <v>21</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3750,514 +3732,514 @@
         <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="36"/>
       <c r="F19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="36"/>
       <c r="F20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="36"/>
@@ -4270,10 +4252,10 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -4290,10 +4272,10 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -4307,10 +4289,10 @@
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="33"/>
@@ -4324,10 +4306,10 @@
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="33"/>
@@ -4341,10 +4323,10 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>52</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="33"/>
@@ -4358,10 +4340,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="33"/>
@@ -4378,7 +4360,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4453,7 +4435,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4461,238 +4443,238 @@
     </row>
     <row r="3" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F5" s="48"/>
     </row>
     <row r="6" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>70</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="48"/>
     </row>
     <row r="7" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F7" s="48"/>
     </row>
     <row r="8" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F8" s="48"/>
     </row>
     <row r="9" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F9" s="48"/>
     </row>
     <row r="10" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F11" s="48"/>
     </row>
     <row r="12" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F12" s="48"/>
     </row>
     <row r="13" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="48" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="48"/>
     </row>
     <row r="15" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="53" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F17" s="48"/>
     </row>
     <row r="18" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F18" s="48"/>
     </row>
     <row r="19" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="47" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" s="47" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="46" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="48"/>
     </row>

--- a/layout_tpl.xlsx
+++ b/layout_tpl.xlsx
@@ -37,7 +37,7 @@
             <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">m:
+          <t xml:space="preserve">DROPDOWN
 </t>
         </r>
         <r>
@@ -180,7 +180,7 @@
             <family val="0"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">The callback function name, or the Textvariable name.
+          <t xml:space="preserve">The callback function name for a button, or the variable name for an input widget.
 </t>
         </r>
       </text>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="109">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -474,16 +474,16 @@
 IntVar StringVar name</t>
   </si>
   <si>
-    <t xml:space="preserve">row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rowspan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colspan</t>
+    <t xml:space="preserve">Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rowspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colspan</t>
   </si>
   <si>
     <t xml:space="preserve">Sticky</t>
@@ -499,9 +499,6 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">self</t>
-  </si>
-  <si>
     <t xml:space="preserve">Widget
 Name</t>
   </si>
@@ -513,18 +510,6 @@
   <si>
     <t xml:space="preserve">Command or
 IntVar | StringVar name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rowspan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colspan</t>
   </si>
   <si>
     <t xml:space="preserve">(Optional)
@@ -535,6 +520,9 @@
   </si>
   <si>
     <t xml:space="preserve">button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -1062,6 +1050,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF0D0D0D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFCD5B5"/>
       </patternFill>
@@ -1076,12 +1070,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B5"/>
         <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF0D0D0D"/>
       </patternFill>
     </fill>
     <fill>
@@ -1126,7 +1114,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1150,7 +1138,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1176,35 +1167,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,7 +1279,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,7 +1291,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1320,11 +1311,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1373,15 +1364,31 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Neutral" xfId="20"/>
+    <cellStyle name="BlackBackground" xfId="20"/>
+    <cellStyle name="Excel Built-in Neutral" xfId="21"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1470,8 +1477,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="38.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="26.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="40.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="3" width="16.53"/>
   </cols>
@@ -1497,7 +1504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="12" customFormat="true" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -1537,9 +1544,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13"/>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
@@ -3512,7 +3517,37 @@
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <dataValidations count="11">
+  <conditionalFormatting sqref="D1:D1048576 K1:K1048576">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR($A1="scrollx", $A1="options", $A1="scrolly")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR($A1="popup", $A1="clip",$A1="messagebox", $A1="simpledialog",$A1="toplevel", )</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:K1048576">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR($A1="popup", $A1="clip",$A1="messagebox", $A1="filedialog",$A1="simpledialog", $A1="toplevel")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR($A1="scale",$A1="combo",$A1="spin")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:E1048576">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>OR($A1="frame",$A1="list",$A1="text",$A1="calendar",$A1="notebook",$A1="progress")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:K1048576">
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>$A1="geometry"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="10">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A463:A473" type="list">
       <formula1>"begmenu,button,check,clip,combo,dialog,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scrollx,scrolly,spin,submenu,text"</formula1>
       <formula2>0</formula2>
@@ -3545,17 +3580,13 @@
       <formula1>"begmenu,button,calendar,check,clip,combo,endmenu,entry,filedialog,frame,geometry,label,list,message,messagebox,notebook,options,popup,progress,radio,scale,scrollx,scrolly,separator,simpledialog,spin,submenu,text,toplevel,"</formula1>
       <formula2>"0"</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:I1 F3:I1003" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:I1002" type="whole">
       <formula1>0</formula1>
       <formula2>60</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J1003" type="textLength">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Use N S E W&#10;in combinations.&#10;N = North&#10;S = South&#10;E = East&#10;W = West&#10;&#10;eg. NS will stretch from top to bottom of the cell&#10;eg. SW will place in the botton left corner&#10;eg. NSEW will stetch to fill all of cell&#10;" promptTitle="sticky attribute" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="J1:J1002" type="textLength">
       <formula1>0</formula1>
       <formula2>4</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:I2" type="none">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3579,7 +3610,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3619,109 +3650,109 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="61.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="32" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3729,517 +3760,517 @@
         <v>1</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" s="33"/>
       <c r="E19" s="36"/>
       <c r="F19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="36"/>
       <c r="F20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="36"/>
@@ -4252,10 +4283,10 @@
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
@@ -4272,10 +4303,10 @@
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -4289,10 +4320,10 @@
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="33"/>
@@ -4306,10 +4337,10 @@
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="33"/>
@@ -4323,10 +4354,10 @@
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B26" s="41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="33"/>
@@ -4340,10 +4371,10 @@
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="33"/>
@@ -4360,7 +4391,7 @@
     </row>
     <row r="29" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4435,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4443,238 +4474,238 @@
     </row>
     <row r="3" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="F4" s="49" t="s">
         <v>67</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="48"/>
     </row>
     <row r="6" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>70</v>
       </c>
       <c r="F6" s="48"/>
     </row>
     <row r="7" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="48"/>
     </row>
     <row r="8" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F8" s="48"/>
     </row>
     <row r="9" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F9" s="48"/>
     </row>
     <row r="10" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="48"/>
     </row>
     <row r="12" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>89</v>
-      </c>
       <c r="C12" s="47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F12" s="48"/>
     </row>
     <row r="13" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="48"/>
     </row>
     <row r="15" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
       <c r="E15" s="53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="48"/>
     </row>
     <row r="18" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="47" t="s">
         <v>105</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>109</v>
       </c>
       <c r="F18" s="48"/>
     </row>
     <row r="19" s="47" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="47" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F19" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" s="47" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F20" s="48"/>
     </row>
